--- a/client/public/wizard_of_oz_experiment_data_solution.xlsx
+++ b/client/public/wizard_of_oz_experiment_data_solution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cornelius\Desktop\HISS PROJECT\wizard-of-oz\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhilippReinhard\Skripte\wizard-of-oz\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBCFEBF-3A73-467C-937A-9B6064E4BBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9DE0AC-5F73-4C34-9CA1-D7BD82A383BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22920" yWindow="8724" windowWidth="20748" windowHeight="7872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="solutionTickets" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>ticketCreator</t>
   </si>
@@ -80,21 +80,6 @@
     <t>[{"start":3, "end":6, "key":"Fehlerbeschreibung"},{"start":45, "end":60, "key":"System"}]</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Danke</t>
-  </si>
-  <si>
-    <t>Danke für deine Teilnahme</t>
-  </si>
-  <si>
     <t>01.12.2022</t>
   </si>
   <si>
@@ -102,19 +87,123 @@
   </si>
   <si>
     <t>12.1.2022 12:11:11 Lars Weber:  Ich habe den User unterstützt</t>
+  </si>
+  <si>
+    <t>Analysis for office is not working with data downloaded from LISA</t>
+  </si>
+  <si>
+    <t>10.02.2021</t>
+  </si>
+  <si>
+    <t>The add in analysis for office is activated but is not able to open the data downloaded from LISA, the user says that before used to open that kind of files, but it's giving an error message.
+Hi User,
+I'm not able to install AO on your PC.
+I try to find out who can do that.
+Alternatively, you could also reapply for AO via the IT shop to get the installation.
+Kind regards</t>
+  </si>
+  <si>
+    <t>Analysis for Excel Add-In causes crashes.</t>
+  </si>
+  <si>
+    <t>Hello, Is there any more stable version of "Analysis for Excel" for Office 365? This one causes a lot of crashes when run with VBA. My current version is as attached - 2.8.</t>
+  </si>
+  <si>
+    <t>2021-01-12 10:31:20 – Agent 1 (Work notes)
+Arek, Could you please overtake this ticket? Thank you
+2021-01-12 15:10:20 – Agent 2 (Work notes)
+Dear Team re installation SAP analysis for Microsoft Office doesn't helped, could you please assist
+2021-01-13 07:29:13 – Agent 3 (Additional comments)
+Hello,
+I'm using the same version of AO and did not have problems with it yet.
+This is the actual version that is in use.
+Maybe you can describe more in detail what happens and when so that we can support you.
+Alternatively, you can of course search the internet yourself for solutions to this. possibly the problem is also already known.
+Kind regards
+2021-01-18 10:17:44 – Agent 3 (Additional comments)
+Hello,
+I'm still waiting for your feedback.
+Regards
+2021-01-18 10:45:36 – Agent 3 (Close notes (Customer visible))
+Hello,
+the different browsers operate differently in some cases. The following link goes into this:
+https://blogs.sap.com/2019/02/14/which-browser-is-best-for-sap-analytics/
+Kind regards</t>
+  </si>
+  <si>
+    <t>Agent XY</t>
+  </si>
+  <si>
+    <t>17.01.2021</t>
+  </si>
+  <si>
+    <t>2021-02-18 13:28:48 – User (Additional comments)
+Many of our employees are using "Analysis for Excel O365PP" - most of them receive the message (please read the attachment) and the Add-in did not start. I can start the Add-in manually but after a restart (or Excel restart) the add-in is Inactive again. Do you have an idea what we can do in this case ? Thank you for your support.
+2021-02-19 08:58:10 – Agent 1 (Additional comments)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-23 09:05:09 – Agent 1 (Work notes)
+Hello,
+Since we cannot trigger installations in our team, I would like to ask HelpDesk to implement the following solutions depending on the installation status:
+1) User already had Analysis 2.8 and has now installed office365.
+If problems with Analysis occur in this case, Analysis 2.8 should be reinstalled.
+2) User had Analysis 2.4 and has now installed office365.
+Analysis 2.4 must be uninstalled, then Analysis 2.8 can be installed.
+3) After installing Office365 and having problems with Analysis, Analysis 2.8 was installed; probably an older version of Analysis was installed before.
+I do not see a solution for the problems that occurs in this case. From my point of view, the computer must then be re-installed!
+Kind regards
+2021-02-23 13:39:13 - Yapi Yapo (Additional comments)
+Hello Mr. Fuellenhals
+I would like to provide you my assistance  . I'm waiting for your response on Teams. Thanks
+2021-02-23 14:58:23 – Agent 2 (Work notes)
+I contacted the user by Teams. he find a solution. Uninstalled and install MS Office package. The user confirmed that everything is working properly.
+2021-02-23 14:59:15 - User (Work notes)
+After re-install from the Analysis Package the Add-In works </t>
+  </si>
+  <si>
+    <t>2021-02-10 22:07:10 - Agent XX (Work notes)
+Dear Team if you will be able to help the user please get in touch, thank you
+2021-02-11 15:41:05 – Agent XY (Work notes)
+Dear Team I uninstalled Analise for office, and installed new one for O365, but this doesn't help, still same error message, we also tried use Chrome, Edge, IE
+could you please assist 
+2021-02-17 12:45:54 – Agent XY (Work notes)
+@Agent YZ: can you support here?
+2021-02-23 09:11:09 - Agent XY (Work notes)
+Hello,
+Since we cannot trigger installations in our team, I would like to ask HelpDesk to implement the following solutions depending on the installation status:
+1) User already had Analysis 2.8 and has now installed office365.
+If problems with Analysis occur in this case, Analysis 2.8 should be reinstalled.
+2) User had Analysis 2.4 and has now installed office365.
+Analysis 2.4 must be uninstalled, then Analysis 2.8 can be installed.
+3) After installing Office365 and having problems with Analysis, Analysis 2.8 was installed; probably an older version of Analysis was installed before.
+I do not see a solution for the problems that occurs in this case.From my point of view, the computer must then be re-installed!
+4) After the installation, DataSources / Queries are missing: see appendix
+2021-02-23 14:06:24 – Agent XY (Work notes)
+after all steps, is working
+2021-02-23 14:06:24 - Agent XY (Close notes (Customer visible))
+done</t>
+  </si>
+  <si>
+    <t>Problems with O365 PP Analysis for Excel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,109 +226,130 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -258,7 +368,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7064B924-F2FC-46C3-B05D-DC079E3D2967}" name="Table2" displayName="Table2" ref="A1:H7" totalsRowShown="0">
   <autoFilter ref="A1:H7" xr:uid="{7064B924-F2FC-46C3-B05D-DC079E3D2967}"/>
   <tableColumns count="8">
-    <tableColumn id="10" xr3:uid="{A0CEA7F4-0404-4037-9E1B-1E5A093D521D}" name="systemId" dataDxfId="13">
+    <tableColumn id="10" xr3:uid="{A0CEA7F4-0404-4037-9E1B-1E5A093D521D}" name="systemId" dataDxfId="3">
       <calculatedColumnFormula>IFERROR(A1+1,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{F788B06C-E20D-499B-82A2-16BDBA4E08F2}" name="ticketId"/>
@@ -266,7 +376,7 @@
     <tableColumn id="3" xr3:uid="{D687C213-4411-461B-B464-482249F037FE}" name="ticketDate"/>
     <tableColumn id="4" xr3:uid="{3D4AC511-9511-4691-BDA8-1896A8C6B8D1}" name="ticketTitle"/>
     <tableColumn id="5" xr3:uid="{D5F8AA30-27C9-417B-802C-F7A71869CF4F}" name="ticketDescription"/>
-    <tableColumn id="6" xr3:uid="{804F2CFF-7186-4CCC-851C-E0E69BC88197}" name="ticketDescriptionHighlighting"/>
+    <tableColumn id="6" xr3:uid="{804F2CFF-7186-4CCC-851C-E0E69BC88197}" name="ticketDescriptionHighlighting" dataDxfId="2"/>
     <tableColumn id="11" xr3:uid="{B5D8F818-43C1-47E1-B85E-88AC7524A690}" name="ticketSolutionHistory"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -538,22 +648,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.90625" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="58" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -576,10 +687,10 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <f t="shared" ref="A2:A5" si="0">IFERROR(A1+1,0)</f>
         <v>0</v>
@@ -599,14 +710,14 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -615,25 +726,25 @@
         <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
-        <v>21</v>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -642,25 +753,25 @@
         <v>345</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
-        <v>21</v>
+      <c r="H4" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -669,26 +780,26 @@
         <v>567</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s">
-        <v>21</v>
+      <c r="H5" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
         <f>IFERROR(A5+1,0)</f>
         <v>4</v>
       </c>
@@ -696,26 +807,17 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
         <f>IFERROR(A6+1,0)</f>
         <v>5</v>
       </c>
@@ -723,83 +825,84 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:H7">
-    <cfRule type="containsBlanks" dxfId="12" priority="12">
+  <conditionalFormatting sqref="A2:H2 A5:H7 A4:D4 F4:H4 A3:E3 G3:H3">
+    <cfRule type="containsBlanks" dxfId="15" priority="14">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:H3">
-    <cfRule type="containsBlanks" dxfId="11" priority="11">
+  <conditionalFormatting sqref="A3:E3 G3:H3">
+    <cfRule type="containsBlanks" dxfId="14" priority="13">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:H4">
-    <cfRule type="containsBlanks" dxfId="10" priority="10">
+  <conditionalFormatting sqref="A4:D4 F4:H4">
+    <cfRule type="containsBlanks" dxfId="13" priority="12">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:H5">
-    <cfRule type="containsBlanks" dxfId="9" priority="9">
+    <cfRule type="containsBlanks" dxfId="12" priority="11">
       <formula>LEN(TRIM(A5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsBlanks" dxfId="8" priority="8">
+    <cfRule type="containsBlanks" dxfId="11" priority="10">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="containsBlanks" dxfId="7" priority="7">
+    <cfRule type="containsBlanks" dxfId="10" priority="9">
       <formula>LEN(TRIM(D6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsBlanks" dxfId="6" priority="6">
+    <cfRule type="containsBlanks" dxfId="9" priority="8">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsBlanks" dxfId="5" priority="5">
+    <cfRule type="containsBlanks" dxfId="8" priority="7">
       <formula>LEN(TRIM(D5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
+    <cfRule type="containsBlanks" dxfId="7" priority="6">
       <formula>LEN(TRIM(D6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F7">
-    <cfRule type="containsBlanks" dxfId="3" priority="3">
+    <cfRule type="containsBlanks" dxfId="6" priority="5">
       <formula>LEN(TRIM(F6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:H7">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+    <cfRule type="containsBlanks" dxfId="5" priority="4">
       <formula>LEN(TRIM(A7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:H6">
+    <cfRule type="containsBlanks" dxfId="4" priority="3">
+      <formula>LEN(TRIM(E6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(F3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(E6))=0</formula>
+      <formula>LEN(TRIM(F3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/client/public/wizard_of_oz_experiment_data_solution.xlsx
+++ b/client/public/wizard_of_oz_experiment_data_solution.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhilippReinhard\Skripte\wizard-of-oz\client\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhilippReinhard\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9DE0AC-5F73-4C34-9CA1-D7BD82A383BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC395239-6E0D-4228-A52D-D5138EEB1408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22920" yWindow="8724" windowWidth="20748" windowHeight="7872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="solutionTickets" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={EE786066-12E4-464F-9FE9-780A1920CDB0}</author>
+    <author>tc={DDE3D04D-3A64-44A2-B3DD-6A6ABA4E683E}</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{EE786066-12E4-464F-9FE9-780A1920CDB0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Problem und Loesung?</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="1" shapeId="0" xr:uid="{DDE3D04D-3A64-44A2-B3DD-6A6ABA4E683E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    So weiterzaehlen?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>ticketCreator</t>
   </si>
@@ -80,118 +107,194 @@
     <t>[{"start":3, "end":6, "key":"Fehlerbeschreibung"},{"start":45, "end":60, "key":"System"}]</t>
   </si>
   <si>
-    <t>01.12.2022</t>
-  </si>
-  <si>
     <t>ticketSolutionHistory</t>
   </si>
   <si>
     <t>12.1.2022 12:11:11 Lars Weber:  Ich habe den User unterstützt</t>
   </si>
   <si>
-    <t>Analysis for office is not working with data downloaded from LISA</t>
-  </si>
-  <si>
-    <t>10.02.2021</t>
-  </si>
-  <si>
-    <t>The add in analysis for office is activated but is not able to open the data downloaded from LISA, the user says that before used to open that kind of files, but it's giving an error message.
-Hi User,
-I'm not able to install AO on your PC.
-I try to find out who can do that.
-Alternatively, you could also reapply for AO via the IT shop to get the installation.
-Kind regards</t>
-  </si>
-  <si>
-    <t>Analysis for Excel Add-In causes crashes.</t>
-  </si>
-  <si>
-    <t>Hello, Is there any more stable version of "Analysis for Excel" for Office 365? This one causes a lot of crashes when run with VBA. My current version is as attached - 2.8.</t>
-  </si>
-  <si>
-    <t>2021-01-12 10:31:20 – Agent 1 (Work notes)
-Arek, Could you please overtake this ticket? Thank you
-2021-01-12 15:10:20 – Agent 2 (Work notes)
-Dear Team re installation SAP analysis for Microsoft Office doesn't helped, could you please assist
-2021-01-13 07:29:13 – Agent 3 (Additional comments)
-Hello,
-I'm using the same version of AO and did not have problems with it yet.
-This is the actual version that is in use.
-Maybe you can describe more in detail what happens and when so that we can support you.
-Alternatively, you can of course search the internet yourself for solutions to this. possibly the problem is also already known.
-Kind regards
-2021-01-18 10:17:44 – Agent 3 (Additional comments)
-Hello,
-I'm still waiting for your feedback.
-Regards
-2021-01-18 10:45:36 – Agent 3 (Close notes (Customer visible))
-Hello,
-the different browsers operate differently in some cases. The following link goes into this:
-https://blogs.sap.com/2019/02/14/which-browser-is-best-for-sap-analytics/
-Kind regards</t>
-  </si>
-  <si>
-    <t>Agent XY</t>
-  </si>
-  <si>
-    <t>17.01.2021</t>
-  </si>
-  <si>
-    <t>2021-02-18 13:28:48 – User (Additional comments)
-Many of our employees are using "Analysis for Excel O365PP" - most of them receive the message (please read the attachment) and the Add-in did not start. I can start the Add-in manually but after a restart (or Excel restart) the add-in is Inactive again. Do you have an idea what we can do in this case ? Thank you for your support.
-2021-02-19 08:58:10 – Agent 1 (Additional comments)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-02-23 09:05:09 – Agent 1 (Work notes)
-Hello,
-Since we cannot trigger installations in our team, I would like to ask HelpDesk to implement the following solutions depending on the installation status:
-1) User already had Analysis 2.8 and has now installed office365.
-If problems with Analysis occur in this case, Analysis 2.8 should be reinstalled.
-2) User had Analysis 2.4 and has now installed office365.
-Analysis 2.4 must be uninstalled, then Analysis 2.8 can be installed.
-3) After installing Office365 and having problems with Analysis, Analysis 2.8 was installed; probably an older version of Analysis was installed before.
-I do not see a solution for the problems that occurs in this case. From my point of view, the computer must then be re-installed!
-Kind regards
-2021-02-23 13:39:13 - Yapi Yapo (Additional comments)
-Hello Mr. Fuellenhals
-I would like to provide you my assistance  . I'm waiting for your response on Teams. Thanks
-2021-02-23 14:58:23 – Agent 2 (Work notes)
-I contacted the user by Teams. he find a solution. Uninstalled and install MS Office package. The user confirmed that everything is working properly.
-2021-02-23 14:59:15 - User (Work notes)
-After re-install from the Analysis Package the Add-In works </t>
-  </si>
-  <si>
-    <t>2021-02-10 22:07:10 - Agent XX (Work notes)
-Dear Team if you will be able to help the user please get in touch, thank you
-2021-02-11 15:41:05 – Agent XY (Work notes)
-Dear Team I uninstalled Analise for office, and installed new one for O365, but this doesn't help, still same error message, we also tried use Chrome, Edge, IE
-could you please assist 
-2021-02-17 12:45:54 – Agent XY (Work notes)
-@Agent YZ: can you support here?
-2021-02-23 09:11:09 - Agent XY (Work notes)
-Hello,
-Since we cannot trigger installations in our team, I would like to ask HelpDesk to implement the following solutions depending on the installation status:
-1) User already had Analysis 2.8 and has now installed office365.
-If problems with Analysis occur in this case, Analysis 2.8 should be reinstalled.
-2) User had Analysis 2.4 and has now installed office365.
-Analysis 2.4 must be uninstalled, then Analysis 2.8 can be installed.
-3) After installing Office365 and having problems with Analysis, Analysis 2.8 was installed; probably an older version of Analysis was installed before.
-I do not see a solution for the problems that occurs in this case.From my point of view, the computer must then be re-installed!
-4) After the installation, DataSources / Queries are missing: see appendix
-2021-02-23 14:06:24 – Agent XY (Work notes)
-after all steps, is working
-2021-02-23 14:06:24 - Agent XY (Close notes (Customer visible))
-done</t>
-  </si>
-  <si>
-    <t>Problems with O365 PP Analysis for Excel</t>
+    <t>Ich möchte Viseo 2016 Standard auf diesem Gerät installieren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installation Viseo 2016 Standard </t>
+  </si>
+  <si>
+    <t>08.01.2023</t>
+  </si>
+  <si>
+    <t>Agent Marius Müller</t>
+  </si>
+  <si>
+    <t>Agent Lisa Schmidt</t>
+  </si>
+  <si>
+    <t>Hallo, gibt es eine stabilere Version von "Analysis for Excel" für Office 365? Diese Version verursacht eine Menge von Abstürzen, wenn sie mit VBA ausgeführt wird. Meine aktuelle Version ist 2.8.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-08 15:09:05 - Agent 1 (Sichtbar für Kunden)
+Lieber Nuter,
+bitte bestellen Sie diese Software über das IT Service Portal.
+Bitte vergessen Sie nicht, dass Ihr Vorgesetzter diesen Antrag per E-Mail, die er vom IT-Shop erhält, genehmigen muss.
+Der Link: https://software.service.com/
+Sollte der Link nicht funktionieren, gehen Sie bitte zum IT-Service-Portal. Sie finden den Antrag über folgenden Pfad:
+Startseite Servicekatalog Software &amp; Apps Microsoft Visio Standard (für O365PP)
+</t>
+  </si>
+  <si>
+    <t>Add-In "Analysis for Excel" verursacht Abstürze.</t>
+  </si>
+  <si>
+    <t>Das Add-in "Analysis for Office" ist aktiviert, kann aber die heruntergeladenen Daten von LISA nicht öffnen. Der Benutzer sagt, dass er diese Art von Dateien früher geöffnet hat, aber es wird eine Fehlermeldung angezeigt.
+Hallo Nutzer,
+Ich bin nicht in der Lage, AO auf Ihrem PC zu installieren.
+Ich versuche, herauszufinden, wer dafür zuständig ist.
+Alternativ könnten Sie AO auch über den IT-Shop neu beantragen, um die Installation zu erhalten.
+Mit freundlichen Grüßen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-03 09:05:09 - Agent 1 (Arbeitsnotizen)
+Hallo,
+da wir in unserem Team keine Installationen auslösen können, möchte ich den HelpDesk bitten, je nach Installationsstatus folgende Lösungen zu implementieren:
+1) Benutzer hatte bereits Analysis 2.8 und hat nun Office365 installiert.
+Wenn in diesem Fall Probleme mit Analysis auftreten, sollte Analysis 2.8 neu installiert werden.
+2) Der Benutzer hatte Analysis 2.4 und hat nun Office365 installiert.
+Analysis 2.4 muss deinstalliert werden, dann kann Analysis 2.8 installiert werden.
+3) Nach der Installation von Office365 und den Problemen mit Analysis wurde Analysis 2.8 installiert; wahrscheinlich war vorher eine ältere Version von Analysis installiert.
+In diesem Fall sehe ich keine Lösung für die auftretenden Probleme und aus meiner Sicht muss der Rechner dann neu installiert werden! 
+Mit freundlichen Grüßen
+2023-01-03 13:39:13 - Agent 2 (Weitere Kommentare)
+Hallo Nutzer,
+ich möchte Ihnen gerne meine Hilfe anbieten. Ich warte auf Ihre Antwort auf Teams. Danke.
+2023-01-03 14:58:23 - Agent 2 (Arbeitsnotizen)
+Ich habe den Benutzer über Teams kontaktiert. Er hat eine Lösung gefunden. Das MS Office-Paket wurde deinstalliert und neu installiert. Der Benutzer hat bestätigt, dass alles ordnungsgemäß funktioniert.
+2023-01-03 14:59:15 - Agent 1 (Arbeitsnotizen)
+Nach der Neuinstallation aus dem Analysepaket funktioniert das Add-In. </t>
+  </si>
+  <si>
+    <t>2023-01-02 13:28:48 - Nutzer (Zusätzliche Kommentare)
+Viele unserer Mitarbeiter nutzen "Analysis for Excel O365PP" - die meisten von ihnen erhalten eine Fehlermeldung und das Add-in wird nicht gestartet. Ich kann das Add-in manuell starten, aber nach einem Neustart (oder Excel-Neustart) ist das Add-in wieder inaktiv. Haben Sie eine Idee, was wir in diesem Fall tun können? Vielen Dank für Ihre Unterstützung.</t>
+  </si>
+  <si>
+    <t>03.01.2023</t>
+  </si>
+  <si>
+    <t>Probleme mit O365 PP Analysis for Excel</t>
+  </si>
+  <si>
+    <t>Agent Peter Becker</t>
+  </si>
+  <si>
+    <t>Agent Lukas Meyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"Analysis for Office" funktioniert nicht mit den heruntergeladenen Daten von LISA.</t>
+  </si>
+  <si>
+    <t>2023-01-10 22:07:10 - Agent 1 (Arbeitsnotizen)
+Liebes Team, wenn Sie dem Benutzer helfen können, melden Sie sich bitte, danke.
+2023-01-11 15:41:05 - Agent 1 (Arbeitsnotizen)
+Liebes Team, ich habe "Analisis for Office" deinstalliert und eine neue Version für O365 installiert, aber das hilft nicht. Es kommt immernoch die gleiche Fehlermeldung. Wir haben es auch mit Chrome, Edge und IE versucht.
+Könnten Sie bitte helfen? 
+2023-01-17 12:45:54 - Agent 2 (Arbeitsnotizen)
+@Agent 3: Können Sie hier unterstützen?
+2023-01-23 09:11:09 - Agent 3 (Arbeitsnotizen)
+Hallo,
+da wir in unserem Team keine Installationen auslösen können, möchte ich den HelpDesk bitten, je nach Installationsstatus folgende Lösungen zu implementieren:
+1) Benutzer hatte bereits Analysis 2.8 und hat nun Office365 installiert.
+Wenn in diesem Fall Probleme mit Analysis auftreten, sollte Analysis 2.8 neu installiert werden.
+2) Der Benutzer hatte Analysis 2.4 und hat nun Office365 installiert.
+Analysis 2.4 muss deinstalliert werden, dann kann Analysis 2.8 installiert werden.
+3) Nach der Installation von Office365 und den Problemen mit Analysis wurde Analysis 2.8 installiert; wahrscheinlich war vorher eine ältere Version von Analysis installiert.
+In diesem Fall sehe ich keine Lösung für die auftretenden Probleme und aus meiner Sicht muss der Rechner dann neu installiert werden!
+4) Nach der Installation fehlen DataSources oder Queries: siehe Anhang
+2023-01-23 14:06:24 - Agent 1 (Arbeitsnotizen)
+Nach allen Schritten funktioniert es jetzt.
+2023-01-23 14:06:24 - Agent 1 (Notizen schließen (Sichtbar für Kunden))
+Erledigt.</t>
+  </si>
+  <si>
+    <t>10.01.2023</t>
+  </si>
+  <si>
+    <t>17.01.2023</t>
+  </si>
+  <si>
+    <t>2023-01-17 10:31:20 - Agent 1 (Arbeitsnotizen)
+Agent 2, könnten Sie dieses Ticket bitte übernehmen? Dankeschön
+2023-01-17 15:10:20 - Agent 2 (Arbeitsnotizen)
+Liebes Team, die Installation der SAP-Analyse für Microsoft Office hat nicht geholfen, können Sie bitte helfen?
+2023-01-18 07:29:13 - Agent 3 (Zusätzliche Kommentare)
+Hallo,
+Ich benutze die gleiche Version von AO und hatte bisher keine Probleme damit.
+Das ist die aktuelle Version, die im Einsatz ist.
+Vielleicht können Sie genauer beschreiben, was wann passiert, damit wir Sie unterstützen können.
+Alternativ können Sie natürlich auch selbst im Internet nach Lösungen suchen Möglicherweise ist das Problem auch schon bekannt.
+Mit freundlichen Grüßen
+2023-01-27 10:17:44 - Agent 3 (Weitere Kommentare)
+Hallo,
+ich warte immer noch auf Ihre Rückmeldung.
+Mit freundlichen Grüßen
+2023-01-27 10:45:36 - Agent 3 (Abschließende Notizen (Sichtbar für Kunden))
+Hallo,
+teilweise unktionieren die verschiedenen Browser unterschiedlich. Im folgenden Link finden Sie weitere Inforamtionen dayu:
+https:/hilfe.welcher-browser-funktioniert-besser/
+Mit freundlichen Grüßen</t>
+  </si>
+  <si>
+    <t>Agent Sabine Weber</t>
+  </si>
+  <si>
+    <t>Ich möchte die Visio-Software löschen, kann aber kein bestehendes Visio-Abonnement auswählen.</t>
+  </si>
+  <si>
+    <t>2023-01-05 04:11:07 - Agent 1(Notizen schließen (für Kunden sichtbar))
+Hallo Nutzer,
+wie im Gespräch erwähnt, können Sie über den unten stehenden Link die Deinstallation anfordern:
+Microsoft Visio 2013 deinstallieren &gt;
+https://service-deinstallieren.com/serviceportal12345
+oder
+Microsoft Visio Standard (für O365PP) deinstallieren &gt;
+https://service-deinstallieren.com/serviceportal54321
+Dies ist für Visio Standard (für O365PP)
+Dankeschön</t>
+  </si>
+  <si>
+    <t>05.01.2023</t>
+  </si>
+  <si>
+    <t>Visio Deinstallation</t>
+  </si>
+  <si>
+    <t>Agent Jan Wagner</t>
+  </si>
+  <si>
+    <t>18.01.2023</t>
+  </si>
+  <si>
+    <t>Fehlende Programme nach Update</t>
+  </si>
+  <si>
+    <t>Nach dem Update von Windows 10 Version 20H2 und Office 2013 fehlen MS Project und MS Visio.</t>
+  </si>
+  <si>
+    <t>2023-01-18 03:03:02 - Agent 1 (Notizen schließen (für Kunden sichtbar))
+Lieber Nutzer,
+ich habe Ihr Profil überprüft. Ihr Windows wurde bereits mit der Microsoft Office O365 Version aktualisiert. Daher funktioniert die Version 2013 nicht für O365.
+Ich habe den Verlauf früherer Anfragen überprüft und nicht gesehen, dass Sie Visio und Project über den IT Shop angefordert haben.
+Wenn Sie es anfordern möchten, nutzen sie den folgenden Link:
+Visio (O365)
+https://request.service-now.com/serviceportal02468
+Projekt Standard (O365)
+https://request.service-now.com/serviceportal13579
+Ich danke Ihnen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +307,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -234,9 +345,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,20 +355,6 @@
   <dxfs count="16">
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
@@ -266,6 +363,20 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -364,11 +475,17 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Mike Mardari" id="{7F70F4EC-2ACF-4000-A1DF-77AA11C7E0A5}" userId="ef6abb53d3923e8c" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7064B924-F2FC-46C3-B05D-DC079E3D2967}" name="Table2" displayName="Table2" ref="A1:H7" totalsRowShown="0">
-  <autoFilter ref="A1:H7" xr:uid="{7064B924-F2FC-46C3-B05D-DC079E3D2967}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7064B924-F2FC-46C3-B05D-DC079E3D2967}" name="Table2" displayName="Table2" ref="A1:H8" totalsRowShown="0">
+  <autoFilter ref="A1:H8" xr:uid="{7064B924-F2FC-46C3-B05D-DC079E3D2967}"/>
   <tableColumns count="8">
-    <tableColumn id="10" xr3:uid="{A0CEA7F4-0404-4037-9E1B-1E5A093D521D}" name="systemId" dataDxfId="3">
+    <tableColumn id="10" xr3:uid="{A0CEA7F4-0404-4037-9E1B-1E5A093D521D}" name="systemId" dataDxfId="1">
       <calculatedColumnFormula>IFERROR(A1+1,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{F788B06C-E20D-499B-82A2-16BDBA4E08F2}" name="ticketId"/>
@@ -376,7 +493,7 @@
     <tableColumn id="3" xr3:uid="{D687C213-4411-461B-B464-482249F037FE}" name="ticketDate"/>
     <tableColumn id="4" xr3:uid="{3D4AC511-9511-4691-BDA8-1896A8C6B8D1}" name="ticketTitle"/>
     <tableColumn id="5" xr3:uid="{D5F8AA30-27C9-417B-802C-F7A71869CF4F}" name="ticketDescription"/>
-    <tableColumn id="6" xr3:uid="{804F2CFF-7186-4CCC-851C-E0E69BC88197}" name="ticketDescriptionHighlighting" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{804F2CFF-7186-4CCC-851C-E0E69BC88197}" name="ticketDescriptionHighlighting" dataDxfId="0"/>
     <tableColumn id="11" xr3:uid="{B5D8F818-43C1-47E1-B85E-88AC7524A690}" name="ticketSolutionHistory"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -644,22 +761,33 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F4" dT="2022-12-29T18:23:30.32" personId="{7F70F4EC-2ACF-4000-A1DF-77AA11C7E0A5}" id="{EE786066-12E4-464F-9FE9-780A1920CDB0}">
+    <text>Problem und Loesung?</text>
+  </threadedComment>
+  <threadedComment ref="B6" dT="2022-12-29T18:37:59.09" personId="{7F70F4EC-2ACF-4000-A1DF-77AA11C7E0A5}" id="{DDE3D04D-3A64-44A2-B3DD-6A6ABA4E683E}">
+    <text>So weiterzaehlen?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
     <col min="3" max="3" width="7.81640625" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" customWidth="1"/>
     <col min="5" max="5" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.90625" customWidth="1"/>
-    <col min="7" max="7" width="18.26953125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="43.81640625" customWidth="1"/>
+    <col min="7" max="7" width="42.1796875" customWidth="1"/>
     <col min="8" max="8" width="58" customWidth="1"/>
     <col min="9" max="9" width="13.1796875" customWidth="1"/>
   </cols>
@@ -687,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -710,14 +838,14 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -726,22 +854,22 @@
         <v>123</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -750,52 +878,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>345</v>
+        <v>456</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5">
-        <v>567</v>
+        <v>789</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
         <v>25</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -804,16 +932,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>101112</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
         <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -822,17 +959,53 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>131415</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
         <v>12</v>
       </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f>IFERROR(A7+1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>161718</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H12" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 A5:H7 A4:D4 F4:H4 A3:E3 G3:H3">
@@ -896,19 +1069,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(F3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(F3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/client/public/wizard_of_oz_experiment_data_solution.xlsx
+++ b/client/public/wizard_of_oz_experiment_data_solution.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhilippReinhard\Skripte\wizard-of-oz\client\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cornelius\Desktop\HISS PROJECT\wizard-of-oz\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9DE0AC-5F73-4C34-9CA1-D7BD82A383BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58286DD-0CF6-4B6A-9926-4AB30547C54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22920" yWindow="8724" windowWidth="20748" windowHeight="7872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="solutionTickets" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -236,7 +236,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,20 +243,6 @@
   <dxfs count="16">
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
@@ -266,6 +251,20 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -368,7 +367,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7064B924-F2FC-46C3-B05D-DC079E3D2967}" name="Table2" displayName="Table2" ref="A1:H7" totalsRowShown="0">
   <autoFilter ref="A1:H7" xr:uid="{7064B924-F2FC-46C3-B05D-DC079E3D2967}"/>
   <tableColumns count="8">
-    <tableColumn id="10" xr3:uid="{A0CEA7F4-0404-4037-9E1B-1E5A093D521D}" name="systemId" dataDxfId="3">
+    <tableColumn id="10" xr3:uid="{A0CEA7F4-0404-4037-9E1B-1E5A093D521D}" name="systemId" dataDxfId="1">
       <calculatedColumnFormula>IFERROR(A1+1,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{F788B06C-E20D-499B-82A2-16BDBA4E08F2}" name="ticketId"/>
@@ -376,7 +375,7 @@
     <tableColumn id="3" xr3:uid="{D687C213-4411-461B-B464-482249F037FE}" name="ticketDate"/>
     <tableColumn id="4" xr3:uid="{3D4AC511-9511-4691-BDA8-1896A8C6B8D1}" name="ticketTitle"/>
     <tableColumn id="5" xr3:uid="{D5F8AA30-27C9-417B-802C-F7A71869CF4F}" name="ticketDescription"/>
-    <tableColumn id="6" xr3:uid="{804F2CFF-7186-4CCC-851C-E0E69BC88197}" name="ticketDescriptionHighlighting" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{804F2CFF-7186-4CCC-851C-E0E69BC88197}" name="ticketDescriptionHighlighting" dataDxfId="0"/>
     <tableColumn id="11" xr3:uid="{B5D8F818-43C1-47E1-B85E-88AC7524A690}" name="ticketSolutionHistory"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -649,22 +648,23 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.7265625" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" customWidth="1"/>
-    <col min="5" max="5" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.90625" customWidth="1"/>
-    <col min="7" max="7" width="18.26953125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="58" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -690,7 +690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A5" si="0">IFERROR(A1+1,0)</f>
         <v>0</v>
@@ -710,14 +710,14 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -737,14 +737,14 @@
       <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -764,14 +764,14 @@
       <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -791,14 +791,14 @@
       <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>IFERROR(A5+1,0)</f>
         <v>4</v>
@@ -812,11 +812,11 @@
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>IFERROR(A6+1,0)</f>
         <v>5</v>
@@ -830,7 +830,7 @@
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -896,12 +896,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(F3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(F3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/client/public/wizard_of_oz_experiment_data_solution.xlsx
+++ b/client/public/wizard_of_oz_experiment_data_solution.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhilippReinhard\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cornelius\Desktop\HISS PROJECT\wizard-of-oz\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC395239-6E0D-4228-A52D-D5138EEB1408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBFECBD-D34C-4FDF-871F-F254BB13C4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="solutionTickets" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>ticketCreator</t>
   </si>
@@ -352,7 +352,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -485,15 +499,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7064B924-F2FC-46C3-B05D-DC079E3D2967}" name="Table2" displayName="Table2" ref="A1:H8" totalsRowShown="0">
   <autoFilter ref="A1:H8" xr:uid="{7064B924-F2FC-46C3-B05D-DC079E3D2967}"/>
   <tableColumns count="8">
-    <tableColumn id="10" xr3:uid="{A0CEA7F4-0404-4037-9E1B-1E5A093D521D}" name="systemId" dataDxfId="1">
-      <calculatedColumnFormula>IFERROR(A1+1,0)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="10" xr3:uid="{A0CEA7F4-0404-4037-9E1B-1E5A093D521D}" name="systemId" dataDxfId="3"/>
     <tableColumn id="1" xr3:uid="{F788B06C-E20D-499B-82A2-16BDBA4E08F2}" name="ticketId"/>
     <tableColumn id="2" xr3:uid="{00BD2982-1A6B-4C2D-BB97-48969FCAB4C5}" name="ticketCreator"/>
     <tableColumn id="3" xr3:uid="{D687C213-4411-461B-B464-482249F037FE}" name="ticketDate"/>
     <tableColumn id="4" xr3:uid="{3D4AC511-9511-4691-BDA8-1896A8C6B8D1}" name="ticketTitle"/>
     <tableColumn id="5" xr3:uid="{D5F8AA30-27C9-417B-802C-F7A71869CF4F}" name="ticketDescription"/>
-    <tableColumn id="6" xr3:uid="{804F2CFF-7186-4CCC-851C-E0E69BC88197}" name="ticketDescriptionHighlighting" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{804F2CFF-7186-4CCC-851C-E0E69BC88197}" name="ticketDescriptionHighlighting" dataDxfId="2"/>
     <tableColumn id="11" xr3:uid="{B5D8F818-43C1-47E1-B85E-88AC7524A690}" name="ticketSolutionHistory"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -777,22 +789,22 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.54296875" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" customWidth="1"/>
-    <col min="5" max="5" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.81640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" customWidth="1"/>
     <col min="8" max="8" width="58" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -818,9 +830,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f t="shared" ref="A2:A5" si="0">IFERROR(A1+1,0)</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -845,9 +856,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3">
@@ -872,9 +882,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4">
@@ -899,9 +908,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5">
@@ -926,9 +934,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>IFERROR(A5+1,0)</f>
         <v>4</v>
       </c>
       <c r="B6">
@@ -953,9 +960,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>IFERROR(A6+1,0)</f>
         <v>5</v>
       </c>
       <c r="B7">
@@ -980,9 +986,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>IFERROR(A7+1,0)</f>
         <v>6</v>
       </c>
       <c r="B8">
@@ -1000,82 +1005,95 @@
       <c r="F8" t="s">
         <v>44</v>
       </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
       <c r="H8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H12" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 A5:H7 A4:D4 F4:H4 A3:E3 G3:H3">
+    <cfRule type="containsBlanks" dxfId="17" priority="16">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:E3 G3:H3">
+    <cfRule type="containsBlanks" dxfId="16" priority="15">
+      <formula>LEN(TRIM(A3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:D4 F4:H4">
     <cfRule type="containsBlanks" dxfId="15" priority="14">
+      <formula>LEN(TRIM(A4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:H5">
+    <cfRule type="containsBlanks" dxfId="14" priority="13">
+      <formula>LEN(TRIM(A5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="containsBlanks" dxfId="13" priority="12">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:E3 G3:H3">
-    <cfRule type="containsBlanks" dxfId="14" priority="13">
-      <formula>LEN(TRIM(A3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:D4 F4:H4">
-    <cfRule type="containsBlanks" dxfId="13" priority="12">
-      <formula>LEN(TRIM(A4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:H5">
+  <conditionalFormatting sqref="D6:D7">
     <cfRule type="containsBlanks" dxfId="12" priority="11">
-      <formula>LEN(TRIM(A5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
+      <formula>LEN(TRIM(D6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
     <cfRule type="containsBlanks" dxfId="11" priority="10">
-      <formula>LEN(TRIM(A2))=0</formula>
+      <formula>LEN(TRIM(D4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsBlanks" dxfId="10" priority="9">
+      <formula>LEN(TRIM(D5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="containsBlanks" dxfId="10" priority="9">
+    <cfRule type="containsBlanks" dxfId="9" priority="8">
       <formula>LEN(TRIM(D6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsBlanks" dxfId="9" priority="8">
-      <formula>LEN(TRIM(D4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="F6:F7">
     <cfRule type="containsBlanks" dxfId="8" priority="7">
-      <formula>LEN(TRIM(D5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
+      <formula>LEN(TRIM(F6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:H7">
     <cfRule type="containsBlanks" dxfId="7" priority="6">
-      <formula>LEN(TRIM(D6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F7">
+      <formula>LEN(TRIM(A7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:H6">
     <cfRule type="containsBlanks" dxfId="6" priority="5">
-      <formula>LEN(TRIM(F6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:H7">
+      <formula>LEN(TRIM(E6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
     <cfRule type="containsBlanks" dxfId="5" priority="4">
-      <formula>LEN(TRIM(A7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:H6">
+      <formula>LEN(TRIM(F3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
     <cfRule type="containsBlanks" dxfId="4" priority="3">
-      <formula>LEN(TRIM(E6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(F3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(F3))=0</formula>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(G8))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/client/public/wizard_of_oz_experiment_data_solution.xlsx
+++ b/client/public/wizard_of_oz_experiment_data_solution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cornelius\Desktop\HISS PROJECT\wizard-of-oz\client\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wikassel-my.sharepoint.com/personal/mahei_li_wi-kassel_de/Documents/Crowdsupport/05 Publikationen/2023/DESRIST_Reference Process for Labeling/03_Data Experiment/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBFECBD-D34C-4FDF-871F-F254BB13C4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{CFBFECBD-D34C-4FDF-871F-F254BB13C4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF37E45F-2564-4674-940A-E2EF6082A36F}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23136" yWindow="2772" windowWidth="30936" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="solutionTickets" sheetId="1" r:id="rId1"/>
@@ -38,11 +38,14 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={EE786066-12E4-464F-9FE9-780A1920CDB0}</author>
-    <author>tc={DDE3D04D-3A64-44A2-B3DD-6A6ABA4E683E}</author>
+    <author>tc={6389E30A-B981-43E6-B9D6-9091AB8B1E0C}</author>
+    <author>tc={5124530A-C4D2-415A-8B83-33B9F9EF9B11}</author>
+    <author>tc={67597BC1-328E-4D8C-85E4-80D8B071A9BF}</author>
+    <author>tc={201163F4-2570-45F6-A26E-922BDB0FDDF5}</author>
+    <author>tc={70C9AA59-200A-4808-A766-33D065B0EC30}</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{EE786066-12E4-464F-9FE9-780A1920CDB0}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{6389E30A-B981-43E6-B9D6-9091AB8B1E0C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -50,12 +53,43 @@
     Problem und Loesung?</t>
       </text>
     </comment>
-    <comment ref="B6" authorId="1" shapeId="0" xr:uid="{DDE3D04D-3A64-44A2-B3DD-6A6ABA4E683E}">
+    <comment ref="F6" authorId="1" shapeId="0" xr:uid="{5124530A-C4D2-415A-8B83-33B9F9EF9B11}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    So weiterzaehlen?</t>
+    Problem und Loesung?</t>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="2" shapeId="0" xr:uid="{67597BC1-328E-4D8C-85E4-80D8B071A9BF}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Hier Ende der Problembeschreobung weggelassen, da nicht verstanden, was gemeint ist.
+Original: Campus 1 : MY / Cisco soft phone unable to use
+2021-06-24 05:03:58 - Mas Azra Zabirah Mohd Azahari (Additional comments)
+Additional Location Information: 
+Affected Device: Cisco soft phone
+Issue description: Unable to use CISCO soft phone even though has been installed, set up and test by IT support team and no CISCO soft phone install in CITRIX in case  need to use the soft phone in the CITRIX window.
+Need soft phone issue to resolve as soon as possible as need to contact supplier regularly.
+</t>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="3" shapeId="0" xr:uid="{201163F4-2570-45F6-A26E-922BDB0FDDF5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ab hier welche ticket Id? Weiterhin 3 nummern? Oder hier 4 nummern?</t>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="4" shapeId="0" xr:uid="{70C9AA59-200A-4808-A766-33D065B0EC30}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ab hier welche ticket Id? Weiterhin 3 nummern? Oder hier 4 nummern?</t>
       </text>
     </comment>
   </commentList>
@@ -63,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
   <si>
     <t>ticketCreator</t>
   </si>
@@ -83,73 +117,19 @@
     <t>ticketId</t>
   </si>
   <si>
-    <t>Hier steht die Ticketnummer</t>
-  </si>
-  <si>
-    <t>Hier steht der Ticketersteller</t>
-  </si>
-  <si>
-    <t>Ich bin der Titel des Tickets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ich bin die Ticketbeschreibung mit der Hervorhebung der relvanten Aspekte. Auf Basis dieses Highlightings sucht eine KI nach Lösungsvorschlägen für dich. Hierfür musst du auf den Button KI Empfehlung klicken. </t>
-  </si>
-  <si>
     <t>systemId</t>
   </si>
   <si>
-    <t>Ticketerstellungsdatum</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>[{"start":3, "end":6, "key":"Fehlerbeschreibung"},{"start":45, "end":60, "key":"System"}]</t>
   </si>
   <si>
     <t>ticketSolutionHistory</t>
   </si>
   <si>
-    <t>12.1.2022 12:11:11 Lars Weber:  Ich habe den User unterstützt</t>
-  </si>
-  <si>
-    <t>Ich möchte Viseo 2016 Standard auf diesem Gerät installieren.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installation Viseo 2016 Standard </t>
-  </si>
-  <si>
     <t>08.01.2023</t>
   </si>
   <si>
-    <t>Agent Marius Müller</t>
-  </si>
-  <si>
     <t>Agent Lisa Schmidt</t>
-  </si>
-  <si>
-    <t>Hallo, gibt es eine stabilere Version von "Analysis for Excel" für Office 365? Diese Version verursacht eine Menge von Abstürzen, wenn sie mit VBA ausgeführt wird. Meine aktuelle Version ist 2.8.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-08 15:09:05 - Agent 1 (Sichtbar für Kunden)
-Lieber Nuter,
-bitte bestellen Sie diese Software über das IT Service Portal.
-Bitte vergessen Sie nicht, dass Ihr Vorgesetzter diesen Antrag per E-Mail, die er vom IT-Shop erhält, genehmigen muss.
-Der Link: https://software.service.com/
-Sollte der Link nicht funktionieren, gehen Sie bitte zum IT-Service-Portal. Sie finden den Antrag über folgenden Pfad:
-Startseite Servicekatalog Software &amp; Apps Microsoft Visio Standard (für O365PP)
-</t>
-  </si>
-  <si>
-    <t>Add-In "Analysis for Excel" verursacht Abstürze.</t>
-  </si>
-  <si>
-    <t>Das Add-in "Analysis for Office" ist aktiviert, kann aber die heruntergeladenen Daten von LISA nicht öffnen. Der Benutzer sagt, dass er diese Art von Dateien früher geöffnet hat, aber es wird eine Fehlermeldung angezeigt.
-Hallo Nutzer,
-Ich bin nicht in der Lage, AO auf Ihrem PC zu installieren.
-Ich versuche, herauszufinden, wer dafür zuständig ist.
-Alternativ könnten Sie AO auch über den IT-Shop neu beantragen, um die Installation zu erhalten.
-Mit freundlichen Grüßen</t>
   </si>
   <si>
     <t xml:space="preserve">2023-01-03 09:05:09 - Agent 1 (Arbeitsnotizen)
@@ -191,33 +171,7 @@
 "Analysis for Office" funktioniert nicht mit den heruntergeladenen Daten von LISA.</t>
   </si>
   <si>
-    <t>2023-01-10 22:07:10 - Agent 1 (Arbeitsnotizen)
-Liebes Team, wenn Sie dem Benutzer helfen können, melden Sie sich bitte, danke.
-2023-01-11 15:41:05 - Agent 1 (Arbeitsnotizen)
-Liebes Team, ich habe "Analisis for Office" deinstalliert und eine neue Version für O365 installiert, aber das hilft nicht. Es kommt immernoch die gleiche Fehlermeldung. Wir haben es auch mit Chrome, Edge und IE versucht.
-Könnten Sie bitte helfen? 
-2023-01-17 12:45:54 - Agent 2 (Arbeitsnotizen)
-@Agent 3: Können Sie hier unterstützen?
-2023-01-23 09:11:09 - Agent 3 (Arbeitsnotizen)
-Hallo,
-da wir in unserem Team keine Installationen auslösen können, möchte ich den HelpDesk bitten, je nach Installationsstatus folgende Lösungen zu implementieren:
-1) Benutzer hatte bereits Analysis 2.8 und hat nun Office365 installiert.
-Wenn in diesem Fall Probleme mit Analysis auftreten, sollte Analysis 2.8 neu installiert werden.
-2) Der Benutzer hatte Analysis 2.4 und hat nun Office365 installiert.
-Analysis 2.4 muss deinstalliert werden, dann kann Analysis 2.8 installiert werden.
-3) Nach der Installation von Office365 und den Problemen mit Analysis wurde Analysis 2.8 installiert; wahrscheinlich war vorher eine ältere Version von Analysis installiert.
-In diesem Fall sehe ich keine Lösung für die auftretenden Probleme und aus meiner Sicht muss der Rechner dann neu installiert werden!
-4) Nach der Installation fehlen DataSources oder Queries: siehe Anhang
-2023-01-23 14:06:24 - Agent 1 (Arbeitsnotizen)
-Nach allen Schritten funktioniert es jetzt.
-2023-01-23 14:06:24 - Agent 1 (Notizen schließen (Sichtbar für Kunden))
-Erledigt.</t>
-  </si>
-  <si>
     <t>10.01.2023</t>
-  </si>
-  <si>
-    <t>17.01.2023</t>
   </si>
   <si>
     <t>2023-01-17 10:31:20 - Agent 1 (Arbeitsnotizen)
@@ -242,52 +196,337 @@
 Mit freundlichen Grüßen</t>
   </si>
   <si>
-    <t>Agent Sabine Weber</t>
-  </si>
-  <si>
-    <t>Ich möchte die Visio-Software löschen, kann aber kein bestehendes Visio-Abonnement auswählen.</t>
-  </si>
-  <si>
-    <t>2023-01-05 04:11:07 - Agent 1(Notizen schließen (für Kunden sichtbar))
+    <t>05.01.2023</t>
+  </si>
+  <si>
+    <t>07.01.2023</t>
+  </si>
+  <si>
+    <t>Das Add-in "Analysis for Office" ist aktiviert, kann aber die heruntergeladenen Daten von LISA nicht öffnen. Der Benutzer sagt, dass er diese Art von Dateien früher geöffnet hat, aber es wird eine Fehlermeldung angezeigt.</t>
+  </si>
+  <si>
+    <t>2023-01-11 15:41:05 - Agent 1 (Arbeitsnotizen)
+Liebes Team, ich habe "Analisis for Office" deinstalliert und eine neue Version für O365 installiert, aber das hilft nicht. Es kommt immernoch die gleiche Fehlermeldung. Wir haben es auch mit Chrome, Edge und IE versucht.
+Könnten Sie bitte helfen? 
+2023-01-17 12:45:54 - Agent 2 (Arbeitsnotizen)
+@Agent 3: Können Sie hier unterstützen?
+2023-01-23 09:11:09 - Agent 3 (Arbeitsnotizen)
+Hallo,
+da wir in unserem Team keine Installationen auslösen können, möchte ich den HelpDesk bitten, je nach Installationsstatus folgende Lösungen zu implementieren:
+1) Benutzer hatte bereits Analysis 2.8 und hat nun Office365 installiert.
+Wenn in diesem Fall Probleme mit Analysis auftreten, sollte Analysis 2.8 neu installiert werden.
+2) Der Benutzer hatte Analysis 2.4 und hat nun Office365 installiert.
+Analysis 2.4 muss deinstalliert werden, dann kann Analysis 2.8 installiert werden.
+3) Nach der Installation von Office365 und den Problemen mit Analysis wurde Analysis 2.8 installiert; wahrscheinlich war vorher eine ältere Version von Analysis installiert.
+In diesem Fall sehe ich keine Lösung für die auftretenden Probleme und aus meiner Sicht muss der Rechner dann neu installiert werden!
+4) Nach der Installation fehlen DataSources oder Queries: siehe Anhang
+2023-01-23 14:06:24 - Agent 1 (Arbeitsnotizen)
+Nach allen Schritten funktioniert es jetzt.
+2023-01-23 14:06:24 - Agent 1 (Abschließende Notizen (Sichtbar für Kunden))
+Erledigt.</t>
+  </si>
+  <si>
+    <t>Agent Kai Schweiger</t>
+  </si>
+  <si>
+    <t>Cisco Softphone funktioniert nicht</t>
+  </si>
+  <si>
+    <t>2022-01-28 09:16:08 - Agent 1 (Arbeitsnotizen)
+Nach der Neuinstallation geht das Cisco Softphone immer noch nicht.
+2023-01-28 04:12:29 - Agent 2 (Arbeitshinweise)
+Es wurde versucht, es zu konfigurieren, aber es hat nicht funktioniert. Ich empfehle, die Software neu zu installieren und es erneut zu versuchen. @Agent 1 wird dies durchführen.
+2023-01-25 11:58:16 - Agent 2 (Arbeitsnotizen)
+Nutzer auf Teams kontaktiert, aber Nutzer scheint beschäftigt. Das Follow-up erfolgt am Montag.
+2023-01-24 07:04:29 - Agent 3 (Arbeitsnotizen)
+Hallo Admin,
+könnten Sie uns bitte bei diesem Problem helfen? Vielen Dank!
+KB-Referenz: KB99910101/KB303030
+Ich habe diese Schritte bereits durchgeführt, aber es wird immer noch nicht registriert.
+Der PC-Support hat es auch mit 2 verschiedenen MACs versucht.
+Ext# 666
+2023-01-24 06:37:11 - Agent 3 (Arbeitsnotizen)
+Gerätename:  BLABLI345BLUB543
+2023-01-24 05:29:56 - Agent 3 (Arbeitshinweise)
+[11:29 AM] Nutzer (ext)
+    Ich habe jetzt ein Meeting bis 12
+?[11:29 AM] Nutzer  (ext)
+    Ich werde Sie später kontaktieren 
+2023-01-25 04:33:46 - Agent 1 (Abschließende Notizen (für Kunden sichtbar))
+Ich habe die Firewall-Einstellung geändert und jetzt funktioniert es einwandfrei.</t>
+  </si>
+  <si>
+    <t>Agent Pia Lange</t>
+  </si>
+  <si>
+    <t>Mein Cisco-Telefon ist nicht eingeloggt, ich kann nicht auf meine Nachrichten zugreifen, niemand kann mich anrufen.
+2023-01-08 16:06:15 - Nutzer (Weitere Kommentare)
+Betroffenes Gerät: Cisco Telefon
+Problembeschreibung: Mein Cisco-Telefon ist nicht eingeloggt, ich kann nicht auf meine Nachrichten zugreifen, niemand kann mich anrufen.</t>
+  </si>
+  <si>
+    <t>2023-01-08 16:51:53 - Agent 1 (Weitere Kommentare)
+Ich habe das Deinstallationsprogramm und das Installationsprogramm für das Cisco Phone über Ivanti bereitgestellt.
+Nach der Deinstallation des Cisco-Telefons wird das Installationsprogramm nicht angezeigt.
+2023-01-08 16:09:52 - Agent 1 (Weitere Kommentare)
+Mein Cisco-Telefon ist nicht eingeloggt, ich kann nicht auf meine Nachrichten zugreifen, niemand kann mich anrufen.
+2023-02-11 10:45:10 - Agent 2 (Arbeitsnotizen)
+@Agent 1: Sie sollten nicht gleichzeitig ein Uninstaller- und ein Installer-Paket zuweisen. Das System wird verwirrt sein und ein Paket wird dabei abgebrochen. Senden Sie immer eines nach dem anderen. Ich habe das Paket erneut zugewiesen.
+2023-01-08 16:52:27 - Agent 1 (Arbeitsnotizen)
+Liebe Kollegen,
+könnt ihr bitte die Installation für das Cisco Phone pushen?
+Ich danke Ihnen im Voraus.
+Mit freundlichen Grüßen,
+Agent 1
+Globaler IT-Service-Desk
+2023-01-11 10:45:10 - Agent 2 (Abschließene Notizen (für Kunden sichtbar))
+Hallo,
+ich habe den Cisco Installer erneut Ihrem Kunden zugewiesen. Bitte führen Sie das Paket über den Ivanti Portal Manager aus.</t>
+  </si>
+  <si>
+    <t>Agent Anna Mengel</t>
+  </si>
+  <si>
+    <t>04.01.2023</t>
+  </si>
+  <si>
+    <t>Probleme mit Cisco Phone</t>
+  </si>
+  <si>
+    <t>Reaktives CISCO IP Phone ext:9876 für neuen Benutzer zu ersetzen.
+2023-01-04 05:25:57 - Nutzer (Zusätzliche Kommentare)
+Zusätzliche Standortinformationen: IBM/ CC91
+Betroffenes Gerät: CISCO IP-Telefon 1234
+Beschreibung des Problems: CISCO IP Phone zum Ersetzen eines neuen Benutzers.
+Benutzername: CC91 PLMN
+ext: 9876</t>
+  </si>
+  <si>
+    <t>2023-01-04 09:11:23 - Agent 1 (Arbeitsnotizen)
+In Rücksprache mit Agent 2 (Ext# 1111) &gt; 
+[14:53 Uhr] Agent 2
+ext:3563 vorheriger Benutzer: Nutzer  ist zurückgetreten. &gt; aber das Cisco System zeigt &gt; ZM10 ABCC Dept ABCC Besprechungsraum 3563
+?[2:55 PM] Agent 2
+    Einrichtung für dieselbe Nummer ext: 9876 für eingehende und ausgehende Anrufe
+[14:58 Uhr] Agent 2
+    neue Nummer anfordern
+[3:03 PM] Agent 2
+    cisco IP Telefon und verbinden
+2023-01-04 06:00:24 -  Agent 1 (Arbeitsnotizen)
+Nutzer muss mit Agent 2 weiter über diese Anfrage diskutieren und mir eine Rückmeldung geben.
+2023-01-04 09:27:01 - Nutzer (Notizen schließen (für Kunden sichtbar))
+Vom Caller geschlossen.
+2023-01-04  09:15:58 - Agent 1 (Notizen schließen (für Kunden sichtbar))
+Lieber Benutzer,
+wie in unserem Gespräch besprochen, bitten wir Sie, ein Ticket über IT SHOP zu erstellen, um eine neue Telefondurchwahl zu beantragen (siehe Link unten): 
+https://hilfe.service-it.com
+oder unter folgendem Pfad: 
+Home &gt; Service Catalog &gt; Zugangs- und Benutzerverwaltung &gt; Telefondurchwahl
+***Bitte kontaktieren Sie den IT-Helpdesk unter Tel. 054143210, oder Durchwahl 1010 für alle Anfragen. ***Bitte kontaktieren Sie den BMI IT-Helpdesk unter Tel. 04-6323-030, oder Durchwahl 3030 für alle Anfragen. Wir danken Ihnen.</t>
+  </si>
+  <si>
+    <t>2023-01-08 12:59:40 - Agent 1 (Weitere Kommentare)
+Nuance-Paket zweimal an den Computer gesendet. Kam nicht an.
+2023-01-08 11:55:22 - Agent 1 (Weitere Kommentare)
+Paket wurde nochmal zugewiesen.
+2023-01-08 13:14:47 - Agent 2 (Notizen schließen (für Kunden sichtbar))
+Bitte aktualisieren Sie zunächst auf Windows 10 20H2, da die aktuelle Version 1709 von Microsoft nicht mehr unterstützt wird.
+2023-01-08 06:54:42 - Agent 1 (Notizen schließen (für Kunden sichtbar))
+ED12-D1234 Software: Nuance_Dateipdf_1.0.11.0.1_MUI_x64_01 zugewiesen. Bitte aus Portal Manager installieren.</t>
+  </si>
+  <si>
+    <t>Agent Leonard Platt</t>
+  </si>
+  <si>
+    <t>Nuance Lizenz Antrag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antrag auf pdf-Lizenz für Nuance.
+2023-01-14 08:59:13 - Nutzer (Weitere Kommentare)
+Beschreibung des Problems: Liebes Team,
+als Teil meiner Projektanforderungen benötige ich die Software nuance pdf editor und die Lizenz. Bitte stellen Sie mir das Notwendige zur Verfügung.
+Vielen Dank und viele Grüße.
+</t>
+  </si>
+  <si>
+    <t>2023-01-14 10:42:31 - Agent (Notizen schließen (für Kunden sichtbar))
 Hallo Nutzer,
-wie im Gespräch erwähnt, können Sie über den unten stehenden Link die Deinstallation anfordern:
-Microsoft Visio 2013 deinstallieren &gt;
-https://service-deinstallieren.com/serviceportal12345
-oder
-Microsoft Visio Standard (für O365PP) deinstallieren &gt;
-https://service-deinstallieren.com/serviceportal54321
-Dies ist für Visio Standard (für O365PP)
-Dankeschön</t>
-  </si>
-  <si>
-    <t>05.01.2023</t>
-  </si>
-  <si>
-    <t>Visio Deinstallation</t>
-  </si>
-  <si>
-    <t>Agent Jan Wagner</t>
-  </si>
-  <si>
-    <t>18.01.2023</t>
-  </si>
-  <si>
-    <t>Fehlende Programme nach Update</t>
-  </si>
-  <si>
-    <t>Nach dem Update von Windows 10 Version 20H2 und Office 2013 fehlen MS Project und MS Visio.</t>
-  </si>
-  <si>
-    <t>2023-01-18 03:03:02 - Agent 1 (Notizen schließen (für Kunden sichtbar))
-Lieber Nutzer,
-ich habe Ihr Profil überprüft. Ihr Windows wurde bereits mit der Microsoft Office O365 Version aktualisiert. Daher funktioniert die Version 2013 nicht für O365.
-Ich habe den Verlauf früherer Anfragen überprüft und nicht gesehen, dass Sie Visio und Project über den IT Shop angefordert haben.
-Wenn Sie es anfordern möchten, nutzen sie den folgenden Link:
-Visio (O365)
-https://request.service-now.com/serviceportal02468
-Projekt Standard (O365)
-https://request.service-now.com/serviceportal13579
-Ich danke Ihnen.</t>
+Sie können Nuance Power PDF im IT Service Portal anfordern, indem Sie die entsprechende Version Ihres Betriebssystems auswählen (https://hilfe.service-nuance.com). Wenn die Anforderung genehmigt wird, wird die Software Ihrem Laptop zugewiesen (nicht installiert). Sie können das Software-Portal öffnen, indem Sie "rap" in das Suchfeld auf der linken Seite unten eingeben (Windows 10). Dann sehen Sie das Programm, das installiert werden kann. Mit freundlichen Grüßen, ITS.</t>
+  </si>
+  <si>
+    <t>Agent Sascha Wand</t>
+  </si>
+  <si>
+    <t>Nuance Software Antrag</t>
+  </si>
+  <si>
+    <t>Hallo, ich möchte die Nuance Power pdf Advance Software anfordern.
+2023-01-24 03:10:00 - Nutzer  (Zusätzliche Kommentare)
+Okaz, ich werde versuchen, es im Servicekatalog zu beantragen.
+2023-01-24 03:09:59 - Nutzer (Weitere Kommentare)
+Hallo, mein Computer heißt VBN 1221, Windows 10.
+2023-01-24 03:09:54 - Nutzer (Weitere Kommentare)
+Hallo, ich möchte die Software nuance power pdf advance anfordern.</t>
+  </si>
+  <si>
+    <t>2023-01-24 03:10:01 - Agent (Zusätzliche Kommentare)
+Wenn Sie fertig sind, können Sie im Portalmanager auf die Schaltfläche "Aktualisieren" klicken.
+2023-01-24 03:09:58 - Agent  (Weitere Kommentare)
+Startseite &gt;Servicekatalog &gt;Software &amp; Apps &gt;Nuance Power PDF Advanced
+https://hilfe.service-nuance.com/
+2023-01-24 03:09:57 - Agent  (Weitere Kommentare)
+Bitte im Leistungskatalog beantragen.
+2023-01-24 03:09:57 - Agent  (Weitere Kommentare)
+bitte im Leistungskatalog beantragen
+2023-01-24 03:09:56 - Agent  (Weitere Kommentare)
+Wie lautet der Name Ihres Computers?
+Benutzen Sie Windows 10 oder Windows 7?
+2023-01-24 03:09:55 - Agent  (Weitere Kommentare)
+Danke, dass Sie sich an den Support wenden. Ich prüfe Ihre Frage gerade und werde mich in Kürze bei Ihnen melden.
+2023-01-2403:09:53 - Agent  (Anmerkungen schließen (für Kunden sichtbar))
+Ich empfehle dem Benutzer, es im Servicekatalog zu beantragen.
+Startseite &gt;Servicekatalog &gt;Software &amp; Apps &gt;Nuance Power PDF Advanced
+https://hilfe.service-nuance.com/</t>
+  </si>
+  <si>
+    <t>Das Addin "Analysis for Excel" stürzt immer wieder ab</t>
+  </si>
+  <si>
+    <t>Meine aktuelle Version (2.7) des Excel Add-ins "Analysis for Excel" für Office 365 stürzt immer wieder ab? Ich nutze es zusammen mit VBA Macros, könnte das das Problem sein?</t>
+  </si>
+  <si>
+    <t>Agent Max Müller</t>
+  </si>
+  <si>
+    <t>22.11.2022</t>
+  </si>
+  <si>
+    <t>Ich muss einige Daten in "Analysis for Office" neu laden. Wenn ich versuche, die Analyse zu verwenden, erhalte ich eine Fehlermeldung.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-14 14:25:44 - [name_912] (Zusätzliche Kommentare)
+Betroffenes Gerät: "Analyse für Office"
+Beschreibung des Problems: Ich muss einige Daten in "Analysis for Office neu laden". Wenn ich versuche, die Analyse zu verwenden, nachdem ich sie aus den Add-Ins deaktiviert habe, erhalte ich den angehängten Fehler. Bitte helfen Sie mir und beheben Sie das Problem.  Ich danke Ihnen im Voraus. </t>
+  </si>
+  <si>
+    <t>2021-01-14 15:10:33 - [name_127] (Notizen schließen (Kunde sichtbar))
+Das Problem wurde durch Deaktivieren des Fehlerbehebungsmodus von SAP Analysis for Office behoben.</t>
+  </si>
+  <si>
+    <t>Agent Peter Hahn</t>
+  </si>
+  <si>
+    <t>10.12.2022</t>
+  </si>
+  <si>
+    <t>Excel "Analysis für Office" nach Aktualisierung auf O365</t>
+  </si>
+  <si>
+    <t>2021-02-12 11:09:40 - [name_170] (Weitere Kommentare)_x000D_
+Excel Analysis for Office" nach Update auf O365"</t>
+  </si>
+  <si>
+    <t>2021-02-12 11:09:40 - [name_170] (Notizen schließen (Kunde sichtbar))
+Sehr geehrter [name_2651], 
+Sie haben die richtige Version (2.8) von Analysis for office auf Ihrem Computer. Wenn alle Funktionen, die Sie bisher in Excel hatten, funktionieren, besteht kein weiterer Handlungsbedarf. 
+Wir danken Ihnen für Ihren Anruf. Sollten Sie in Zukunft eine Fehlfunktion feststellen, kontaktieren Sie uns bitte. 
+Mit freundlichen Grüßen, 
+Ich wünsche Ihnen ein schönes Wochenende, 
+[name_170]</t>
+  </si>
+  <si>
+    <t>Agent Christian Neuberger</t>
+  </si>
+  <si>
+    <t>Agent Sophia Werner</t>
+  </si>
+  <si>
+    <t>Softphone Macbook</t>
+  </si>
+  <si>
+    <t>2021-11-10 16:53:54 - [name_6383] (Zusätzliche Kommentare)
+Betroffenes Gerät: DE13-M0009
+Beschreibung des Problems: Ist es möglich, ein Softphone auf dem Macbook zu verwenden?</t>
+  </si>
+  <si>
+    <t>2021-11-11 10:14:41 - [name_225] (Weitere Kommentare)
+Guten Morgen Herr [name_16400], 
+da eine Alternativlösung derzeit die Nutzung des Hardphones ist, ist die Nutzung des Softphones am Macbook in Zukunft eher unwahrscheinlich. 
+Mit freundlichen Grüßen, 
+[name_225]</t>
+  </si>
+  <si>
+    <t>Agent Carl Seger</t>
+  </si>
+  <si>
+    <t>Softphone von Cisco defekt</t>
+  </si>
+  <si>
+    <t>Cisco Softphone kann nicht verwendet werden
+2023-01-24 05:03:58 - Nutzer (Weitere Kommentare)
+Betroffenes Gerät: Cisco-Softphone
+Beschreibung des Problems: Mein Cisco Softphone funktioniert nicht. Das Gerät wurde bereits durch den IT Support installiert und eingerichtet.
+Das Problem mit dem Softphone muss so schnell wie möglich gelöst werden, da wir den Lieferanten regelmäßig kontaktieren müssen.</t>
+  </si>
+  <si>
+    <t>Agent Lisa Anders</t>
+  </si>
+  <si>
+    <t>Adobe - Speichern eines PDF-Dokuments nicht möglich</t>
+  </si>
+  <si>
+    <t>2021-10-13 09:25:35 - [name_170] (Notizen schließen (Kunde sichtbar))
+Es ist möglich, eine Kopie als Workaround zu speichern. 
+In den PDF-Eigenschaften steht, dass es nicht erlaubt ist, ein Dokument zu ändern, nur um eine Kopie zu speichern. Die Ersteller sollten diese Funktion ändern, Frau [name_31808] wird sich mit den Kollegen, die die Vorlage erstellt haben, in Verbindung setzen."</t>
+  </si>
+  <si>
+    <t>Agent Ralf Köhler</t>
+  </si>
+  <si>
+    <t>Install Nuance PDF converter</t>
+  </si>
+  <si>
+    <t>Install Nuance PDF converter
+2021-10-28 09:43:44 - [name_1433] (Additional comments)
+Additional Location Information: 
+Affected Device: BBMIES029
+Issue description: Could you please install [name_10205] PDF converter on my PC
+nan</t>
+  </si>
+  <si>
+    <t>2021-10-28 13:00:26 - [name_2770] (Additional comments)
+Nuance Power PDF Advanced requested  
+ RITM0277250 Created
+2021-10-28 13:00:23 - [name_2770] (Additional comments)
+Nuance Power PDF Advanced requested  
+ RITM0277250 Created
+2021-10-28 15:20:55 - [name_2770] (Close notes (Customer visible))
+Dear [name_9035],  
+The request for [name_10205] Power PDF Advanced has been completed,  
+you can install the application from Portal Manager.  
+To open portal manager type ? RAP? in the search field and then select ? applications ?, on the right corner click on the refresh button, and then select [name_10205] Power PDF Advanced and click on install .  
+Best [name_12257] Székely  
+Global IT Service Desk</t>
+  </si>
+  <si>
+    <t>Agent Anna Kraft</t>
+  </si>
+  <si>
+    <t>Agent Dieter Brehl</t>
+  </si>
+  <si>
+    <t>Ich finde die Software Nuance PDF nicht</t>
+  </si>
+  <si>
+    <t>Ich finde die Software Nuance PDF nicht auf meinem PC
+2023-01-02 10:23:11 - Nutzer (Weitere Kommentare)
+Funktioniert die Software nur, wenn ich mich im BBraun Netzwerk befinde? Im Portal Manager taucht die Installation immer noch nicht auf. Vielen Dank für den Support.
+2023-01-08 10:04:06 - Nutzer (Weitere Kommentare)
+Die Anwendung wird im Portalmanager nicht gefunden.
+2023-01-07 16:25:56 - Nutzer (Weitere Kommentare)
+Zusätzliche Standortinformationen: 
+Betroffenes Gerät: ED12-D1234
+Beschreibung des Problems: Nuance-Software wurde über den IT-Shop bestellt und genehmigt. Die Anwendung kann jedoch im Portal Manager nicht zur Installation gefunden werden.</t>
   </si>
 </sst>
 </file>
@@ -309,20 +548,30 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -337,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -347,12 +596,264 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -377,104 +878,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,16 +899,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7064B924-F2FC-46C3-B05D-DC079E3D2967}" name="Table2" displayName="Table2" ref="A1:H8" totalsRowShown="0">
-  <autoFilter ref="A1:H8" xr:uid="{7064B924-F2FC-46C3-B05D-DC079E3D2967}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7064B924-F2FC-46C3-B05D-DC079E3D2967}" name="Table2" displayName="Table2" ref="A1:H18" totalsRowShown="0">
+  <autoFilter ref="A1:H18" xr:uid="{7064B924-F2FC-46C3-B05D-DC079E3D2967}"/>
   <tableColumns count="8">
-    <tableColumn id="10" xr3:uid="{A0CEA7F4-0404-4037-9E1B-1E5A093D521D}" name="systemId" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{A0CEA7F4-0404-4037-9E1B-1E5A093D521D}" name="systemId" dataDxfId="38"/>
     <tableColumn id="1" xr3:uid="{F788B06C-E20D-499B-82A2-16BDBA4E08F2}" name="ticketId"/>
     <tableColumn id="2" xr3:uid="{00BD2982-1A6B-4C2D-BB97-48969FCAB4C5}" name="ticketCreator"/>
     <tableColumn id="3" xr3:uid="{D687C213-4411-461B-B464-482249F037FE}" name="ticketDate"/>
     <tableColumn id="4" xr3:uid="{3D4AC511-9511-4691-BDA8-1896A8C6B8D1}" name="ticketTitle"/>
     <tableColumn id="5" xr3:uid="{D5F8AA30-27C9-417B-802C-F7A71869CF4F}" name="ticketDescription"/>
-    <tableColumn id="6" xr3:uid="{804F2CFF-7186-4CCC-851C-E0E69BC88197}" name="ticketDescriptionHighlighting" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{804F2CFF-7186-4CCC-851C-E0E69BC88197}" name="ticketDescriptionHighlighting" dataDxfId="37"/>
     <tableColumn id="11" xr3:uid="{B5D8F818-43C1-47E1-B85E-88AC7524A690}" name="ticketSolutionHistory"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -775,38 +1178,54 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F4" dT="2022-12-29T18:23:30.32" personId="{7F70F4EC-2ACF-4000-A1DF-77AA11C7E0A5}" id="{EE786066-12E4-464F-9FE9-780A1920CDB0}">
+  <threadedComment ref="F3" dT="2022-12-29T18:23:30.32" personId="{7F70F4EC-2ACF-4000-A1DF-77AA11C7E0A5}" id="{6389E30A-B981-43E6-B9D6-9091AB8B1E0C}">
     <text>Problem und Loesung?</text>
   </threadedComment>
-  <threadedComment ref="B6" dT="2022-12-29T18:37:59.09" personId="{7F70F4EC-2ACF-4000-A1DF-77AA11C7E0A5}" id="{DDE3D04D-3A64-44A2-B3DD-6A6ABA4E683E}">
-    <text>So weiterzaehlen?</text>
+  <threadedComment ref="F6" dT="2022-12-29T18:23:30.32" personId="{7F70F4EC-2ACF-4000-A1DF-77AA11C7E0A5}" id="{5124530A-C4D2-415A-8B83-33B9F9EF9B11}">
+    <text>Problem und Loesung?</text>
+  </threadedComment>
+  <threadedComment ref="F8" dT="2023-01-02T19:43:13.37" personId="{7F70F4EC-2ACF-4000-A1DF-77AA11C7E0A5}" id="{67597BC1-328E-4D8C-85E4-80D8B071A9BF}">
+    <text xml:space="preserve">Hier Ende der Problembeschreobung weggelassen, da nicht verstanden, was gemeint ist.
+Original: Campus 1 : MY / Cisco soft phone unable to use
+2021-06-24 05:03:58 - Mas Azra Zabirah Mohd Azahari (Additional comments)
+Additional Location Information: 
+Affected Device: Cisco soft phone
+Issue description: Unable to use CISCO soft phone even though has been installed, set up and test by IT support team and no CISCO soft phone install in CITRIX in case  need to use the soft phone in the CITRIX window.
+Need soft phone issue to resolve as soon as possible as need to contact supplier regularly.
+</text>
+  </threadedComment>
+  <threadedComment ref="B10" dT="2023-01-02T20:40:05.86" personId="{7F70F4EC-2ACF-4000-A1DF-77AA11C7E0A5}" id="{201163F4-2570-45F6-A26E-922BDB0FDDF5}">
+    <text>Ab hier welche ticket Id? Weiterhin 3 nummern? Oder hier 4 nummern?</text>
+  </threadedComment>
+  <threadedComment ref="B12" dT="2023-01-02T20:40:05.86" personId="{7F70F4EC-2ACF-4000-A1DF-77AA11C7E0A5}" id="{70C9AA59-200A-4808-A766-33D065B0EC30}">
+    <text>Ab hier welche ticket Id? Weiterhin 3 nummern? Oder hier 4 nummern?</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.81640625" customWidth="1"/>
+    <col min="7" max="7" width="42.1796875" customWidth="1"/>
     <col min="8" max="8" width="58" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -827,273 +1246,635 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="3">
+        <v>44523</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>123</v>
+        <v>50194</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>456</v>
+        <v>42060</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>32</v>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>789</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
+      <c r="B5" s="3">
+        <v>38001</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
+        <v>48</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>101112</v>
+        <v>42999</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>131415</v>
+        <v>43051</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>161718</v>
+        <v>43200</v>
       </c>
       <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44931</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>79808</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>82838</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>79808</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44905</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>82838</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44938</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="319" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>85868</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>88899</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>91923</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44929</v>
+      </c>
+      <c r="E15" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F15" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H12" s="5"/>
+    <row r="16" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>85868</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44873</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>88899</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44915</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>91929</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44933</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:H2 A5:H7 A4:D4 F4:H4 A3:E3 G3:H3">
-    <cfRule type="containsBlanks" dxfId="17" priority="16">
+  <conditionalFormatting sqref="A2:H3 A4:F4 H4 G3:G4 G8:H10 A8:F8 H11:H15 G13:G15">
+    <cfRule type="containsBlanks" dxfId="36" priority="41">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:E3 G3:H3">
-    <cfRule type="containsBlanks" dxfId="16" priority="15">
+    <cfRule type="containsBlanks" dxfId="35" priority="40">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:D4 F4:H4">
-    <cfRule type="containsBlanks" dxfId="15" priority="14">
+  <conditionalFormatting sqref="A4:D4 F4 H4">
+    <cfRule type="containsBlanks" dxfId="34" priority="39">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:H5">
-    <cfRule type="containsBlanks" dxfId="14" priority="13">
+  <conditionalFormatting sqref="A8:F8">
+    <cfRule type="containsBlanks" dxfId="33" priority="38">
+      <formula>LEN(TRIM(A8))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="containsBlanks" dxfId="32" priority="37">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D4">
+    <cfRule type="containsBlanks" dxfId="31" priority="36">
+      <formula>LEN(TRIM(D3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4 D8">
+    <cfRule type="containsBlanks" dxfId="30" priority="35">
+      <formula>LEN(TRIM(D4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="containsBlanks" dxfId="29" priority="34">
+      <formula>LEN(TRIM(F2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="containsBlanks" dxfId="28" priority="33">
+      <formula>LEN(TRIM(F2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E2 G2:H2">
+    <cfRule type="containsBlanks" dxfId="27" priority="32">
+      <formula>LEN(TRIM(B2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:D3 F3:H3">
+    <cfRule type="containsBlanks" dxfId="26" priority="31">
+      <formula>LEN(TRIM(B3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F4">
+    <cfRule type="containsBlanks" dxfId="25" priority="30">
+      <formula>LEN(TRIM(B4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G4 G8:G10">
+    <cfRule type="containsBlanks" dxfId="24" priority="29">
+      <formula>LEN(TRIM(G3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:H7">
+    <cfRule type="containsBlanks" dxfId="23" priority="28">
       <formula>LEN(TRIM(A5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="containsBlanks" dxfId="13" priority="12">
-      <formula>LEN(TRIM(A2))=0</formula>
+  <conditionalFormatting sqref="A6:E6 G6:H6">
+    <cfRule type="containsBlanks" dxfId="22" priority="27">
+      <formula>LEN(TRIM(A6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:D7 F7:H7">
+    <cfRule type="containsBlanks" dxfId="21" priority="26">
+      <formula>LEN(TRIM(A7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="containsBlanks" dxfId="20" priority="25">
+      <formula>LEN(TRIM(A5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="containsBlanks" dxfId="12" priority="11">
+    <cfRule type="containsBlanks" dxfId="19" priority="24">
       <formula>LEN(TRIM(D6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsBlanks" dxfId="11" priority="10">
-      <formula>LEN(TRIM(D4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsBlanks" dxfId="10" priority="9">
-      <formula>LEN(TRIM(D5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="containsBlanks" dxfId="9" priority="8">
-      <formula>LEN(TRIM(D6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F7">
-    <cfRule type="containsBlanks" dxfId="8" priority="7">
-      <formula>LEN(TRIM(F6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:H7">
-    <cfRule type="containsBlanks" dxfId="7" priority="6">
-      <formula>LEN(TRIM(A7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:H6">
-    <cfRule type="containsBlanks" dxfId="6" priority="5">
-      <formula>LEN(TRIM(E6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="containsBlanks" dxfId="5" priority="4">
-      <formula>LEN(TRIM(F3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="containsBlanks" dxfId="4" priority="3">
-      <formula>LEN(TRIM(F3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsBlanks" dxfId="18" priority="23">
+      <formula>LEN(TRIM(D7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F6">
+    <cfRule type="containsBlanks" dxfId="17" priority="22">
+      <formula>LEN(TRIM(F5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F6">
+    <cfRule type="containsBlanks" dxfId="16" priority="21">
+      <formula>LEN(TRIM(F5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5 G5:H5">
+    <cfRule type="containsBlanks" dxfId="15" priority="20">
+      <formula>LEN(TRIM(B5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:D6 F6:H6">
+    <cfRule type="containsBlanks" dxfId="14" priority="19">
+      <formula>LEN(TRIM(B6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:G7">
+    <cfRule type="containsBlanks" dxfId="13" priority="18">
+      <formula>LEN(TRIM(B7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="containsBlanks" dxfId="12" priority="17">
+      <formula>LEN(TRIM(G6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsBlanks" dxfId="11" priority="16">
+      <formula>LEN(TRIM(G7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="containsBlanks" dxfId="10" priority="11">
+      <formula>LEN(TRIM(G11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="containsBlanks" dxfId="9" priority="10">
+      <formula>LEN(TRIM(G11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsBlanks" dxfId="8" priority="9">
+      <formula>LEN(TRIM(G12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsBlanks" dxfId="7" priority="8">
+      <formula>LEN(TRIM(G12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H18">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(H16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(G16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(G16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(G17))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(G17))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(G8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+      <formula>LEN(TRIM(G18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(G8))=0</formula>
+      <formula>LEN(TRIM(G18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/client/public/wizard_of_oz_experiment_data_solution.xlsx
+++ b/client/public/wizard_of_oz_experiment_data_solution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wikassel-my.sharepoint.com/personal/mahei_li_wi-kassel_de/Documents/Crowdsupport/05 Publikationen/2023/DESRIST_Reference Process for Labeling/03_Data Experiment/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{CFBFECBD-D34C-4FDF-871F-F254BB13C4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF37E45F-2564-4674-940A-E2EF6082A36F}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{CFBFECBD-D34C-4FDF-871F-F254BB13C4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67E9A26B-B006-43AA-A1A1-2BEEA9AF9188}"/>
   <bookViews>
-    <workbookView xWindow="23136" yWindow="2772" windowWidth="30936" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="solutionTickets" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
   <si>
     <t>ticketCreator</t>
   </si>
@@ -120,9 +120,6 @@
     <t>systemId</t>
   </si>
   <si>
-    <t>[{"start":3, "end":6, "key":"Fehlerbeschreibung"},{"start":45, "end":60, "key":"System"}]</t>
-  </si>
-  <si>
     <t>ticketSolutionHistory</t>
   </si>
   <si>
@@ -130,25 +127,6 @@
   </si>
   <si>
     <t>Agent Lisa Schmidt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-03 09:05:09 - Agent 1 (Arbeitsnotizen)
-Hallo,
-da wir in unserem Team keine Installationen auslösen können, möchte ich den HelpDesk bitten, je nach Installationsstatus folgende Lösungen zu implementieren:
-1) Benutzer hatte bereits Analysis 2.8 und hat nun Office365 installiert.
-Wenn in diesem Fall Probleme mit Analysis auftreten, sollte Analysis 2.8 neu installiert werden.
-2) Der Benutzer hatte Analysis 2.4 und hat nun Office365 installiert.
-Analysis 2.4 muss deinstalliert werden, dann kann Analysis 2.8 installiert werden.
-3) Nach der Installation von Office365 und den Problemen mit Analysis wurde Analysis 2.8 installiert; wahrscheinlich war vorher eine ältere Version von Analysis installiert.
-In diesem Fall sehe ich keine Lösung für die auftretenden Probleme und aus meiner Sicht muss der Rechner dann neu installiert werden! 
-Mit freundlichen Grüßen
-2023-01-03 13:39:13 - Agent 2 (Weitere Kommentare)
-Hallo Nutzer,
-ich möchte Ihnen gerne meine Hilfe anbieten. Ich warte auf Ihre Antwort auf Teams. Danke.
-2023-01-03 14:58:23 - Agent 2 (Arbeitsnotizen)
-Ich habe den Benutzer über Teams kontaktiert. Er hat eine Lösung gefunden. Das MS Office-Paket wurde deinstalliert und neu installiert. Der Benutzer hat bestätigt, dass alles ordnungsgemäß funktioniert.
-2023-01-03 14:59:15 - Agent 1 (Arbeitsnotizen)
-Nach der Neuinstallation aus dem Analysepaket funktioniert das Add-In. </t>
   </si>
   <si>
     <t>2023-01-02 13:28:48 - Nutzer (Zusätzliche Kommentare)
@@ -167,35 +145,9 @@
     <t>Agent Lukas Meyer</t>
   </si>
   <si>
-    <t xml:space="preserve">
-"Analysis for Office" funktioniert nicht mit den heruntergeladenen Daten von LISA.</t>
-  </si>
-  <si>
     <t>10.01.2023</t>
   </si>
   <si>
-    <t>2023-01-17 10:31:20 - Agent 1 (Arbeitsnotizen)
-Agent 2, könnten Sie dieses Ticket bitte übernehmen? Dankeschön
-2023-01-17 15:10:20 - Agent 2 (Arbeitsnotizen)
-Liebes Team, die Installation der SAP-Analyse für Microsoft Office hat nicht geholfen, können Sie bitte helfen?
-2023-01-18 07:29:13 - Agent 3 (Zusätzliche Kommentare)
-Hallo,
-Ich benutze die gleiche Version von AO und hatte bisher keine Probleme damit.
-Das ist die aktuelle Version, die im Einsatz ist.
-Vielleicht können Sie genauer beschreiben, was wann passiert, damit wir Sie unterstützen können.
-Alternativ können Sie natürlich auch selbst im Internet nach Lösungen suchen Möglicherweise ist das Problem auch schon bekannt.
-Mit freundlichen Grüßen
-2023-01-27 10:17:44 - Agent 3 (Weitere Kommentare)
-Hallo,
-ich warte immer noch auf Ihre Rückmeldung.
-Mit freundlichen Grüßen
-2023-01-27 10:45:36 - Agent 3 (Abschließende Notizen (Sichtbar für Kunden))
-Hallo,
-teilweise unktionieren die verschiedenen Browser unterschiedlich. Im folgenden Link finden Sie weitere Inforamtionen dayu:
-https:/hilfe.welcher-browser-funktioniert-besser/
-Mit freundlichen Grüßen</t>
-  </si>
-  <si>
     <t>05.01.2023</t>
   </si>
   <si>
@@ -205,55 +157,10 @@
     <t>Das Add-in "Analysis for Office" ist aktiviert, kann aber die heruntergeladenen Daten von LISA nicht öffnen. Der Benutzer sagt, dass er diese Art von Dateien früher geöffnet hat, aber es wird eine Fehlermeldung angezeigt.</t>
   </si>
   <si>
-    <t>2023-01-11 15:41:05 - Agent 1 (Arbeitsnotizen)
-Liebes Team, ich habe "Analisis for Office" deinstalliert und eine neue Version für O365 installiert, aber das hilft nicht. Es kommt immernoch die gleiche Fehlermeldung. Wir haben es auch mit Chrome, Edge und IE versucht.
-Könnten Sie bitte helfen? 
-2023-01-17 12:45:54 - Agent 2 (Arbeitsnotizen)
-@Agent 3: Können Sie hier unterstützen?
-2023-01-23 09:11:09 - Agent 3 (Arbeitsnotizen)
-Hallo,
-da wir in unserem Team keine Installationen auslösen können, möchte ich den HelpDesk bitten, je nach Installationsstatus folgende Lösungen zu implementieren:
-1) Benutzer hatte bereits Analysis 2.8 und hat nun Office365 installiert.
-Wenn in diesem Fall Probleme mit Analysis auftreten, sollte Analysis 2.8 neu installiert werden.
-2) Der Benutzer hatte Analysis 2.4 und hat nun Office365 installiert.
-Analysis 2.4 muss deinstalliert werden, dann kann Analysis 2.8 installiert werden.
-3) Nach der Installation von Office365 und den Problemen mit Analysis wurde Analysis 2.8 installiert; wahrscheinlich war vorher eine ältere Version von Analysis installiert.
-In diesem Fall sehe ich keine Lösung für die auftretenden Probleme und aus meiner Sicht muss der Rechner dann neu installiert werden!
-4) Nach der Installation fehlen DataSources oder Queries: siehe Anhang
-2023-01-23 14:06:24 - Agent 1 (Arbeitsnotizen)
-Nach allen Schritten funktioniert es jetzt.
-2023-01-23 14:06:24 - Agent 1 (Abschließende Notizen (Sichtbar für Kunden))
-Erledigt.</t>
-  </si>
-  <si>
     <t>Agent Kai Schweiger</t>
   </si>
   <si>
     <t>Cisco Softphone funktioniert nicht</t>
-  </si>
-  <si>
-    <t>2022-01-28 09:16:08 - Agent 1 (Arbeitsnotizen)
-Nach der Neuinstallation geht das Cisco Softphone immer noch nicht.
-2023-01-28 04:12:29 - Agent 2 (Arbeitshinweise)
-Es wurde versucht, es zu konfigurieren, aber es hat nicht funktioniert. Ich empfehle, die Software neu zu installieren und es erneut zu versuchen. @Agent 1 wird dies durchführen.
-2023-01-25 11:58:16 - Agent 2 (Arbeitsnotizen)
-Nutzer auf Teams kontaktiert, aber Nutzer scheint beschäftigt. Das Follow-up erfolgt am Montag.
-2023-01-24 07:04:29 - Agent 3 (Arbeitsnotizen)
-Hallo Admin,
-könnten Sie uns bitte bei diesem Problem helfen? Vielen Dank!
-KB-Referenz: KB99910101/KB303030
-Ich habe diese Schritte bereits durchgeführt, aber es wird immer noch nicht registriert.
-Der PC-Support hat es auch mit 2 verschiedenen MACs versucht.
-Ext# 666
-2023-01-24 06:37:11 - Agent 3 (Arbeitsnotizen)
-Gerätename:  BLABLI345BLUB543
-2023-01-24 05:29:56 - Agent 3 (Arbeitshinweise)
-[11:29 AM] Nutzer (ext)
-    Ich habe jetzt ein Meeting bis 12
-?[11:29 AM] Nutzer  (ext)
-    Ich werde Sie später kontaktieren 
-2023-01-25 04:33:46 - Agent 1 (Abschließende Notizen (für Kunden sichtbar))
-Ich habe die Firewall-Einstellung geändert und jetzt funktioniert es einwandfrei.</t>
   </si>
   <si>
     <t>Agent Pia Lange</t>
@@ -302,29 +209,6 @@
 ext: 9876</t>
   </si>
   <si>
-    <t>2023-01-04 09:11:23 - Agent 1 (Arbeitsnotizen)
-In Rücksprache mit Agent 2 (Ext# 1111) &gt; 
-[14:53 Uhr] Agent 2
-ext:3563 vorheriger Benutzer: Nutzer  ist zurückgetreten. &gt; aber das Cisco System zeigt &gt; ZM10 ABCC Dept ABCC Besprechungsraum 3563
-?[2:55 PM] Agent 2
-    Einrichtung für dieselbe Nummer ext: 9876 für eingehende und ausgehende Anrufe
-[14:58 Uhr] Agent 2
-    neue Nummer anfordern
-[3:03 PM] Agent 2
-    cisco IP Telefon und verbinden
-2023-01-04 06:00:24 -  Agent 1 (Arbeitsnotizen)
-Nutzer muss mit Agent 2 weiter über diese Anfrage diskutieren und mir eine Rückmeldung geben.
-2023-01-04 09:27:01 - Nutzer (Notizen schließen (für Kunden sichtbar))
-Vom Caller geschlossen.
-2023-01-04  09:15:58 - Agent 1 (Notizen schließen (für Kunden sichtbar))
-Lieber Benutzer,
-wie in unserem Gespräch besprochen, bitten wir Sie, ein Ticket über IT SHOP zu erstellen, um eine neue Telefondurchwahl zu beantragen (siehe Link unten): 
-https://hilfe.service-it.com
-oder unter folgendem Pfad: 
-Home &gt; Service Catalog &gt; Zugangs- und Benutzerverwaltung &gt; Telefondurchwahl
-***Bitte kontaktieren Sie den IT-Helpdesk unter Tel. 054143210, oder Durchwahl 1010 für alle Anfragen. ***Bitte kontaktieren Sie den BMI IT-Helpdesk unter Tel. 04-6323-030, oder Durchwahl 3030 für alle Anfragen. Wir danken Ihnen.</t>
-  </si>
-  <si>
     <t>2023-01-08 12:59:40 - Agent 1 (Weitere Kommentare)
 Nuance-Paket zweimal an den Computer gesendet. Kam nicht an.
 2023-01-08 11:55:22 - Agent 1 (Weitere Kommentare)
@@ -347,11 +231,6 @@
 als Teil meiner Projektanforderungen benötige ich die Software nuance pdf editor und die Lizenz. Bitte stellen Sie mir das Notwendige zur Verfügung.
 Vielen Dank und viele Grüße.
 </t>
-  </si>
-  <si>
-    <t>2023-01-14 10:42:31 - Agent (Notizen schließen (für Kunden sichtbar))
-Hallo Nutzer,
-Sie können Nuance Power PDF im IT Service Portal anfordern, indem Sie die entsprechende Version Ihres Betriebssystems auswählen (https://hilfe.service-nuance.com). Wenn die Anforderung genehmigt wird, wird die Software Ihrem Laptop zugewiesen (nicht installiert). Sie können das Software-Portal öffnen, indem Sie "rap" in das Suchfeld auf der linken Seite unten eingeben (Windows 10). Dann sehen Sie das Programm, das installiert werden kann. Mit freundlichen Grüßen, ITS.</t>
   </si>
   <si>
     <t>Agent Sascha Wand</t>
@@ -486,29 +365,6 @@
     <t>Install Nuance PDF converter</t>
   </si>
   <si>
-    <t>Install Nuance PDF converter
-2021-10-28 09:43:44 - [name_1433] (Additional comments)
-Additional Location Information: 
-Affected Device: BBMIES029
-Issue description: Could you please install [name_10205] PDF converter on my PC
-nan</t>
-  </si>
-  <si>
-    <t>2021-10-28 13:00:26 - [name_2770] (Additional comments)
-Nuance Power PDF Advanced requested  
- RITM0277250 Created
-2021-10-28 13:00:23 - [name_2770] (Additional comments)
-Nuance Power PDF Advanced requested  
- RITM0277250 Created
-2021-10-28 15:20:55 - [name_2770] (Close notes (Customer visible))
-Dear [name_9035],  
-The request for [name_10205] Power PDF Advanced has been completed,  
-you can install the application from Portal Manager.  
-To open portal manager type ? RAP? in the search field and then select ? applications ?, on the right corner click on the refresh button, and then select [name_10205] Power PDF Advanced and click on install .  
-Best [name_12257] Székely  
-Global IT Service Desk</t>
-  </si>
-  <si>
     <t>Agent Anna Kraft</t>
   </si>
   <si>
@@ -528,12 +384,177 @@
 Betroffenes Gerät: ED12-D1234
 Beschreibung des Problems: Nuance-Software wurde über den IT-Shop bestellt und genehmigt. Die Anwendung kann jedoch im Portal Manager nicht zur Installation gefunden werden.</t>
   </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>"Analysis for Office" funktioniert nicht mit den heruntergeladenen Daten von LISA.</t>
+  </si>
+  <si>
+    <t>Nuance PDF-Konverter installieren
+2021-10-28 09:43:44 - [name_1433] (Zusätzliche Kommentare)
+Zusätzliche Standortinformationen: 
+Betroffenes Gerät: BBMIES029
+Problembeschreibung: Könnten Sie bitte PDF-Konverter auf meinem PC installieren</t>
+  </si>
+  <si>
+    <t>2021-10-28 13:00:26 - [name_2770] (Zusätzliche Kommentare)
+Nuance Power PDF Advanced angefordert  
+2021-10-28 15:20:55 - [name_2770] (Abschließende Notizen (Kunde sichtbar))
+Sehr geehrter [name_9035],  
+die Anfrage für [name_10205] Power PDF Advanced wurde abgeschlossen,  
+Sie können die Anwendung über den Portal Manager installieren.  
+Um den Portal Manager zu öffnen, geben Sie "RAP" in das Suchfeld ein und wählen Sie dann "Anwendungen", klicken Sie in der rechten Ecke auf die Schaltfläche Aktualisieren, wählen Sie dann [name_10205] Power PDF Advanced und klicken Sie auf Installieren .  
+Beste Grüße [name_12257]  
+IT-Service-Desk</t>
+  </si>
+  <si>
+    <t>2023-01-24 03:10:01 - Agent (Zusätzliche Kommentare)
+Wenn Sie fertig sind, können Sie im Portalmanager auf die Schaltfläche "Aktualisieren" klicken.
+2023-01-24 03:09:58 - Agent  (Weitere Kommentare)
+Startseite &gt;Servicekatalog &gt;Software &amp; Apps &gt;Nuance Power PDF Advanced
+https://hilfe.service-nuances.com/
+2023-01-24 03:09:57 - Agent  (Weitere Kommentare)
+Bitte im Leistungskatalog beantragen.
+2023-01-24 03:09:57 - Agent  (Weitere Kommentare)
+bitte im Leistungskatalog beantragen
+2023-01-24 03:09:56 - Agent  (Weitere Kommentare)
+Wie lautet der Name Ihres Computers?
+Benutzen Sie Windows 10 oder Windows 7?
+2023-01-24 03:09:55 - Agent  (Weitere Kommentare)
+Danke, dass Sie sich an den Support wenden. Ich prüfe Ihre Frage gerade und werde mich in Kürze bei Ihnen melden.
+2023-01-2403:09:53 - Agent  (Anmerkungen schließen (für Kunden sichtbar))
+Ich empfehle dem Benutzer, es im Servicekatalog zu beantragen.
+Startseite &gt;Servicekatalog &gt;Software &amp; Apps &gt;Nuance Power PDF Advanced
+https://hilfe.service-nuances.com/</t>
+  </si>
+  <si>
+    <t>2023-01-14 10:42:31 - Agent (Notizen schließen (für Kunden sichtbar))
+Hallo Nutzer,
+Sie können Nuance Power PDF im IT Service Portal anfordern, indem Sie die entsprechende Version Ihres Betriebssystems auswählen (https://hilfe.service-nuances.com). Wenn die Anforderung genehmigt wird, wird die Software Ihrem Laptop zugewiesen (nicht installiert). Sie können das Software-Portal öffnen, indem Sie "rap" in das Suchfeld auf der linken Seite unten eingeben (Windows 10). Dann sehen Sie das Programm, das installiert werden kann. Mit freundlichen Grüßen, ITS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaktives CISCO IP Phone für neuen Benutzer zu ersetzen.
+2023-01-04 05:25:57 - Nutzer (Zusätzliche Kommentare)
+Zusätzliche Standortinformationen: IBM/ CC91
+Betroffenes Gerät: CISCO IP-Telefon 1234
+Beschreibung des Problems: CISCO IP Phone zum Ersetzen eines neuen Benutzers.
+Benutzername: CC91 PLMN
+</t>
+  </si>
+  <si>
+    <t>2023-01-04 09:11:23 - Agent 1 (Arbeitsnotizen)
+In Rücksprache mit Agent 2 (Ext# 1111) &gt; 
+[14:53 Uhr] Agent 2
+ext:3563 vorheriger Benutzer: Nutzer  ist zurückgetreten. &gt; aber das Cisco System zeigt &gt; ZM10 ABCC Dept ABCC Besprechungsraum 3563[2:55 PM] Agent 2
+    Einrichtung für dieselbe Nummer ext: 9876 für eingehende und ausgehende Anrufe
+[14:58 Uhr] Agent 2
+    neue Nummer anfordern
+[3:03 PM] Agent 2
+    cisco IP Telefon und verbinden
+2023-01-04  09:15:58 - Agent 1 (Notizen schließen (für Kunden sichtbar))
+Lieber Benutzer,
+wie in unserem Gespräch besprochen, bitten wir Sie, ein Ticket über IT SHOP zu erstellen, um eine neue Telefondurchwahl zu beantragen (siehe Link unten): 
+https://hilfe.service-it.com
+oder unter folgendem Pfad: 
+Home &gt; Service Catalog &gt; Zugangs- und Benutzerverwaltung &gt; Telefondurchwahl
+***Bitte kontaktieren Sie den IT-Helpdesk unter der Durchwahl 1010 für alle Anfragen. ***Bitte kontaktieren Sie den BMI IT-Helpdesk unter derr Durchwahl 3030 für alle Anfragen. Wir danken Ihnen.</t>
+  </si>
+  <si>
+    <t>2023-01-04 06:00:24 -  Agent 1 (Arbeitsnotizen)
+Nutzer muss mit Agent 2 weiter über diese Anfrage diskutieren und mir eine Rückmeldung geben.
+2023-01-04 09:27:01 - Nutzer (Notizen schließen (für Kunden sichtbar))
+Vom Caller geschlossen.
+2023-01-04  09:15:58 - Agent 1 (Notizen schließen (für Kunden sichtbar))
+Lieber Benutzer,
+wie in unserem Gespräch besprochen, bitten wir Sie, ein Ticket über IT SHOP zu erstellen, um eine neue Telefondurchwahl zu beantragen (siehe Link unten): 
+https://hilfe.service-it.com
+oder unter folgendem Pfad: 
+Home &gt; Service Catalog &gt; Zugangs- und Benutzerverwaltung &gt; Telefondurchwahl
+***Bitte kontaktieren Sie den IT-Helpdesk unter der Durchwahl 1010 für alle Anfragen. ***Bitte kontaktieren Sie den BMI IT-Helpdesk unter der Durchwahl 3030 für alle Anfragen. Wir danken Ihnen.</t>
+  </si>
+  <si>
+    <t>2022-01-28 09:16:08 - Agent 1 (Arbeitsnotizen)
+Nach der Neuinstallation geht das Cisco Softphone immer noch nicht.
+2023-01-28 04:12:29 - Agent 2 (Arbeitshinweise)
+Es wurde versucht, es zu konfigurieren, aber es hat nicht funktioniert. Ich empfehle, die Software neu zu installieren und es erneut zu versuchen. @Agent 1 wird dies durchführen.
+KB-Referenz: KB99910101/KB303030
+Ich habe diese Schritte bereits durchgeführt, aber es wird immer noch nicht registriert.
+Der PC-Support hat es auch mit 2 verschiedenen MACs versucht.
+Ext# 666
+2023-01-25 04:33:46 - Agent 1 (Abschließende Notizen (für Kunden sichtbar))
+Ich habe die Firewall-Einstellung geändert und jetzt funktioniert es einwandfrei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-03 09:05:09 - Agent 1 (Arbeitsnotizen)
+Hallo,
+da wir in unserem Team keine Installationen auslösen können, möchte ich den HelpDesk bitten, je nach Installationsstatus folgende Lösungen zu implementieren:
+1) Benutzer hatte bereits Analysis 2.8 und hat nun Office365 installiert.
+Wenn in diesem Fall Probleme mit Analysis auftreten, sollte Analysis 2.8 neu installiert werden.
+2) Der Benutzer hatte Analysis 2.4 und hat nun Office365 installiert.
+Analysis 2.4 muss deinstalliert werden, dann kann Analysis 2.8 installiert werden.
+3) Nach der Installation von Office365 und den Problemen mit Analysis wurde Analysis 2.8 installiert; wahrscheinlich war vorher eine ältere Version von Analysis installiert.
+In diesem Fall sehe ich keine Lösung für die auftretenden Probleme und aus meiner Sicht muss der Rechner dann neu installiert werden! 
+Mit freundlichen Grüßen
+2023-01-03 14:58:23 - Agent 2 (Arbeitsnotizen)
+ Das MS Office-Paket wurde deinstalliert und neu installiert. Der Benutzer hat bestätigt, dass alles ordnungsgemäß funktioniert.
+2023-01-03 14:59:15 - Agent 1 (Arbeitsnotizen)
+Nach der Neuinstallation aus dem Analysepaket funktioniert das Add-In. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-03 09:05:09 - Agent 1 (Arbeitsnotizen)
+Hallo,
+da wir in unserem Team keine Installationen auslösen können, möchte ich den HelpDesk bitten, je nach Installationsstatus folgende Lösungen zu implementieren:
+1) Benutzer hatte bereits Analysis 2.8 und hat nun Office365 installiert.
+Wenn in diesem Fall Probleme mit Analysis auftreten, sollte Analysis 2.8 neu installiert werden.
+2) Der Benutzer hatte Analysis 2.4 und hat nun Office365 installiert.
+Analysis 2.4 muss deinstalliert werden, dann kann Analysis 2.8 installiert werden.
+3) Nach der Installation von Office365 und den Problemen mit Analysis wurde Analysis 2.8 installiert; wahrscheinlich war vorher eine ältere Version von Analysis installiert.
+In diesem Fall sehe ich keine Lösung für die auftretenden Probleme und aus meiner Sicht muss der Rechner dann neu installiert werden! 
+Mit freundlichen Grüßen
+2023-01-03 14:59:15 - Agent 1 (Arbeitsnotizen)
+Nach der Neuinstallation aus dem Analysepaket funktioniert das Add-In. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-11 15:41:05 - Agent 1 (Arbeitsnotizen)
+Liebes Team, ich habe "Analisis for Office" deinstalliert und eine neue Version für O365 installiert, aber das hilft nicht. Es kommt immernoch die gleiche Fehlermeldung. Wir haben es auch mit Chrome, Edge und IE versucht.
+Könnten Sie bitte helfen? 
+2023-01-23 09:11:09 - Agent 3 (Arbeitsnotizen)
+Hallo,
+da wir in unserem Team keine Installationen auslösen können, möchte ich den HelpDesk bitten, je nach Installationsstatus folgende Lösungen zu implementieren:
+1) Benutzer hatte bereits Analysis 2.8 und hat nun Office365 installiert.
+Wenn in diesem Fall Probleme mit Analysis auftreten, sollte Analysis 2.8 neu installiert werden.
+2) Der Benutzer hatte Analysis 2.4 und hat nun Office365 installiert.
+Analysis 2.4 muss deinstalliert werden, dann kann Analysis 2.8 installiert werden.
+3) Nach der Installation von Office365 und den Problemen mit Analysis wurde Analysis 2.8 installiert; wahrscheinlich war vorher eine ältere Version von Analysis installiert.
+In diesem Fall sehe ich keine Lösung für die auftretenden Probleme und aus meiner Sicht muss der Rechner dann neu installiert werden!
+4) Nach der Installation fehlen DataSources oder Queries: siehe Anhang
+2023-01-23 14:06:24 - Agent 1 (Arbeitsnotizen)
+Nach allen Schritten funktioniert es jetzt.
+</t>
+  </si>
+  <si>
+    <t>2023-01-17 15:10:20 - Agent 2 (Arbeitsnotizen)
+Liebes Team, die Installation der SAP-Analyse für Microsoft Office hat nicht geholfen, können Sie bitte helfen?
+2023-01-18 07:29:13 - Agent 3 (Zusätzliche Kommentare)
+Hallo,
+Ich benutze die gleiche Version von AO und hatte bisher keine Probleme damit.
+Das ist die aktuelle Version, die im Einsatz ist.
+Vielleicht können Sie genauer beschreiben, was wann passiert, damit wir Sie unterstützen können.
+Alternativ können Sie natürlich auch selbst im Internet nach Lösungen suchen Möglicherweise ist das Problem auch schon bekannt.
+Mit freundlichen Grüßen
+2023-01-27 10:45:36 - Agent 3 (Abschließende Notizen (Sichtbar für Kunden))
+Hallo,
+teilweise unktionieren die verschiedenen Browser unterschiedlich. Im folgenden Link finden Sie weitere Inforamtionen dayu:
+https:/hilfe.welcher-browser-funktioniert-besser/
+Mit freundlichen Grüßen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,12 +567,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -611,265 +626,6 @@
   <dxfs count="39">
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
@@ -878,6 +634,265 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -902,13 +917,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7064B924-F2FC-46C3-B05D-DC079E3D2967}" name="Table2" displayName="Table2" ref="A1:H18" totalsRowShown="0">
   <autoFilter ref="A1:H18" xr:uid="{7064B924-F2FC-46C3-B05D-DC079E3D2967}"/>
   <tableColumns count="8">
-    <tableColumn id="10" xr3:uid="{A0CEA7F4-0404-4037-9E1B-1E5A093D521D}" name="systemId" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{A0CEA7F4-0404-4037-9E1B-1E5A093D521D}" name="systemId" dataDxfId="1"/>
     <tableColumn id="1" xr3:uid="{F788B06C-E20D-499B-82A2-16BDBA4E08F2}" name="ticketId"/>
     <tableColumn id="2" xr3:uid="{00BD2982-1A6B-4C2D-BB97-48969FCAB4C5}" name="ticketCreator"/>
     <tableColumn id="3" xr3:uid="{D687C213-4411-461B-B464-482249F037FE}" name="ticketDate"/>
     <tableColumn id="4" xr3:uid="{3D4AC511-9511-4691-BDA8-1896A8C6B8D1}" name="ticketTitle"/>
     <tableColumn id="5" xr3:uid="{D5F8AA30-27C9-417B-802C-F7A71869CF4F}" name="ticketDescription"/>
-    <tableColumn id="6" xr3:uid="{804F2CFF-7186-4CCC-851C-E0E69BC88197}" name="ticketDescriptionHighlighting" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{804F2CFF-7186-4CCC-851C-E0E69BC88197}" name="ticketDescriptionHighlighting" dataDxfId="0"/>
     <tableColumn id="11" xr3:uid="{B5D8F818-43C1-47E1-B85E-88AC7524A690}" name="ticketSolutionHistory"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1207,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1246,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1257,22 +1272,22 @@
         <v>44523</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.35">
@@ -1283,22 +1298,22 @@
         <v>50194</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1309,22 +1324,22 @@
         <v>42060</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
+        <v>65</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1335,22 +1350,22 @@
         <v>38001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1361,22 +1376,22 @@
         <v>42999</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1387,25 +1402,25 @@
         <v>43051</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
+        <v>65</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1413,25 +1428,25 @@
         <v>43200</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1">
         <v>44931</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
+        <v>65</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1439,25 +1454,25 @@
         <v>79808</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="377" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1465,22 +1480,22 @@
         <v>82838</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
+        <v>65</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
@@ -1491,25 +1506,25 @@
         <v>79808</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1">
         <v>44905</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1517,22 +1532,22 @@
         <v>82838</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1">
         <v>44938</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" t="s">
-        <v>34</v>
+        <v>65</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="319" x14ac:dyDescent="0.35">
@@ -1543,25 +1558,25 @@
         <v>85868</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1569,25 +1584,25 @@
         <v>88899</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" t="s">
-        <v>39</v>
+        <v>65</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1595,22 +1610,22 @@
         <v>91923</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1">
         <v>44929</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
+        <v>65</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
@@ -1621,22 +1636,22 @@
         <v>85868</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1">
         <v>44873</v>
       </c>
       <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1647,25 +1662,25 @@
         <v>88899</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1">
         <v>44915</v>
       </c>
       <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>70</v>
-      </c>
     </row>
-    <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1673,208 +1688,148 @@
         <v>91929</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1">
         <v>44933</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:H3 A4:F4 H4 G3:G4 G8:H10 A8:F8 H11:H15 G13:G15">
-    <cfRule type="containsBlanks" dxfId="36" priority="41">
+  <conditionalFormatting sqref="A2:H3 A4:F4 H4 G8:H10 A8:F8 H11:H15 G3:G18">
+    <cfRule type="containsBlanks" dxfId="38" priority="41">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:E3 G3:H3">
-    <cfRule type="containsBlanks" dxfId="35" priority="40">
+    <cfRule type="containsBlanks" dxfId="37" priority="40">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:D4 F4 H4">
-    <cfRule type="containsBlanks" dxfId="34" priority="39">
+    <cfRule type="containsBlanks" dxfId="36" priority="39">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:F8">
-    <cfRule type="containsBlanks" dxfId="33" priority="38">
+    <cfRule type="containsBlanks" dxfId="35" priority="38">
       <formula>LEN(TRIM(A8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsBlanks" dxfId="32" priority="37">
+    <cfRule type="containsBlanks" dxfId="34" priority="37">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsBlanks" dxfId="31" priority="36">
+    <cfRule type="containsBlanks" dxfId="33" priority="36">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4 D8">
-    <cfRule type="containsBlanks" dxfId="30" priority="35">
+    <cfRule type="containsBlanks" dxfId="32" priority="35">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3">
-    <cfRule type="containsBlanks" dxfId="29" priority="34">
+    <cfRule type="containsBlanks" dxfId="31" priority="34">
       <formula>LEN(TRIM(F2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3">
-    <cfRule type="containsBlanks" dxfId="28" priority="33">
+    <cfRule type="containsBlanks" dxfId="30" priority="33">
       <formula>LEN(TRIM(F2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:E2 G2:H2">
-    <cfRule type="containsBlanks" dxfId="27" priority="32">
+    <cfRule type="containsBlanks" dxfId="29" priority="32">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:D3 F3:H3">
-    <cfRule type="containsBlanks" dxfId="26" priority="31">
+    <cfRule type="containsBlanks" dxfId="28" priority="31">
       <formula>LEN(TRIM(B3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F4">
-    <cfRule type="containsBlanks" dxfId="25" priority="30">
+    <cfRule type="containsBlanks" dxfId="27" priority="30">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G4 G8:G10">
-    <cfRule type="containsBlanks" dxfId="24" priority="29">
+  <conditionalFormatting sqref="G3:G18">
+    <cfRule type="containsBlanks" dxfId="26" priority="29">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:H7">
-    <cfRule type="containsBlanks" dxfId="23" priority="28">
+  <conditionalFormatting sqref="A5:F7 H5:H7">
+    <cfRule type="containsBlanks" dxfId="25" priority="28">
       <formula>LEN(TRIM(A5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:E6 G6:H6">
-    <cfRule type="containsBlanks" dxfId="22" priority="27">
+  <conditionalFormatting sqref="A6:E6 H6">
+    <cfRule type="containsBlanks" dxfId="24" priority="27">
       <formula>LEN(TRIM(A6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:D7 F7:H7">
-    <cfRule type="containsBlanks" dxfId="21" priority="26">
+  <conditionalFormatting sqref="A7:D7 F7 H7">
+    <cfRule type="containsBlanks" dxfId="23" priority="26">
       <formula>LEN(TRIM(A7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsBlanks" dxfId="20" priority="25">
+    <cfRule type="containsBlanks" dxfId="22" priority="25">
       <formula>LEN(TRIM(A5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="containsBlanks" dxfId="19" priority="24">
+    <cfRule type="containsBlanks" dxfId="21" priority="24">
       <formula>LEN(TRIM(D6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsBlanks" dxfId="18" priority="23">
+    <cfRule type="containsBlanks" dxfId="20" priority="23">
       <formula>LEN(TRIM(D7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F6">
-    <cfRule type="containsBlanks" dxfId="17" priority="22">
+    <cfRule type="containsBlanks" dxfId="19" priority="22">
       <formula>LEN(TRIM(F5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F6">
-    <cfRule type="containsBlanks" dxfId="16" priority="21">
+    <cfRule type="containsBlanks" dxfId="18" priority="21">
       <formula>LEN(TRIM(F5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:E5 G5:H5">
-    <cfRule type="containsBlanks" dxfId="15" priority="20">
+  <conditionalFormatting sqref="B5:E5 H5">
+    <cfRule type="containsBlanks" dxfId="17" priority="20">
       <formula>LEN(TRIM(B5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:D6 F6:H6">
-    <cfRule type="containsBlanks" dxfId="14" priority="19">
+  <conditionalFormatting sqref="B6:D6 F6 H6">
+    <cfRule type="containsBlanks" dxfId="16" priority="19">
       <formula>LEN(TRIM(B6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:G7">
-    <cfRule type="containsBlanks" dxfId="13" priority="18">
+  <conditionalFormatting sqref="B7:F7">
+    <cfRule type="containsBlanks" dxfId="15" priority="18">
       <formula>LEN(TRIM(B7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="containsBlanks" dxfId="12" priority="17">
-      <formula>LEN(TRIM(G6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsBlanks" dxfId="11" priority="16">
-      <formula>LEN(TRIM(G7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="containsBlanks" dxfId="10" priority="11">
-      <formula>LEN(TRIM(G11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="containsBlanks" dxfId="9" priority="10">
-      <formula>LEN(TRIM(G11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="containsBlanks" dxfId="8" priority="9">
-      <formula>LEN(TRIM(G12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="containsBlanks" dxfId="7" priority="8">
-      <formula>LEN(TRIM(G12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H16:H18">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
+    <cfRule type="containsBlanks" dxfId="8" priority="7">
       <formula>LEN(TRIM(H16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(G16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(G16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(G17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(G17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(G18))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(G18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/client/public/wizard_of_oz_experiment_data_solution.xlsx
+++ b/client/public/wizard_of_oz_experiment_data_solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wikassel-my.sharepoint.com/personal/mahei_li_wi-kassel_de/Documents/Crowdsupport/05 Publikationen/2023/DESRIST_Reference Process for Labeling/03_Data Experiment/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{CFBFECBD-D34C-4FDF-871F-F254BB13C4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67E9A26B-B006-43AA-A1A1-2BEEA9AF9188}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{CFBFECBD-D34C-4FDF-871F-F254BB13C4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC89E895-E2FF-49CB-85C4-79B3C261ACB0}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>ticketCreator</t>
   </si>
@@ -172,25 +172,6 @@
 Problembeschreibung: Mein Cisco-Telefon ist nicht eingeloggt, ich kann nicht auf meine Nachrichten zugreifen, niemand kann mich anrufen.</t>
   </si>
   <si>
-    <t>2023-01-08 16:51:53 - Agent 1 (Weitere Kommentare)
-Ich habe das Deinstallationsprogramm und das Installationsprogramm für das Cisco Phone über Ivanti bereitgestellt.
-Nach der Deinstallation des Cisco-Telefons wird das Installationsprogramm nicht angezeigt.
-2023-01-08 16:09:52 - Agent 1 (Weitere Kommentare)
-Mein Cisco-Telefon ist nicht eingeloggt, ich kann nicht auf meine Nachrichten zugreifen, niemand kann mich anrufen.
-2023-02-11 10:45:10 - Agent 2 (Arbeitsnotizen)
-@Agent 1: Sie sollten nicht gleichzeitig ein Uninstaller- und ein Installer-Paket zuweisen. Das System wird verwirrt sein und ein Paket wird dabei abgebrochen. Senden Sie immer eines nach dem anderen. Ich habe das Paket erneut zugewiesen.
-2023-01-08 16:52:27 - Agent 1 (Arbeitsnotizen)
-Liebe Kollegen,
-könnt ihr bitte die Installation für das Cisco Phone pushen?
-Ich danke Ihnen im Voraus.
-Mit freundlichen Grüßen,
-Agent 1
-Globaler IT-Service-Desk
-2023-01-11 10:45:10 - Agent 2 (Abschließene Notizen (für Kunden sichtbar))
-Hallo,
-ich habe den Cisco Installer erneut Ihrem Kunden zugewiesen. Bitte führen Sie das Paket über den Ivanti Portal Manager aus.</t>
-  </si>
-  <si>
     <t>Agent Anna Mengel</t>
   </si>
   <si>
@@ -200,74 +181,18 @@
     <t>Probleme mit Cisco Phone</t>
   </si>
   <si>
-    <t>Reaktives CISCO IP Phone ext:9876 für neuen Benutzer zu ersetzen.
-2023-01-04 05:25:57 - Nutzer (Zusätzliche Kommentare)
-Zusätzliche Standortinformationen: IBM/ CC91
-Betroffenes Gerät: CISCO IP-Telefon 1234
-Beschreibung des Problems: CISCO IP Phone zum Ersetzen eines neuen Benutzers.
-Benutzername: CC91 PLMN
-ext: 9876</t>
-  </si>
-  <si>
-    <t>2023-01-08 12:59:40 - Agent 1 (Weitere Kommentare)
-Nuance-Paket zweimal an den Computer gesendet. Kam nicht an.
-2023-01-08 11:55:22 - Agent 1 (Weitere Kommentare)
-Paket wurde nochmal zugewiesen.
-2023-01-08 13:14:47 - Agent 2 (Notizen schließen (für Kunden sichtbar))
-Bitte aktualisieren Sie zunächst auf Windows 10 20H2, da die aktuelle Version 1709 von Microsoft nicht mehr unterstützt wird.
-2023-01-08 06:54:42 - Agent 1 (Notizen schließen (für Kunden sichtbar))
-ED12-D1234 Software: Nuance_Dateipdf_1.0.11.0.1_MUI_x64_01 zugewiesen. Bitte aus Portal Manager installieren.</t>
-  </si>
-  <si>
     <t>Agent Leonard Platt</t>
   </si>
   <si>
     <t>Nuance Lizenz Antrag</t>
   </si>
   <si>
-    <t xml:space="preserve">Antrag auf pdf-Lizenz für Nuance.
-2023-01-14 08:59:13 - Nutzer (Weitere Kommentare)
-Beschreibung des Problems: Liebes Team,
-als Teil meiner Projektanforderungen benötige ich die Software nuance pdf editor und die Lizenz. Bitte stellen Sie mir das Notwendige zur Verfügung.
-Vielen Dank und viele Grüße.
-</t>
-  </si>
-  <si>
     <t>Agent Sascha Wand</t>
   </si>
   <si>
     <t>Nuance Software Antrag</t>
   </si>
   <si>
-    <t>Hallo, ich möchte die Nuance Power pdf Advance Software anfordern.
-2023-01-24 03:10:00 - Nutzer  (Zusätzliche Kommentare)
-Okaz, ich werde versuchen, es im Servicekatalog zu beantragen.
-2023-01-24 03:09:59 - Nutzer (Weitere Kommentare)
-Hallo, mein Computer heißt VBN 1221, Windows 10.
-2023-01-24 03:09:54 - Nutzer (Weitere Kommentare)
-Hallo, ich möchte die Software nuance power pdf advance anfordern.</t>
-  </si>
-  <si>
-    <t>2023-01-24 03:10:01 - Agent (Zusätzliche Kommentare)
-Wenn Sie fertig sind, können Sie im Portalmanager auf die Schaltfläche "Aktualisieren" klicken.
-2023-01-24 03:09:58 - Agent  (Weitere Kommentare)
-Startseite &gt;Servicekatalog &gt;Software &amp; Apps &gt;Nuance Power PDF Advanced
-https://hilfe.service-nuance.com/
-2023-01-24 03:09:57 - Agent  (Weitere Kommentare)
-Bitte im Leistungskatalog beantragen.
-2023-01-24 03:09:57 - Agent  (Weitere Kommentare)
-bitte im Leistungskatalog beantragen
-2023-01-24 03:09:56 - Agent  (Weitere Kommentare)
-Wie lautet der Name Ihres Computers?
-Benutzen Sie Windows 10 oder Windows 7?
-2023-01-24 03:09:55 - Agent  (Weitere Kommentare)
-Danke, dass Sie sich an den Support wenden. Ich prüfe Ihre Frage gerade und werde mich in Kürze bei Ihnen melden.
-2023-01-2403:09:53 - Agent  (Anmerkungen schließen (für Kunden sichtbar))
-Ich empfehle dem Benutzer, es im Servicekatalog zu beantragen.
-Startseite &gt;Servicekatalog &gt;Software &amp; Apps &gt;Nuance Power PDF Advanced
-https://hilfe.service-nuance.com/</t>
-  </si>
-  <si>
     <t>Das Addin "Analysis for Excel" stürzt immer wieder ab</t>
   </si>
   <si>
@@ -281,11 +206,6 @@
   </si>
   <si>
     <t>Ich muss einige Daten in "Analysis for Office" neu laden. Wenn ich versuche, die Analyse zu verwenden, erhalte ich eine Fehlermeldung.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-01-14 14:25:44 - [name_912] (Zusätzliche Kommentare)
-Betroffenes Gerät: "Analyse für Office"
-Beschreibung des Problems: Ich muss einige Daten in "Analysis for Office neu laden". Wenn ich versuche, die Analyse zu verwenden, nachdem ich sie aus den Add-Ins deaktiviert habe, erhalte ich den angehängten Fehler. Bitte helfen Sie mir und beheben Sie das Problem.  Ich danke Ihnen im Voraus. </t>
   </si>
   <si>
     <t>2021-01-14 15:10:33 - [name_127] (Notizen schließen (Kunde sichtbar))
@@ -303,15 +223,6 @@
   <si>
     <t>2021-02-12 11:09:40 - [name_170] (Weitere Kommentare)_x000D_
 Excel Analysis for Office" nach Update auf O365"</t>
-  </si>
-  <si>
-    <t>2021-02-12 11:09:40 - [name_170] (Notizen schließen (Kunde sichtbar))
-Sehr geehrter [name_2651], 
-Sie haben die richtige Version (2.8) von Analysis for office auf Ihrem Computer. Wenn alle Funktionen, die Sie bisher in Excel hatten, funktionieren, besteht kein weiterer Handlungsbedarf. 
-Wir danken Ihnen für Ihren Anruf. Sollten Sie in Zukunft eine Fehlfunktion feststellen, kontaktieren Sie uns bitte. 
-Mit freundlichen Grüßen, 
-Ich wünsche Ihnen ein schönes Wochenende, 
-[name_170]</t>
   </si>
   <si>
     <t>Agent Christian Neuberger</t>
@@ -326,13 +237,6 @@
     <t>2021-11-10 16:53:54 - [name_6383] (Zusätzliche Kommentare)
 Betroffenes Gerät: DE13-M0009
 Beschreibung des Problems: Ist es möglich, ein Softphone auf dem Macbook zu verwenden?</t>
-  </si>
-  <si>
-    <t>2021-11-11 10:14:41 - [name_225] (Weitere Kommentare)
-Guten Morgen Herr [name_16400], 
-da eine Alternativlösung derzeit die Nutzung des Hardphones ist, ist die Nutzung des Softphones am Macbook in Zukunft eher unwahrscheinlich. 
-Mit freundlichen Grüßen, 
-[name_225]</t>
   </si>
   <si>
     <t>Agent Carl Seger</t>
@@ -374,64 +278,10 @@
     <t>Ich finde die Software Nuance PDF nicht</t>
   </si>
   <si>
-    <t>Ich finde die Software Nuance PDF nicht auf meinem PC
-2023-01-02 10:23:11 - Nutzer (Weitere Kommentare)
-Funktioniert die Software nur, wenn ich mich im BBraun Netzwerk befinde? Im Portal Manager taucht die Installation immer noch nicht auf. Vielen Dank für den Support.
-2023-01-08 10:04:06 - Nutzer (Weitere Kommentare)
-Die Anwendung wird im Portalmanager nicht gefunden.
-2023-01-07 16:25:56 - Nutzer (Weitere Kommentare)
-Zusätzliche Standortinformationen: 
-Betroffenes Gerät: ED12-D1234
-Beschreibung des Problems: Nuance-Software wurde über den IT-Shop bestellt und genehmigt. Die Anwendung kann jedoch im Portal Manager nicht zur Installation gefunden werden.</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
     <t>"Analysis for Office" funktioniert nicht mit den heruntergeladenen Daten von LISA.</t>
-  </si>
-  <si>
-    <t>Nuance PDF-Konverter installieren
-2021-10-28 09:43:44 - [name_1433] (Zusätzliche Kommentare)
-Zusätzliche Standortinformationen: 
-Betroffenes Gerät: BBMIES029
-Problembeschreibung: Könnten Sie bitte PDF-Konverter auf meinem PC installieren</t>
-  </si>
-  <si>
-    <t>2021-10-28 13:00:26 - [name_2770] (Zusätzliche Kommentare)
-Nuance Power PDF Advanced angefordert  
-2021-10-28 15:20:55 - [name_2770] (Abschließende Notizen (Kunde sichtbar))
-Sehr geehrter [name_9035],  
-die Anfrage für [name_10205] Power PDF Advanced wurde abgeschlossen,  
-Sie können die Anwendung über den Portal Manager installieren.  
-Um den Portal Manager zu öffnen, geben Sie "RAP" in das Suchfeld ein und wählen Sie dann "Anwendungen", klicken Sie in der rechten Ecke auf die Schaltfläche Aktualisieren, wählen Sie dann [name_10205] Power PDF Advanced und klicken Sie auf Installieren .  
-Beste Grüße [name_12257]  
-IT-Service-Desk</t>
-  </si>
-  <si>
-    <t>2023-01-24 03:10:01 - Agent (Zusätzliche Kommentare)
-Wenn Sie fertig sind, können Sie im Portalmanager auf die Schaltfläche "Aktualisieren" klicken.
-2023-01-24 03:09:58 - Agent  (Weitere Kommentare)
-Startseite &gt;Servicekatalog &gt;Software &amp; Apps &gt;Nuance Power PDF Advanced
-https://hilfe.service-nuances.com/
-2023-01-24 03:09:57 - Agent  (Weitere Kommentare)
-Bitte im Leistungskatalog beantragen.
-2023-01-24 03:09:57 - Agent  (Weitere Kommentare)
-bitte im Leistungskatalog beantragen
-2023-01-24 03:09:56 - Agent  (Weitere Kommentare)
-Wie lautet der Name Ihres Computers?
-Benutzen Sie Windows 10 oder Windows 7?
-2023-01-24 03:09:55 - Agent  (Weitere Kommentare)
-Danke, dass Sie sich an den Support wenden. Ich prüfe Ihre Frage gerade und werde mich in Kürze bei Ihnen melden.
-2023-01-2403:09:53 - Agent  (Anmerkungen schließen (für Kunden sichtbar))
-Ich empfehle dem Benutzer, es im Servicekatalog zu beantragen.
-Startseite &gt;Servicekatalog &gt;Software &amp; Apps &gt;Nuance Power PDF Advanced
-https://hilfe.service-nuances.com/</t>
-  </si>
-  <si>
-    <t>2023-01-14 10:42:31 - Agent (Notizen schließen (für Kunden sichtbar))
-Hallo Nutzer,
-Sie können Nuance Power PDF im IT Service Portal anfordern, indem Sie die entsprechende Version Ihres Betriebssystems auswählen (https://hilfe.service-nuances.com). Wenn die Anforderung genehmigt wird, wird die Software Ihrem Laptop zugewiesen (nicht installiert). Sie können das Software-Portal öffnen, indem Sie "rap" in das Suchfeld auf der linken Seite unten eingeben (Windows 10). Dann sehen Sie das Programm, das installiert werden kann. Mit freundlichen Grüßen, ITS.</t>
   </si>
   <si>
     <t xml:space="preserve">Reaktives CISCO IP Phone für neuen Benutzer zu ersetzen.
@@ -441,65 +291,6 @@
 Beschreibung des Problems: CISCO IP Phone zum Ersetzen eines neuen Benutzers.
 Benutzername: CC91 PLMN
 </t>
-  </si>
-  <si>
-    <t>2023-01-04 09:11:23 - Agent 1 (Arbeitsnotizen)
-In Rücksprache mit Agent 2 (Ext# 1111) &gt; 
-[14:53 Uhr] Agent 2
-ext:3563 vorheriger Benutzer: Nutzer  ist zurückgetreten. &gt; aber das Cisco System zeigt &gt; ZM10 ABCC Dept ABCC Besprechungsraum 3563[2:55 PM] Agent 2
-    Einrichtung für dieselbe Nummer ext: 9876 für eingehende und ausgehende Anrufe
-[14:58 Uhr] Agent 2
-    neue Nummer anfordern
-[3:03 PM] Agent 2
-    cisco IP Telefon und verbinden
-2023-01-04  09:15:58 - Agent 1 (Notizen schließen (für Kunden sichtbar))
-Lieber Benutzer,
-wie in unserem Gespräch besprochen, bitten wir Sie, ein Ticket über IT SHOP zu erstellen, um eine neue Telefondurchwahl zu beantragen (siehe Link unten): 
-https://hilfe.service-it.com
-oder unter folgendem Pfad: 
-Home &gt; Service Catalog &gt; Zugangs- und Benutzerverwaltung &gt; Telefondurchwahl
-***Bitte kontaktieren Sie den IT-Helpdesk unter der Durchwahl 1010 für alle Anfragen. ***Bitte kontaktieren Sie den BMI IT-Helpdesk unter derr Durchwahl 3030 für alle Anfragen. Wir danken Ihnen.</t>
-  </si>
-  <si>
-    <t>2023-01-04 06:00:24 -  Agent 1 (Arbeitsnotizen)
-Nutzer muss mit Agent 2 weiter über diese Anfrage diskutieren und mir eine Rückmeldung geben.
-2023-01-04 09:27:01 - Nutzer (Notizen schließen (für Kunden sichtbar))
-Vom Caller geschlossen.
-2023-01-04  09:15:58 - Agent 1 (Notizen schließen (für Kunden sichtbar))
-Lieber Benutzer,
-wie in unserem Gespräch besprochen, bitten wir Sie, ein Ticket über IT SHOP zu erstellen, um eine neue Telefondurchwahl zu beantragen (siehe Link unten): 
-https://hilfe.service-it.com
-oder unter folgendem Pfad: 
-Home &gt; Service Catalog &gt; Zugangs- und Benutzerverwaltung &gt; Telefondurchwahl
-***Bitte kontaktieren Sie den IT-Helpdesk unter der Durchwahl 1010 für alle Anfragen. ***Bitte kontaktieren Sie den BMI IT-Helpdesk unter der Durchwahl 3030 für alle Anfragen. Wir danken Ihnen.</t>
-  </si>
-  <si>
-    <t>2022-01-28 09:16:08 - Agent 1 (Arbeitsnotizen)
-Nach der Neuinstallation geht das Cisco Softphone immer noch nicht.
-2023-01-28 04:12:29 - Agent 2 (Arbeitshinweise)
-Es wurde versucht, es zu konfigurieren, aber es hat nicht funktioniert. Ich empfehle, die Software neu zu installieren und es erneut zu versuchen. @Agent 1 wird dies durchführen.
-KB-Referenz: KB99910101/KB303030
-Ich habe diese Schritte bereits durchgeführt, aber es wird immer noch nicht registriert.
-Der PC-Support hat es auch mit 2 verschiedenen MACs versucht.
-Ext# 666
-2023-01-25 04:33:46 - Agent 1 (Abschließende Notizen (für Kunden sichtbar))
-Ich habe die Firewall-Einstellung geändert und jetzt funktioniert es einwandfrei.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-03 09:05:09 - Agent 1 (Arbeitsnotizen)
-Hallo,
-da wir in unserem Team keine Installationen auslösen können, möchte ich den HelpDesk bitten, je nach Installationsstatus folgende Lösungen zu implementieren:
-1) Benutzer hatte bereits Analysis 2.8 und hat nun Office365 installiert.
-Wenn in diesem Fall Probleme mit Analysis auftreten, sollte Analysis 2.8 neu installiert werden.
-2) Der Benutzer hatte Analysis 2.4 und hat nun Office365 installiert.
-Analysis 2.4 muss deinstalliert werden, dann kann Analysis 2.8 installiert werden.
-3) Nach der Installation von Office365 und den Problemen mit Analysis wurde Analysis 2.8 installiert; wahrscheinlich war vorher eine ältere Version von Analysis installiert.
-In diesem Fall sehe ich keine Lösung für die auftretenden Probleme und aus meiner Sicht muss der Rechner dann neu installiert werden! 
-Mit freundlichen Grüßen
-2023-01-03 14:58:23 - Agent 2 (Arbeitsnotizen)
- Das MS Office-Paket wurde deinstalliert und neu installiert. Der Benutzer hat bestätigt, dass alles ordnungsgemäß funktioniert.
-2023-01-03 14:59:15 - Agent 1 (Arbeitsnotizen)
-Nach der Neuinstallation aus dem Analysepaket funktioniert das Add-In. </t>
   </si>
   <si>
     <t xml:space="preserve">2023-01-03 09:05:09 - Agent 1 (Arbeitsnotizen)
@@ -516,10 +307,27 @@
 Nach der Neuinstallation aus dem Analysepaket funktioniert das Add-In. </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-01-11 15:41:05 - Agent 1 (Arbeitsnotizen)
-Liebes Team, ich habe "Analisis for Office" deinstalliert und eine neue Version für O365 installiert, aber das hilft nicht. Es kommt immernoch die gleiche Fehlermeldung. Wir haben es auch mit Chrome, Edge und IE versucht.
-Könnten Sie bitte helfen? 
-2023-01-23 09:11:09 - Agent 3 (Arbeitsnotizen)
+    <t>Viele unserer Mitarbeiter nutzen "Analysis for Excel O365PP" - die meisten von ihnen erhalten eine Fehlermeldung und das Add-in wird nicht gestartet. Ich kann das Add-in manuell starten, aber nach einem Neustart (oder Excel-Neustart) ist das Add-in wieder inaktiv. Haben Sie eine Idee, was wir in diesem Fall tun können? Vielen Dank für Ihre Unterstützung.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich muss einige Daten in "Analysis for Office" neu laden. Wenn ich versuche, die Analyse zu verwenden, nachdem ich sie aus den Add-Ins deaktiviert habe, erhalte ich den angehängten Fehler. Bitte helfen Sie mir und beheben Sie das Problem.  Ich danke Ihnen im Voraus. </t>
+  </si>
+  <si>
+    <t>2023-01-18 07:29:13 - Agent 3 (Zusätzliche Kommentare)
+Hallo,
+Ich benutze die gleiche Version von AO und hatte bisher keine Probleme damit.
+Das ist die aktuelle Version, die im Einsatz ist.
+Vielleicht können Sie genauer beschreiben, was wann passiert, damit wir Sie unterstützen können.
+Alternativ können Sie natürlich auch selbst im Internet nach Lösungen suchen Möglicherweise ist das Problem auch schon bekannt.
+Mit freundlichen Grüßen
+2023-01-27 10:45:36 - Agent 3 (Abschließende Notizen (Sichtbar für Kunden))
+Hallo,
+teilweise unktionieren die verschiedenen Browser unterschiedlich. Im folgenden Link finden Sie weitere Inforamtionen dayu:
+https:/hilfe.welcher-browser-funktioniert-besser/
+Mit freundlichen Grüßen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-23 09:11:09 - Agent 3 (Arbeitsnotizen)
 Hallo,
 da wir in unserem Team keine Installationen auslösen können, möchte ich den HelpDesk bitten, je nach Installationsstatus folgende Lösungen zu implementieren:
 1) Benutzer hatte bereits Analysis 2.8 und hat nun Office365 installiert.
@@ -534,20 +342,130 @@
 </t>
   </si>
   <si>
-    <t>2023-01-17 15:10:20 - Agent 2 (Arbeitsnotizen)
-Liebes Team, die Installation der SAP-Analyse für Microsoft Office hat nicht geholfen, können Sie bitte helfen?
-2023-01-18 07:29:13 - Agent 3 (Zusätzliche Kommentare)
+    <t xml:space="preserve">2021-02-12 11:09:40 - [name_170] (Notizen schließen (Kunde sichtbar))
+Sehr geehrter [name_2651], 
+Sie haben die richtige Version (2.8) von Analysis for office auf Ihrem Computer. Wenn alle Funktionen, die Sie bisher in Excel hatten, funktionieren, besteht kein weiterer Handlungsbedarf. 
+Wir danken Ihnen für Ihren Anruf. Sollten Sie in Zukunft eine Fehlfunktion feststellen, kontaktieren Sie uns bitte. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-03 09:05:09 - Agent 1 (Arbeitsnotizen)
 Hallo,
-Ich benutze die gleiche Version von AO und hatte bisher keine Probleme damit.
-Das ist die aktuelle Version, die im Einsatz ist.
-Vielleicht können Sie genauer beschreiben, was wann passiert, damit wir Sie unterstützen können.
-Alternativ können Sie natürlich auch selbst im Internet nach Lösungen suchen Möglicherweise ist das Problem auch schon bekannt.
-Mit freundlichen Grüßen
-2023-01-27 10:45:36 - Agent 3 (Abschließende Notizen (Sichtbar für Kunden))
+da wir in unserem Team keine Installationen auslösen können, möchte ich den HelpDesk bitten, je nach Installationsstatus folgende Lösungen zu implementieren:
+1) Benutzer hatte bereits Analysis 2.8 und hat nun Office365 installiert.
+Wenn in diesem Fall Probleme mit Analysis auftreten, sollte Analysis 2.8 neu installiert werden.
+2) Der Benutzer hatte Analysis 2.4 und hat nun Office365 installiert.
+Analysis 2.4 muss deinstalliert werden, dann kann Analysis 2.8 installiert werden.
+3) Nach der Installation von Office365 und den Problemen mit Analysis wurde Analysis 2.8 installiert; wahrscheinlich war vorher eine ältere Version von Analysis installiert.
+In diesem Fall sehe ich keine Lösung für die auftretenden Probleme und aus meiner Sicht muss der Rechner dann neu installiert werden! 
+Das MS Office-Paket wurde deinstalliert und neu installiert. Der Benutzer hat bestätigt, dass alles ordnungsgemäß funktioniert.
+Nach der Neuinstallation aus dem Analysepaket funktioniert das Add-In. </t>
+  </si>
+  <si>
+    <t>Es wurde versucht, es zu konfigurieren, aber es hat nicht funktioniert. Ich empfehle, die Software neu zu installieren und es erneut zu versuchen. @Agent 1 wird dies durchführen.
+Ich habe diese Schritte bereits durchgeführt, aber es wird immer noch nicht registriert.
+Der PC-Support hat es auch mit 2 verschiedenen MACs versucht.
+Ich habe die Firewall-Einstellung geändert und jetzt funktioniert es einwandfrei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2023-01-11 10:45:10 - Agent 2 (Abschließene Notizen (für Kunden sichtbar))
 Hallo,
-teilweise unktionieren die verschiedenen Browser unterschiedlich. Im folgenden Link finden Sie weitere Inforamtionen dayu:
-https:/hilfe.welcher-browser-funktioniert-besser/
-Mit freundlichen Grüßen</t>
+ich habe den Cisco Installer erneut Ihrem Kunden zugewiesen. Bitte führen Sie das Paket über den Ivanti Portal Manager aus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2023-01-04  09:15:58 - Agent 1 (Notizen schließen (für Kunden sichtbar))
+Lieber Benutzer,
+wie in unserem Gespräch besprochen, bitten wir Sie, ein Ticket über IT SHOP zu erstellen, um eine neue Telefondurchwahl zu beantragen (siehe Link unten): 
+https://hilfe.service-it.com
+oder unter folgendem Pfad: 
+Home &gt; Service Catalog &gt; Zugangs- und Benutzerverwaltung &gt; Telefondurchwahl
+***Bitte kontaktieren Sie den IT-Helpdesk unter der Durchwahl 1010 für alle Anfragen. ***Bitte kontaktieren Sie den BMI IT-Helpdesk unter der Durchwahl 3030 für alle Anfragen. Wir danken Ihnen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-11 10:14:41 - [name_225] (Weitere Kommentare)
+Guten Morgen, 
+da eine Alternativlösung derzeit die Nutzung des Hardphones ist, ist die Nutzung des Softphones am Macbook in Zukunft eher unwahrscheinlich. 
+Mit freundlichen Grüßen, 
+</t>
+  </si>
+  <si>
+    <t>Nutzer  ist zurückgetreten. &gt; aber das Cisco System zeigt &gt; ZM10 ABCC Dept ABCC Besprechungsraum 3563
+    * Einrichtung für dieselbe Nummer ext: 9876 für eingehende und ausgehende Anrufe
+   * neue Nummer anfordern
+    * cisco IP Telefon und verbinden
+2023-01-04  09:15:58 - Agent 1 (Notizen schließen (für Kunden sichtbar))
+Lieber Benutzer,
+wie in unserem Gespräch besprochen, bitten wir Sie, ein Ticket über IT SHOP zu erstellen, um eine neue Telefondurchwahl zu beantragen (siehe Link unten): 
+https://hilfe.service-it.com
+oder unter folgendem Pfad: 
+Home &gt; Service Catalog &gt; Zugangs- und Benutzerverwaltung &gt; Telefondurchwahl
+***Bitte kontaktieren Sie den IT-Helpdesk unter der Durchwahl 1010 für alle Anfragen. ***Bitte kontaktieren Sie den BMI IT-Helpdesk unter derr Durchwahl 3030 für alle Anfragen. Wir danken Ihnen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-08 11:55:22 - Agent 1 (Weitere Kommentare)
+Paket wurde nochmal zugewiesen.
+2023-01-08 13:14:47 - Agent 2 (Notizen schließen (für Kunden sichtbar))
+Bitte aktualisieren Sie zunächst auf Windows 10 20H2, da die aktuelle Version 1709 von Microsoft nicht mehr unterstützt wird.
+</t>
+  </si>
+  <si>
+    <t>Hallo Nutzer,
+Sie können Nuance Power PDF im IT Service Portal anfordern, indem Sie die entsprechende Version Ihres Betriebssystems auswählen (https://hilfe.service-nuances.com). Wenn die Anforderung genehmigt wird, wird die Software Ihrem Laptop zugewiesen (nicht installiert). Sie können das Software-Portal öffnen, indem Sie "rap" in das Suchfeld auf der linken Seite unten eingeben (Windows 10). Dann sehen Sie das Programm, das installiert werden kann. Mit freundlichen Grüßen, ITS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Wie lautet der Name Ihres Computers?
+Benutzen Sie Windows 10 oder Windows 7?
+2023-01-2403:09:53 - Agent  (Anmerkungen schließen (für Kunden sichtbar))
+Ich empfehle dem Benutzer, es im Servicekatalog zu beantragen.
+Startseite &gt;Servicekatalog &gt;Software &amp; Apps &gt;Nuance Power PDF Advanced
+https://hilfe.service-nuances.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Anfrage für [name_10205] Power PDF Advanced wurde abgeschlossen,  
+Sie können die Anwendung über den Portal Manager installieren.  
+Um den Portal Manager zu öffnen, geben Sie "RAP" in das Suchfeld ein und wählen Sie dann "Anwendungen", klicken Sie in der rechten Ecke auf die Schaltfläche Aktualisieren, wählen Sie dann [name_10205] Power PDF Advanced und klicken Sie auf Installieren .  
+</t>
+  </si>
+  <si>
+    <t>Wie lautet der Name Ihres Computers?
+Benutzen Sie Windows 10 oder Windows 7?
+2023-01-2403:09:53 - Agent  (Anmerkungen schließen (für Kunden sichtbar))
+Ich empfehle dem Benutzer, es im Servicekatalog zu beantragen.
+Startseite &gt;Servicekatalog &gt;Software &amp; Apps &gt;Nuance Power PDF Advanced
+https://hilfe.service-nuance.com/</t>
+  </si>
+  <si>
+    <t>Nuance PDF-Konverter installieren
+Zusätzliche Standortinformationen: 
+Problembeschreibung: Könnten Sie bitte PDF-Konverter auf meinem PC installieren</t>
+  </si>
+  <si>
+    <t>Hallo, ich möchte die Nuance Power pdf Advance Software anfordern.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hallo, ich möchte die Nuance Power pdf Advance Software anfordern.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antrag auf pdf-Lizenz für Nuance.
+ Liebes Team,
+als Teil meiner Projektanforderungen benötige ich die Software nuance pdf editor und die Lizenz. Bitte stellen Sie mir das Notwendige zur Verfügung.
+Vielen Dank und viele Grüße.
+</t>
+  </si>
+  <si>
+    <t>Ich finde die Software Nuance PDF nicht auf meinem PC
+2023-01-02 10:23:11 - Nutzer (Weitere Kommentare)
+Funktioniert die Software nur, wenn ich mich im BBraun Netzwerk mit VPN befinde? Im Portal Manager taucht die Installation immer noch nicht auf. Vielen Dank für den Support.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaktives CISCO IP Phone ext:9876 für neuen Benutzer zu ersetzen.
+Betroffenes Gerät: CISCO IP-Telefon 1234
+Beschreibung des Problems: CISCO IP Phone zum Ersetzen eines neuen Benutzers.
+</t>
   </si>
 </sst>
 </file>
@@ -623,7 +541,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -634,90 +552,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1222,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1278,16 +1112,16 @@
         <v>17</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.35">
@@ -1304,16 +1138,16 @@
         <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1333,13 +1167,13 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1350,22 +1184,22 @@
         <v>38001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1376,22 +1210,22 @@
         <v>42999</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1402,7 +1236,7 @@
         <v>43051</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
@@ -1414,13 +1248,13 @@
         <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="275.5" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1434,19 +1268,19 @@
         <v>44931</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1466,13 +1300,13 @@
         <v>22</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="377" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1480,22 +1314,22 @@
         <v>82838</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
+      <c r="F10" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
@@ -1506,25 +1340,25 @@
         <v>79808</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1">
         <v>44905</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1532,25 +1366,25 @@
         <v>82838</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1">
         <v>44938</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="319" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1558,25 +1392,25 @@
         <v>85868</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1584,25 +1418,25 @@
         <v>88899</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="145" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1610,22 +1444,22 @@
         <v>91923</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1">
         <v>44929</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
@@ -1636,22 +1470,22 @@
         <v>85868</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1">
         <v>44873</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1662,25 +1496,25 @@
         <v>88899</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1">
         <v>44915</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1688,147 +1522,147 @@
         <v>91929</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1">
         <v>44933</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H3 A4:F4 H4 G8:H10 A8:F8 H11:H15 G3:G18">
-    <cfRule type="containsBlanks" dxfId="38" priority="41">
+    <cfRule type="containsBlanks" dxfId="26" priority="41">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:E3 G3:H3">
-    <cfRule type="containsBlanks" dxfId="37" priority="40">
+    <cfRule type="containsBlanks" dxfId="25" priority="40">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:D4 F4 H4">
-    <cfRule type="containsBlanks" dxfId="36" priority="39">
+    <cfRule type="containsBlanks" dxfId="24" priority="39">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:F8">
-    <cfRule type="containsBlanks" dxfId="35" priority="38">
+    <cfRule type="containsBlanks" dxfId="23" priority="38">
       <formula>LEN(TRIM(A8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsBlanks" dxfId="34" priority="37">
+    <cfRule type="containsBlanks" dxfId="22" priority="37">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsBlanks" dxfId="33" priority="36">
+    <cfRule type="containsBlanks" dxfId="21" priority="36">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4 D8">
-    <cfRule type="containsBlanks" dxfId="32" priority="35">
+    <cfRule type="containsBlanks" dxfId="20" priority="35">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3">
-    <cfRule type="containsBlanks" dxfId="31" priority="34">
+    <cfRule type="containsBlanks" dxfId="19" priority="34">
       <formula>LEN(TRIM(F2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3">
-    <cfRule type="containsBlanks" dxfId="30" priority="33">
+    <cfRule type="containsBlanks" dxfId="18" priority="33">
       <formula>LEN(TRIM(F2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:E2 G2:H2">
-    <cfRule type="containsBlanks" dxfId="29" priority="32">
+    <cfRule type="containsBlanks" dxfId="17" priority="32">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:D3 F3:H3">
-    <cfRule type="containsBlanks" dxfId="28" priority="31">
+    <cfRule type="containsBlanks" dxfId="16" priority="31">
       <formula>LEN(TRIM(B3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F4">
-    <cfRule type="containsBlanks" dxfId="27" priority="30">
+    <cfRule type="containsBlanks" dxfId="15" priority="30">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G18">
-    <cfRule type="containsBlanks" dxfId="26" priority="29">
+    <cfRule type="containsBlanks" dxfId="14" priority="29">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:F7 H5:H7">
-    <cfRule type="containsBlanks" dxfId="25" priority="28">
+    <cfRule type="containsBlanks" dxfId="13" priority="28">
       <formula>LEN(TRIM(A5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:E6 H6">
-    <cfRule type="containsBlanks" dxfId="24" priority="27">
+    <cfRule type="containsBlanks" dxfId="12" priority="27">
       <formula>LEN(TRIM(A6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:D7 F7 H7">
-    <cfRule type="containsBlanks" dxfId="23" priority="26">
+    <cfRule type="containsBlanks" dxfId="11" priority="26">
       <formula>LEN(TRIM(A7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsBlanks" dxfId="22" priority="25">
+    <cfRule type="containsBlanks" dxfId="10" priority="25">
       <formula>LEN(TRIM(A5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="containsBlanks" dxfId="21" priority="24">
+    <cfRule type="containsBlanks" dxfId="9" priority="24">
       <formula>LEN(TRIM(D6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsBlanks" dxfId="20" priority="23">
+    <cfRule type="containsBlanks" dxfId="8" priority="23">
       <formula>LEN(TRIM(D7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F6">
-    <cfRule type="containsBlanks" dxfId="19" priority="22">
+    <cfRule type="containsBlanks" dxfId="7" priority="22">
       <formula>LEN(TRIM(F5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F6">
-    <cfRule type="containsBlanks" dxfId="18" priority="21">
+    <cfRule type="containsBlanks" dxfId="6" priority="21">
       <formula>LEN(TRIM(F5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:E5 H5">
-    <cfRule type="containsBlanks" dxfId="17" priority="20">
+    <cfRule type="containsBlanks" dxfId="5" priority="20">
       <formula>LEN(TRIM(B5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:D6 F6 H6">
-    <cfRule type="containsBlanks" dxfId="16" priority="19">
+    <cfRule type="containsBlanks" dxfId="4" priority="19">
       <formula>LEN(TRIM(B6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:F7">
-    <cfRule type="containsBlanks" dxfId="15" priority="18">
+    <cfRule type="containsBlanks" dxfId="3" priority="18">
       <formula>LEN(TRIM(B7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H18">
-    <cfRule type="containsBlanks" dxfId="8" priority="7">
+    <cfRule type="containsBlanks" dxfId="2" priority="7">
       <formula>LEN(TRIM(H16))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/client/public/wizard_of_oz_experiment_data_solution.xlsx
+++ b/client/public/wizard_of_oz_experiment_data_solution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wikassel-my.sharepoint.com/personal/mahei_li_wi-kassel_de/Documents/Crowdsupport/05 Publikationen/2023/DESRIST_Reference Process for Labeling/03_Data Experiment/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{CFBFECBD-D34C-4FDF-871F-F254BB13C4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC89E895-E2FF-49CB-85C4-79B3C261ACB0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{E0E3E10F-E893-4880-9976-5D5323DA4CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39012" yWindow="3972" windowWidth="14400" windowHeight="7272" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="solutionTickets" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
   <si>
     <t>ticketCreator</t>
   </si>
@@ -200,9 +200,6 @@
   </si>
   <si>
     <t>Agent Max Müller</t>
-  </si>
-  <si>
-    <t>22.11.2022</t>
   </si>
   <si>
     <t>Ich muss einige Daten in "Analysis for Office" neu laden. Wenn ich versuche, die Analyse zu verwenden, erhalte ich eine Fehlermeldung.</t>
@@ -279,9 +276,6 @@
   </si>
   <si>
     <t>[]</t>
-  </si>
-  <si>
-    <t>"Analysis for Office" funktioniert nicht mit den heruntergeladenen Daten von LISA.</t>
   </si>
   <si>
     <t xml:space="preserve">Reaktives CISCO IP Phone für neuen Benutzer zu ersetzen.
@@ -466,6 +460,9 @@
 Betroffenes Gerät: CISCO IP-Telefon 1234
 Beschreibung des Problems: CISCO IP Phone zum Ersetzen eines neuen Benutzers.
 </t>
+  </si>
+  <si>
+    <t>"Analysis for Office" funktioniert nicht mit den heruntergeladenen Daten von Excel.</t>
   </si>
 </sst>
 </file>
@@ -519,9 +516,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -541,7 +537,70 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -751,13 +810,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7064B924-F2FC-46C3-B05D-DC079E3D2967}" name="Table2" displayName="Table2" ref="A1:H18" totalsRowShown="0">
   <autoFilter ref="A1:H18" xr:uid="{7064B924-F2FC-46C3-B05D-DC079E3D2967}"/>
   <tableColumns count="8">
-    <tableColumn id="10" xr3:uid="{A0CEA7F4-0404-4037-9E1B-1E5A093D521D}" name="systemId" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{A0CEA7F4-0404-4037-9E1B-1E5A093D521D}" name="systemId" dataDxfId="10"/>
     <tableColumn id="1" xr3:uid="{F788B06C-E20D-499B-82A2-16BDBA4E08F2}" name="ticketId"/>
     <tableColumn id="2" xr3:uid="{00BD2982-1A6B-4C2D-BB97-48969FCAB4C5}" name="ticketCreator"/>
     <tableColumn id="3" xr3:uid="{D687C213-4411-461B-B464-482249F037FE}" name="ticketDate"/>
     <tableColumn id="4" xr3:uid="{3D4AC511-9511-4691-BDA8-1896A8C6B8D1}" name="ticketTitle"/>
     <tableColumn id="5" xr3:uid="{D5F8AA30-27C9-417B-802C-F7A71869CF4F}" name="ticketDescription"/>
-    <tableColumn id="6" xr3:uid="{804F2CFF-7186-4CCC-851C-E0E69BC88197}" name="ticketDescriptionHighlighting" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{804F2CFF-7186-4CCC-851C-E0E69BC88197}" name="ticketDescriptionHighlighting" dataDxfId="9"/>
     <tableColumn id="11" xr3:uid="{B5D8F818-43C1-47E1-B85E-88AC7524A690}" name="ticketSolutionHistory"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1056,15 +1115,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="21.54296875" customWidth="1"/>
     <col min="3" max="3" width="14.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" customWidth="1"/>
     <col min="5" max="5" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.81640625" customWidth="1"/>
     <col min="7" max="7" width="42.1796875" customWidth="1"/>
@@ -1102,30 +1161,30 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>44523</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>61</v>
+      <c r="G2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3">
@@ -1134,20 +1193,20 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>62</v>
+      <c r="G3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1160,72 +1219,72 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>38001</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6">
         <v>42999</v>
       </c>
       <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>63</v>
+      <c r="G6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1236,22 +1295,22 @@
         <v>43051</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>64</v>
+      <c r="G7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
@@ -1264,24 +1323,24 @@
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1">
-        <v>44931</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>65</v>
+      <c r="G8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9">
@@ -1299,15 +1358,15 @@
       <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>66</v>
+      <c r="G9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10">
@@ -1322,92 +1381,92 @@
       <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>67</v>
+      <c r="F10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11">
         <v>79808</v>
       </c>
       <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="1">
-        <v>44905</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>68</v>
+      <c r="G11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="362.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12">
         <v>82838</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1">
-        <v>44938</v>
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>69</v>
+      <c r="G12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13">
         <v>85868</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>70</v>
+      <c r="H13" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
@@ -1426,14 +1485,14 @@
       <c r="E14" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>71</v>
+      <c r="F14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="145" x14ac:dyDescent="0.35">
@@ -1446,46 +1505,46 @@
       <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="1">
-        <v>44929</v>
+      <c r="D15" t="s">
+        <v>24</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>72</v>
+      <c r="F15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16">
         <v>85868</v>
       </c>
       <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="1">
-        <v>44873</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1496,22 +1555,22 @@
         <v>88899</v>
       </c>
       <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="1">
-        <v>44915</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>73</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
@@ -1522,148 +1581,193 @@
         <v>91929</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="1">
-        <v>44933</v>
+        <v>51</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="3" t="s">
         <v>74</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:H3 A4:F4 H4 G8:H10 A8:F8 H11:H15 G3:G18">
+  <conditionalFormatting sqref="A2:H3 A4:F4 H4 G8:H10 A8:C8 H11:H15 G3:G18 E8:F8">
+    <cfRule type="containsBlanks" dxfId="35" priority="50">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:E3 G3:H3">
+    <cfRule type="containsBlanks" dxfId="34" priority="49">
+      <formula>LEN(TRIM(A3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:D4 F4 H4">
+    <cfRule type="containsBlanks" dxfId="33" priority="48">
+      <formula>LEN(TRIM(A4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C8 E8:F8">
+    <cfRule type="containsBlanks" dxfId="32" priority="47">
+      <formula>LEN(TRIM(A8))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="containsBlanks" dxfId="31" priority="46">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="containsBlanks" dxfId="30" priority="45">
+      <formula>LEN(TRIM(D3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D5">
+    <cfRule type="containsBlanks" dxfId="29" priority="44">
+      <formula>LEN(TRIM(D4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="containsBlanks" dxfId="28" priority="43">
+      <formula>LEN(TRIM(F2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="containsBlanks" dxfId="27" priority="42">
+      <formula>LEN(TRIM(F2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E2 G2:H2">
     <cfRule type="containsBlanks" dxfId="26" priority="41">
-      <formula>LEN(TRIM(A2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:E3 G3:H3">
+      <formula>LEN(TRIM(B2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:D3 F3:H3">
     <cfRule type="containsBlanks" dxfId="25" priority="40">
-      <formula>LEN(TRIM(A3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:D4 F4 H4">
+      <formula>LEN(TRIM(B3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F4">
     <cfRule type="containsBlanks" dxfId="24" priority="39">
-      <formula>LEN(TRIM(A4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:F8">
+      <formula>LEN(TRIM(B4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G18">
     <cfRule type="containsBlanks" dxfId="23" priority="38">
-      <formula>LEN(TRIM(A8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
+      <formula>LEN(TRIM(G3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:F7 H5:H7 A5:C5 E5:F5">
     <cfRule type="containsBlanks" dxfId="22" priority="37">
-      <formula>LEN(TRIM(A2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D4">
+      <formula>LEN(TRIM(A5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:E6 H6">
     <cfRule type="containsBlanks" dxfId="21" priority="36">
-      <formula>LEN(TRIM(D3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4 D8">
+      <formula>LEN(TRIM(A6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:D7 F7 H7">
     <cfRule type="containsBlanks" dxfId="20" priority="35">
-      <formula>LEN(TRIM(D4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
+      <formula>LEN(TRIM(A7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
     <cfRule type="containsBlanks" dxfId="19" priority="34">
-      <formula>LEN(TRIM(F2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
+      <formula>LEN(TRIM(A5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
     <cfRule type="containsBlanks" dxfId="18" priority="33">
-      <formula>LEN(TRIM(F2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E2 G2:H2">
+      <formula>LEN(TRIM(D6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
     <cfRule type="containsBlanks" dxfId="17" priority="32">
-      <formula>LEN(TRIM(B2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:D3 F3:H3">
+      <formula>LEN(TRIM(D7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F6">
     <cfRule type="containsBlanks" dxfId="16" priority="31">
-      <formula>LEN(TRIM(B3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F4">
+      <formula>LEN(TRIM(F5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F6">
     <cfRule type="containsBlanks" dxfId="15" priority="30">
-      <formula>LEN(TRIM(B4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G18">
+      <formula>LEN(TRIM(F5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:C5 H5 E5">
     <cfRule type="containsBlanks" dxfId="14" priority="29">
-      <formula>LEN(TRIM(G3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:F7 H5:H7">
+      <formula>LEN(TRIM(B5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:D6 F6 H6">
     <cfRule type="containsBlanks" dxfId="13" priority="28">
-      <formula>LEN(TRIM(A5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:E6 H6">
+      <formula>LEN(TRIM(B6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:F7">
     <cfRule type="containsBlanks" dxfId="12" priority="27">
-      <formula>LEN(TRIM(A6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:D7 F7 H7">
-    <cfRule type="containsBlanks" dxfId="11" priority="26">
-      <formula>LEN(TRIM(A7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="containsBlanks" dxfId="10" priority="25">
-      <formula>LEN(TRIM(A5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="containsBlanks" dxfId="9" priority="24">
-      <formula>LEN(TRIM(D6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsBlanks" dxfId="8" priority="23">
-      <formula>LEN(TRIM(D7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F6">
-    <cfRule type="containsBlanks" dxfId="7" priority="22">
-      <formula>LEN(TRIM(F5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F6">
-    <cfRule type="containsBlanks" dxfId="6" priority="21">
-      <formula>LEN(TRIM(F5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:E5 H5">
-    <cfRule type="containsBlanks" dxfId="5" priority="20">
-      <formula>LEN(TRIM(B5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:D6 F6 H6">
-    <cfRule type="containsBlanks" dxfId="4" priority="19">
-      <formula>LEN(TRIM(B6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:F7">
-    <cfRule type="containsBlanks" dxfId="3" priority="18">
       <formula>LEN(TRIM(B7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H18">
-    <cfRule type="containsBlanks" dxfId="2" priority="7">
+    <cfRule type="containsBlanks" dxfId="11" priority="16">
       <formula>LEN(TRIM(H16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsBlanks" dxfId="8" priority="9">
+      <formula>LEN(TRIM(D5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsBlanks" dxfId="7" priority="8">
+      <formula>LEN(TRIM(D5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(D5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(D16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(D16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(D16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(D16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(D18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(D18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/client/public/wizard_of_oz_experiment_data_solution.xlsx
+++ b/client/public/wizard_of_oz_experiment_data_solution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wikassel-my.sharepoint.com/personal/mahei_li_wi-kassel_de/Documents/Crowdsupport/05 Publikationen/2023/DESRIST_Reference Process for Labeling/03_Data Experiment/v2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhilippReinhard\bandit-wizard-of-oz\wizard-of-oz\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{E0E3E10F-E893-4880-9976-5D5323DA4CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDF7EEA-152A-4AC9-BD1E-B30978453271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39012" yWindow="3972" windowWidth="14400" windowHeight="7272" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="solutionTickets" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>ticketCreator</t>
   </si>
@@ -129,16 +129,9 @@
     <t>Agent Lisa Schmidt</t>
   </si>
   <si>
-    <t>2023-01-02 13:28:48 - Nutzer (Zusätzliche Kommentare)
-Viele unserer Mitarbeiter nutzen "Analysis for Excel O365PP" - die meisten von ihnen erhalten eine Fehlermeldung und das Add-in wird nicht gestartet. Ich kann das Add-in manuell starten, aber nach einem Neustart (oder Excel-Neustart) ist das Add-in wieder inaktiv. Haben Sie eine Idee, was wir in diesem Fall tun können? Vielen Dank für Ihre Unterstützung.</t>
-  </si>
-  <si>
     <t>03.01.2023</t>
   </si>
   <si>
-    <t>Probleme mit O365 PP Analysis for Excel</t>
-  </si>
-  <si>
     <t>Agent Peter Becker</t>
   </si>
   <si>
@@ -154,74 +147,33 @@
     <t>07.01.2023</t>
   </si>
   <si>
-    <t>Das Add-in "Analysis for Office" ist aktiviert, kann aber die heruntergeladenen Daten von LISA nicht öffnen. Der Benutzer sagt, dass er diese Art von Dateien früher geöffnet hat, aber es wird eine Fehlermeldung angezeigt.</t>
-  </si>
-  <si>
     <t>Agent Kai Schweiger</t>
   </si>
   <si>
-    <t>Cisco Softphone funktioniert nicht</t>
-  </si>
-  <si>
     <t>Agent Pia Lange</t>
   </si>
   <si>
-    <t>Mein Cisco-Telefon ist nicht eingeloggt, ich kann nicht auf meine Nachrichten zugreifen, niemand kann mich anrufen.
-2023-01-08 16:06:15 - Nutzer (Weitere Kommentare)
-Betroffenes Gerät: Cisco Telefon
-Problembeschreibung: Mein Cisco-Telefon ist nicht eingeloggt, ich kann nicht auf meine Nachrichten zugreifen, niemand kann mich anrufen.</t>
-  </si>
-  <si>
     <t>Agent Anna Mengel</t>
   </si>
   <si>
     <t>04.01.2023</t>
   </si>
   <si>
-    <t>Probleme mit Cisco Phone</t>
-  </si>
-  <si>
     <t>Agent Leonard Platt</t>
   </si>
   <si>
-    <t>Nuance Lizenz Antrag</t>
-  </si>
-  <si>
     <t>Agent Sascha Wand</t>
   </si>
   <si>
-    <t>Nuance Software Antrag</t>
-  </si>
-  <si>
-    <t>Das Addin "Analysis for Excel" stürzt immer wieder ab</t>
-  </si>
-  <si>
-    <t>Meine aktuelle Version (2.7) des Excel Add-ins "Analysis for Excel" für Office 365 stürzt immer wieder ab? Ich nutze es zusammen mit VBA Macros, könnte das das Problem sein?</t>
-  </si>
-  <si>
     <t>Agent Max Müller</t>
   </si>
   <si>
-    <t>Ich muss einige Daten in "Analysis for Office" neu laden. Wenn ich versuche, die Analyse zu verwenden, erhalte ich eine Fehlermeldung.</t>
-  </si>
-  <si>
-    <t>2021-01-14 15:10:33 - [name_127] (Notizen schließen (Kunde sichtbar))
-Das Problem wurde durch Deaktivieren des Fehlerbehebungsmodus von SAP Analysis for Office behoben.</t>
-  </si>
-  <si>
     <t>Agent Peter Hahn</t>
   </si>
   <si>
     <t>10.12.2022</t>
   </si>
   <si>
-    <t>Excel "Analysis für Office" nach Aktualisierung auf O365</t>
-  </si>
-  <si>
-    <t>2021-02-12 11:09:40 - [name_170] (Weitere Kommentare)_x000D_
-Excel Analysis for Office" nach Update auf O365"</t>
-  </si>
-  <si>
     <t>Agent Christian Neuberger</t>
   </si>
   <si>
@@ -231,35 +183,12 @@
     <t>Softphone Macbook</t>
   </si>
   <si>
-    <t>2021-11-10 16:53:54 - [name_6383] (Zusätzliche Kommentare)
-Betroffenes Gerät: DE13-M0009
-Beschreibung des Problems: Ist es möglich, ein Softphone auf dem Macbook zu verwenden?</t>
-  </si>
-  <si>
     <t>Agent Carl Seger</t>
   </si>
   <si>
-    <t>Softphone von Cisco defekt</t>
-  </si>
-  <si>
-    <t>Cisco Softphone kann nicht verwendet werden
-2023-01-24 05:03:58 - Nutzer (Weitere Kommentare)
-Betroffenes Gerät: Cisco-Softphone
-Beschreibung des Problems: Mein Cisco Softphone funktioniert nicht. Das Gerät wurde bereits durch den IT Support installiert und eingerichtet.
-Das Problem mit dem Softphone muss so schnell wie möglich gelöst werden, da wir den Lieferanten regelmäßig kontaktieren müssen.</t>
-  </si>
-  <si>
     <t>Agent Lisa Anders</t>
   </si>
   <si>
-    <t>Adobe - Speichern eines PDF-Dokuments nicht möglich</t>
-  </si>
-  <si>
-    <t>2021-10-13 09:25:35 - [name_170] (Notizen schließen (Kunde sichtbar))
-Es ist möglich, eine Kopie als Workaround zu speichern. 
-In den PDF-Eigenschaften steht, dass es nicht erlaubt ist, ein Dokument zu ändern, nur um eine Kopie zu speichern. Die Ersteller sollten diese Funktion ändern, Frau [name_31808] wird sich mit den Kollegen, die die Vorlage erstellt haben, in Verbindung setzen."</t>
-  </si>
-  <si>
     <t>Agent Ralf Köhler</t>
   </si>
   <si>
@@ -272,197 +201,270 @@
     <t>Agent Dieter Brehl</t>
   </si>
   <si>
-    <t>Ich finde die Software Nuance PDF nicht</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reaktives CISCO IP Phone für neuen Benutzer zu ersetzen.
-2023-01-04 05:25:57 - Nutzer (Zusätzliche Kommentare)
-Zusätzliche Standortinformationen: IBM/ CC91
-Betroffenes Gerät: CISCO IP-Telefon 1234
-Beschreibung des Problems: CISCO IP Phone zum Ersetzen eines neuen Benutzers.
-Benutzername: CC91 PLMN
+    <t>The addin "Analysis for Excel" crashes again and again</t>
+  </si>
+  <si>
+    <t>Analysis for Office does not work with downloaded data from Excel.</t>
+  </si>
+  <si>
+    <t>Problems with O365 PP Analysis for Excel</t>
+  </si>
+  <si>
+    <t>I have to reload some data in "Analysis for Office". When I try to use Analysis, I get an error message.</t>
+  </si>
+  <si>
+    <t>Excel "Analysis for Office" after upgrade to O365</t>
+  </si>
+  <si>
+    <t>Cisco softphone defective</t>
+  </si>
+  <si>
+    <t>Cisco Softphone does not work</t>
+  </si>
+  <si>
+    <t>Problems with Cisco Phone</t>
+  </si>
+  <si>
+    <t>I can't find the Nuance PDF software</t>
+  </si>
+  <si>
+    <t>Nuance licence application</t>
+  </si>
+  <si>
+    <t>Nuance Software Application</t>
+  </si>
+  <si>
+    <t>Adobe - Cannot save a PDF document</t>
+  </si>
+  <si>
+    <t>My current version (2.7) of the Excel Add-in "Analysis for Excel" for Office 365 keeps crashing? I use it together with VBA macros, could this be the problem?</t>
+  </si>
+  <si>
+    <t>The Analysis for Office add-in is enabled but cannot open the downloaded data from LISA. The user says that he used to open this kind of files, but an error message is displayed.</t>
+  </si>
+  <si>
+    <t>Many of our staff use "Analysis for Excel O365PP" - most of them get an error message and the add-in does not start. I can start the add-in manually, but after a restart (or Excel restart) the add-in is inactive again. Do you have any idea what we can do in this case? Thank you very much for your support.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I need to reload some data in Analysis for Office. When I try to use Analysis after disabling it from the add-ins, I get the attached error. Please help me and fix the problem.  Thank you in advance. </t>
+  </si>
+  <si>
+    <t>2021-02-12 11:09:40 - [name_170] (More Comments).
+Excel Analysis for Office" after update to O365"</t>
+  </si>
+  <si>
+    <t>"2023-01-02 13:28:48 - [name_170] (Additional Comments)"
+Many of our employees are using "Analysis for Excel O365PP" - most of them get an error message and the add-in does not start. I can start the add-in manually, but after a restart (or Excel restart) the add-in is inactive again. Do you have any idea what we can do in this case? Thank you very much for your support.</t>
+  </si>
+  <si>
+    <t>Cisco Softphone cannot be used
+2023-01-24 05:03:58 - User (More comments)
+Affected device: Cisco Softphone
+Description of the problem: My Cisco Softphone does not work. The device has already been installed and set up by IT support.
+The softphone issue needs to be resolved as soon as possible as we need to contact the supplier regularly.</t>
+  </si>
+  <si>
+    <t>My Cisco phone is not logged in, I can't access my messages, no one can call me.
+2023-01-08 16:06:15 - User (More comments).
+Affected device: Cisco phone
+Problem Description: My Cisco phone is not logged in, I can't access my messages, no one can call me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reactive CISCO IP Phone ext:9876 for new user to replace.
+Affected device: CISCO IP Phone 1234
+Description of issue: CISCO IP Phone to replace new user.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-01-03 09:05:09 - Agent 1 (Arbeitsnotizen)
-Hallo,
-da wir in unserem Team keine Installationen auslösen können, möchte ich den HelpDesk bitten, je nach Installationsstatus folgende Lösungen zu implementieren:
-1) Benutzer hatte bereits Analysis 2.8 und hat nun Office365 installiert.
-Wenn in diesem Fall Probleme mit Analysis auftreten, sollte Analysis 2.8 neu installiert werden.
-2) Der Benutzer hatte Analysis 2.4 und hat nun Office365 installiert.
-Analysis 2.4 muss deinstalliert werden, dann kann Analysis 2.8 installiert werden.
-3) Nach der Installation von Office365 und den Problemen mit Analysis wurde Analysis 2.8 installiert; wahrscheinlich war vorher eine ältere Version von Analysis installiert.
-In diesem Fall sehe ich keine Lösung für die auftretenden Probleme und aus meiner Sicht muss der Rechner dann neu installiert werden! 
-Mit freundlichen Grüßen
-2023-01-03 14:59:15 - Agent 1 (Arbeitsnotizen)
-Nach der Neuinstallation aus dem Analysepaket funktioniert das Add-In. </t>
-  </si>
-  <si>
-    <t>Viele unserer Mitarbeiter nutzen "Analysis for Excel O365PP" - die meisten von ihnen erhalten eine Fehlermeldung und das Add-in wird nicht gestartet. Ich kann das Add-in manuell starten, aber nach einem Neustart (oder Excel-Neustart) ist das Add-in wieder inaktiv. Haben Sie eine Idee, was wir in diesem Fall tun können? Vielen Dank für Ihre Unterstützung.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ich muss einige Daten in "Analysis for Office" neu laden. Wenn ich versuche, die Analyse zu verwenden, nachdem ich sie aus den Add-Ins deaktiviert habe, erhalte ich den angehängten Fehler. Bitte helfen Sie mir und beheben Sie das Problem.  Ich danke Ihnen im Voraus. </t>
-  </si>
-  <si>
-    <t>2023-01-18 07:29:13 - Agent 3 (Zusätzliche Kommentare)
-Hallo,
-Ich benutze die gleiche Version von AO und hatte bisher keine Probleme damit.
-Das ist die aktuelle Version, die im Einsatz ist.
-Vielleicht können Sie genauer beschreiben, was wann passiert, damit wir Sie unterstützen können.
-Alternativ können Sie natürlich auch selbst im Internet nach Lösungen suchen Möglicherweise ist das Problem auch schon bekannt.
-Mit freundlichen Grüßen
-2023-01-27 10:45:36 - Agent 3 (Abschließende Notizen (Sichtbar für Kunden))
-Hallo,
-teilweise unktionieren die verschiedenen Browser unterschiedlich. Im folgenden Link finden Sie weitere Inforamtionen dayu:
-https:/hilfe.welcher-browser-funktioniert-besser/
-Mit freundlichen Grüßen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-23 09:11:09 - Agent 3 (Arbeitsnotizen)
-Hallo,
-da wir in unserem Team keine Installationen auslösen können, möchte ich den HelpDesk bitten, je nach Installationsstatus folgende Lösungen zu implementieren:
-1) Benutzer hatte bereits Analysis 2.8 und hat nun Office365 installiert.
-Wenn in diesem Fall Probleme mit Analysis auftreten, sollte Analysis 2.8 neu installiert werden.
-2) Der Benutzer hatte Analysis 2.4 und hat nun Office365 installiert.
-Analysis 2.4 muss deinstalliert werden, dann kann Analysis 2.8 installiert werden.
-3) Nach der Installation von Office365 und den Problemen mit Analysis wurde Analysis 2.8 installiert; wahrscheinlich war vorher eine ältere Version von Analysis installiert.
-In diesem Fall sehe ich keine Lösung für die auftretenden Probleme und aus meiner Sicht muss der Rechner dann neu installiert werden!
-4) Nach der Installation fehlen DataSources oder Queries: siehe Anhang
-2023-01-23 14:06:24 - Agent 1 (Arbeitsnotizen)
-Nach allen Schritten funktioniert es jetzt.
+    <t xml:space="preserve"> 2021-11-10 16:53:54 - [name_6383] (Additional comments)
+Affected device: DE13-M0009
+Description of the problem: Is it possible to use a softphone on the Macbook?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replace reactive CISCO IP Phone for new user.
+2023-01-04 05:25:57 - User (Additional comments).
+Additional location information: IBM/ CC91
+Affected device: CISCO IP Phone 1234
+Problem description: CISCO IP Phone to replace new user.
+User name: CC91 PLMN
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2021-02-12 11:09:40 - [name_170] (Notizen schließen (Kunde sichtbar))
-Sehr geehrter [name_2651], 
-Sie haben die richtige Version (2.8) von Analysis for office auf Ihrem Computer. Wenn alle Funktionen, die Sie bisher in Excel hatten, funktionieren, besteht kein weiterer Handlungsbedarf. 
-Wir danken Ihnen für Ihren Anruf. Sollten Sie in Zukunft eine Fehlfunktion feststellen, kontaktieren Sie uns bitte. 
+    <t>I can't find the software Nuance PDF on my PC
+2023-01-02 10:23:11 - User (More Comments)
+Does the software only work when I am on the BBraun network with VPN? The installation still doesn't show up in the Portal Manager. Thank you for the support.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application for pdf licence for Nuance.
+ Dear Team,
+as part of my project requirements, I need the nuance pdf editor software and license. Please provide me with what I need.
+Thank you very much and best regards.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-01-03 09:05:09 - Agent 1 (Arbeitsnotizen)
-Hallo,
-da wir in unserem Team keine Installationen auslösen können, möchte ich den HelpDesk bitten, je nach Installationsstatus folgende Lösungen zu implementieren:
-1) Benutzer hatte bereits Analysis 2.8 und hat nun Office365 installiert.
-Wenn in diesem Fall Probleme mit Analysis auftreten, sollte Analysis 2.8 neu installiert werden.
-2) Der Benutzer hatte Analysis 2.4 und hat nun Office365 installiert.
-Analysis 2.4 muss deinstalliert werden, dann kann Analysis 2.8 installiert werden.
-3) Nach der Installation von Office365 und den Problemen mit Analysis wurde Analysis 2.8 installiert; wahrscheinlich war vorher eine ältere Version von Analysis installiert.
-In diesem Fall sehe ich keine Lösung für die auftretenden Probleme und aus meiner Sicht muss der Rechner dann neu installiert werden! 
-Das MS Office-Paket wurde deinstalliert und neu installiert. Der Benutzer hat bestätigt, dass alles ordnungsgemäß funktioniert.
-Nach der Neuinstallation aus dem Analysepaket funktioniert das Add-In. </t>
-  </si>
-  <si>
-    <t>Es wurde versucht, es zu konfigurieren, aber es hat nicht funktioniert. Ich empfehle, die Software neu zu installieren und es erneut zu versuchen. @Agent 1 wird dies durchführen.
-Ich habe diese Schritte bereits durchgeführt, aber es wird immer noch nicht registriert.
-Der PC-Support hat es auch mit 2 verschiedenen MACs versucht.
-Ich habe die Firewall-Einstellung geändert und jetzt funktioniert es einwandfrei.</t>
+    <t xml:space="preserve">Hello, I would like to request the nuance power pdf advance software.
+</t>
+  </si>
+  <si>
+    <t>Adobe - Saving a PDF document not possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Install Nuance PDF Converter
+Additional location information: 
+Problem Description: Could you please install PDF converter on my PC.</t>
+  </si>
+  <si>
+    <t>Hello, I would like to request the Nuance Power pdf Advance software.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2023-01-18 07:29:13 - Agent 3 (Additional comments)
+Hello,
+I am using the same version of AO and have had no problems with it.
+This is the current version that is in use.
+Perhaps you could describe in more detail what happens and when, so that we can assist you.
+Alternatively, you can of course search for solutions yourself on the internet Possibly the problem is already known.
+With kind regards
+2023-01-27 10:45:36 - Agent 3 (Final notes (Visible to customers))
+Hello,
+Sometimes the different browsers work differently. In the following link you will find more information dayu:
+https:/help.which-browser-functions-better/
+With kind regards</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2023-01-23 09:11:09 - Agent 3 (working notes)
+Hello,
+as we cannot trigger installations in our team, I would like to ask the HelpDesk to implement the following solutions depending on the installation status:
+1) User already had Analysis 2.8 and has now installed Office365.
+In this case, if problems occur with Analysis, Analysis 2.8 should be reinstalled.
+2) User had Analysis 2.4 and has now installed Office365.
+Analysis 2.4 must be uninstalled, then Analysis 2.8 can be installed.
+3) After installing Office365 and the problems with Analysis, Analysis 2.8 was installed; probably an older version of Analysis was installed before.
+In this case, I do not see any solution for the occurring problems and from my point of view, the computer must then be reinstalled!
+4) After the installation DataSources or Queries are missing: see attachment
+2023-01-23 14:06:24 - Agent 1 (working notes)
+After all steps it works now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2023-01-03 09:05:09 - Agent 1 (working notes)
+Hello,
+as we cannot trigger installations in our team, I would like to ask the HelpDesk to implement the following solutions depending on the installation status:
+1) User already had Analysis 2.8 and has now installed Office365.
+In this case, if problems occur with Analysis, Analysis 2.8 should be reinstalled.
+2) User had Analysis 2.4 and has now installed Office365.
+Analysis 2.4 must be uninstalled, then Analysis 2.8 can be installed.
+3) After installing Office365 and the problems with Analysis, Analysis 2.8 was installed; probably an older version of Analysis was installed before.
+In this case I see no solution for the occurring problems and from my point of view the computer must then be reinstalled! 
+With kind regards
+2023-01-03 14:59:15 - Agent 1 (working notes)
+After reinstalling from the analysis package, the add-in works. </t>
+  </si>
+  <si>
+    <t>2021-01-14 15:10:33 - [name_127] (Close Notes (Customer Visible))
+The problem was fixed by disabling the error recovery mode of SAP Analysis for Office.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-12 11:09:40 - [name_170] (close notes (customer visible))
+Dear [name_2651], 
+You have the correct version (2.8) of Analysis for office on your computer. If all the functions you had in Excel so far work, there is no need for further action. 
+We thank you for your call. If you experience any malfunction in the future, please contact us. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2023-01-03 09:05:09 - Agent 1 (working notes)
+Hello,
+as we cannot trigger installations in our team, I would like to ask the HelpDesk to implement the following solutions depending on the installation status:
+1) User already had Analysis 2.8 and has now installed Office365.
+In this case, if problems occur with Analysis, Analysis 2.8 should be reinstalled.
+2) User had Analysis 2.4 and has now installed Office365.
+Analysis 2.4 must be uninstalled, then Analysis 2.8 can be installed.
+3) After installing Office365 and the problems with Analysis, Analysis 2.8 was installed; probably an older version of Analysis was installed before.
+In this case I do not see any solution for the occurring problems and from my point of view the computer must then be reinstalled! 
+The MS Office package was uninstalled and reinstalled. The user has confirmed that everything is working properly.
+After reinstalling from the analysis package, the add-in works. </t>
+  </si>
+  <si>
+    <t>An attempt was made to configure it, but it did not work. I recommend reinstalling the software and trying again. @Agent 1 will do this.
+I have already done these steps but it is still not registering.
+PC support has also tried with 2 different MACs.
+I changed the firewall setting and now it works fine.</t>
   </si>
   <si>
     <t xml:space="preserve">
-2023-01-11 10:45:10 - Agent 2 (Abschließene Notizen (für Kunden sichtbar))
-Hallo,
-ich habe den Cisco Installer erneut Ihrem Kunden zugewiesen. Bitte führen Sie das Paket über den Ivanti Portal Manager aus.</t>
+2023-01-11 10:45:10 - Agent 2 (Closing notes (visible to clients))
+Hello,
+I have reassigned the Cisco Installer to your customer. Please run the package through Ivanti Portal Manager.</t>
   </si>
   <si>
     <t xml:space="preserve">
-2023-01-04  09:15:58 - Agent 1 (Notizen schließen (für Kunden sichtbar))
-Lieber Benutzer,
-wie in unserem Gespräch besprochen, bitten wir Sie, ein Ticket über IT SHOP zu erstellen, um eine neue Telefondurchwahl zu beantragen (siehe Link unten): 
+2023-01-04 09:15:58 - Agent 1 (close notes (visible to clients))
+Dear User,
+as discussed in our conversation, please create a ticket through IT SHOP to request a new phone extension (see link below): 
 https://hilfe.service-it.com
-oder unter folgendem Pfad: 
-Home &gt; Service Catalog &gt; Zugangs- und Benutzerverwaltung &gt; Telefondurchwahl
-***Bitte kontaktieren Sie den IT-Helpdesk unter der Durchwahl 1010 für alle Anfragen. ***Bitte kontaktieren Sie den BMI IT-Helpdesk unter der Durchwahl 3030 für alle Anfragen. Wir danken Ihnen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-11-11 10:14:41 - [name_225] (Weitere Kommentare)
-Guten Morgen, 
-da eine Alternativlösung derzeit die Nutzung des Hardphones ist, ist die Nutzung des Softphones am Macbook in Zukunft eher unwahrscheinlich. 
-Mit freundlichen Grüßen, 
+or under the following path: 
+Home &gt; Service Catalog &gt; Access and User Management &gt; Phone Extension.
+***Please contact the IT Helpdesk at extension 1010 for all enquiries. ***Please contact the BMI IT Helpdesk at extension 3030 for all enquiries. Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2021-11-11 10:14:41 - [name_225] (More comments)
+Good morning, 
+as an alternative solution is currently the use of the hardphone, the use of the softphone on the Macbook is unlikely in the future. 
+Yours sincerely, 
 </t>
   </si>
   <si>
-    <t>Nutzer  ist zurückgetreten. &gt; aber das Cisco System zeigt &gt; ZM10 ABCC Dept ABCC Besprechungsraum 3563
-    * Einrichtung für dieselbe Nummer ext: 9876 für eingehende und ausgehende Anrufe
-   * neue Nummer anfordern
-    * cisco IP Telefon und verbinden
-2023-01-04  09:15:58 - Agent 1 (Notizen schließen (für Kunden sichtbar))
-Lieber Benutzer,
-wie in unserem Gespräch besprochen, bitten wir Sie, ein Ticket über IT SHOP zu erstellen, um eine neue Telefondurchwahl zu beantragen (siehe Link unten): 
+    <t>User has resigned. &gt; but the Cisco system shows &gt; ZM10 ABCC Dept ABCC Meeting Room 3563.
+    * Set up for same number ext: 9876 for incoming and outgoing calls.
+   * request new number
+    * cisco IP phone and connect
+2023-01-04 09:15:58 - Agent 1 (close notes (visible to customers))
+Dear User,
+as discussed in our conversation, please create a ticket through IT SHOP to request a new phone extension (see link below): 
 https://hilfe.service-it.com
-oder unter folgendem Pfad: 
-Home &gt; Service Catalog &gt; Zugangs- und Benutzerverwaltung &gt; Telefondurchwahl
-***Bitte kontaktieren Sie den IT-Helpdesk unter der Durchwahl 1010 für alle Anfragen. ***Bitte kontaktieren Sie den BMI IT-Helpdesk unter derr Durchwahl 3030 für alle Anfragen. Wir danken Ihnen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-08 11:55:22 - Agent 1 (Weitere Kommentare)
-Paket wurde nochmal zugewiesen.
-2023-01-08 13:14:47 - Agent 2 (Notizen schließen (für Kunden sichtbar))
-Bitte aktualisieren Sie zunächst auf Windows 10 20H2, da die aktuelle Version 1709 von Microsoft nicht mehr unterstützt wird.
+or under the following path: 
+Home &gt; Service Catalog &gt; Access and User Management &gt; Phone Extension.
+***Please contact the IT Helpdesk at extension 1010 for all enquiries. ***Please contact the BMI IT Helpdesk at extension 3030 for all enquiries. Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2023-01-08 11:55:22 - Agent 1 (More Comments)
+Package has been reassigned.
+2023-01-08 13:14:47 - Agent 2 (Close Notes (visible to customers))
+Please upgrade to Windows 10 20H2 first as the current version 1709 is no longer supported by Microsoft.
 </t>
   </si>
   <si>
-    <t>Hallo Nutzer,
-Sie können Nuance Power PDF im IT Service Portal anfordern, indem Sie die entsprechende Version Ihres Betriebssystems auswählen (https://hilfe.service-nuances.com). Wenn die Anforderung genehmigt wird, wird die Software Ihrem Laptop zugewiesen (nicht installiert). Sie können das Software-Portal öffnen, indem Sie "rap" in das Suchfeld auf der linken Seite unten eingeben (Windows 10). Dann sehen Sie das Programm, das installiert werden kann. Mit freundlichen Grüßen, ITS.</t>
+    <t>Hello users,
+You can request Nuance Power PDF in the IT Service Portal by selecting the appropriate version of your operating system (https://hilfe.service-nuances.com). If the request is approved, the software will be assigned to your laptop (not installed). You can open the Software Portal by typing "rap" in the search box on the left side at the bottom (Windows 10). Then you will see the programme that can be installed. Yours sincerely, ITS.</t>
   </si>
   <si>
     <t xml:space="preserve">
-Wie lautet der Name Ihres Computers?
-Benutzen Sie Windows 10 oder Windows 7?
-2023-01-2403:09:53 - Agent  (Anmerkungen schließen (für Kunden sichtbar))
-Ich empfehle dem Benutzer, es im Servicekatalog zu beantragen.
-Startseite &gt;Servicekatalog &gt;Software &amp; Apps &gt;Nuance Power PDF Advanced
+What is the name of your computer?
+Are you using Windows 10 or Windows 7?
+2023-01-2403:09:53 - Agent (close comments (visible to customers))
+I recommend the user to request it in the service catalogue.
+Home &gt;Service catalogue &gt;Software &amp; Apps &gt;Nuance Power PDF Advanced
 https://hilfe.service-nuances.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Anfrage für [name_10205] Power PDF Advanced wurde abgeschlossen,  
-Sie können die Anwendung über den Portal Manager installieren.  
-Um den Portal Manager zu öffnen, geben Sie "RAP" in das Suchfeld ein und wählen Sie dann "Anwendungen", klicken Sie in der rechten Ecke auf die Schaltfläche Aktualisieren, wählen Sie dann [name_10205] Power PDF Advanced und klicken Sie auf Installieren .  
-</t>
-  </si>
-  <si>
-    <t>Wie lautet der Name Ihres Computers?
-Benutzen Sie Windows 10 oder Windows 7?
-2023-01-2403:09:53 - Agent  (Anmerkungen schließen (für Kunden sichtbar))
-Ich empfehle dem Benutzer, es im Servicekatalog zu beantragen.
-Startseite &gt;Servicekatalog &gt;Software &amp; Apps &gt;Nuance Power PDF Advanced
+    <t>2021-10-13 09:25:35 - [name_170] (close notes (client visible))
+It is possible to save a copy as a workaround. 
+In the PDF properties it says that it is not allowed to change a document just to save a copy. The creators should change this function, Ms [name_31808] will contact the colleagues who created the template."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The request for [name_10205] Power PDF Advanced has been completed,  
+You can install the application via the Portal Manager.  
+To open the Portal Manager, type "RAP" in the search box and then select "Applications", click the Update button in the right corner, then select [name_10205] Power PDF Advanced and click Install .  </t>
+  </si>
+  <si>
+    <t>What is the name of your computer?
+Are you using Windows 10 or Windows 7?
+2023-01-2403:09:53 - Agent (close comments (visible to customers))
+I recommend the user to request it in the service catalogue.
+Home &gt;Service catalogue &gt;Software &amp; Apps &gt;Nuance Power PDF Advanced
 https://hilfe.service-nuance.com/</t>
-  </si>
-  <si>
-    <t>Nuance PDF-Konverter installieren
-Zusätzliche Standortinformationen: 
-Problembeschreibung: Könnten Sie bitte PDF-Konverter auf meinem PC installieren</t>
-  </si>
-  <si>
-    <t>Hallo, ich möchte die Nuance Power pdf Advance Software anfordern.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hallo, ich möchte die Nuance Power pdf Advance Software anfordern.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antrag auf pdf-Lizenz für Nuance.
- Liebes Team,
-als Teil meiner Projektanforderungen benötige ich die Software nuance pdf editor und die Lizenz. Bitte stellen Sie mir das Notwendige zur Verfügung.
-Vielen Dank und viele Grüße.
-</t>
-  </si>
-  <si>
-    <t>Ich finde die Software Nuance PDF nicht auf meinem PC
-2023-01-02 10:23:11 - Nutzer (Weitere Kommentare)
-Funktioniert die Software nur, wenn ich mich im BBraun Netzwerk mit VPN befinde? Im Portal Manager taucht die Installation immer noch nicht auf. Vielen Dank für den Support.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaktives CISCO IP Phone ext:9876 für neuen Benutzer zu ersetzen.
-Betroffenes Gerät: CISCO IP-Telefon 1234
-Beschreibung des Problems: CISCO IP Phone zum Ersetzen eines neuen Benutzers.
-</t>
-  </si>
-  <si>
-    <t>"Analysis for Office" funktioniert nicht mit den heruntergeladenen Daten von Excel.</t>
   </si>
 </sst>
 </file>
@@ -537,7 +539,84 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -611,181 +690,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -810,13 +714,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7064B924-F2FC-46C3-B05D-DC079E3D2967}" name="Table2" displayName="Table2" ref="A1:H18" totalsRowShown="0">
   <autoFilter ref="A1:H18" xr:uid="{7064B924-F2FC-46C3-B05D-DC079E3D2967}"/>
   <tableColumns count="8">
-    <tableColumn id="10" xr3:uid="{A0CEA7F4-0404-4037-9E1B-1E5A093D521D}" name="systemId" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{A0CEA7F4-0404-4037-9E1B-1E5A093D521D}" name="systemId" dataDxfId="21"/>
     <tableColumn id="1" xr3:uid="{F788B06C-E20D-499B-82A2-16BDBA4E08F2}" name="ticketId"/>
     <tableColumn id="2" xr3:uid="{00BD2982-1A6B-4C2D-BB97-48969FCAB4C5}" name="ticketCreator"/>
     <tableColumn id="3" xr3:uid="{D687C213-4411-461B-B464-482249F037FE}" name="ticketDate"/>
     <tableColumn id="4" xr3:uid="{3D4AC511-9511-4691-BDA8-1896A8C6B8D1}" name="ticketTitle"/>
     <tableColumn id="5" xr3:uid="{D5F8AA30-27C9-417B-802C-F7A71869CF4F}" name="ticketDescription"/>
-    <tableColumn id="6" xr3:uid="{804F2CFF-7186-4CCC-851C-E0E69BC88197}" name="ticketDescriptionHighlighting" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{804F2CFF-7186-4CCC-851C-E0E69BC88197}" name="ticketDescriptionHighlighting" dataDxfId="20"/>
     <tableColumn id="11" xr3:uid="{B5D8F818-43C1-47E1-B85E-88AC7524A690}" name="ticketSolutionHistory"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1115,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1168,19 +1072,19 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.35">
@@ -1191,22 +1095,22 @@
         <v>50194</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1217,22 +1121,22 @@
         <v>42060</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1243,22 +1147,22 @@
         <v>38001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1269,22 +1173,22 @@
         <v>42999</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1295,25 +1199,25 @@
         <v>43051</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="145" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1321,25 +1225,25 @@
         <v>43200</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1347,25 +1251,25 @@
         <v>79808</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="246.5" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1373,25 +1277,25 @@
         <v>82838</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1399,25 +1303,25 @@
         <v>79808</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="362.5" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1425,25 +1329,25 @@
         <v>82838</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1451,25 +1355,25 @@
         <v>85868</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1477,25 +1381,25 @@
         <v>88899</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1503,25 +1407,25 @@
         <v>91923</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -1529,22 +1433,22 @@
         <v>85868</v>
       </c>
       <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1555,25 +1459,25 @@
         <v>88899</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1581,193 +1485,123 @@
         <v>91929</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:H3 A4:F4 H4 G8:H10 A8:C8 H11:H15 G3:G18 E8:F8">
-    <cfRule type="containsBlanks" dxfId="35" priority="50">
+  <conditionalFormatting sqref="A2">
+    <cfRule type="containsBlanks" dxfId="19" priority="46">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:E3 G3:H3">
-    <cfRule type="containsBlanks" dxfId="34" priority="49">
+  <conditionalFormatting sqref="A5">
+    <cfRule type="containsBlanks" dxfId="18" priority="34">
+      <formula>LEN(TRIM(A5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:C5 E5:F5 A6:F7">
+    <cfRule type="containsBlanks" dxfId="17" priority="37">
+      <formula>LEN(TRIM(A5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C8 E8:F8">
+    <cfRule type="containsBlanks" dxfId="16" priority="47">
+      <formula>LEN(TRIM(A8))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:D4">
+    <cfRule type="containsBlanks" dxfId="15" priority="48">
+      <formula>LEN(TRIM(A4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:D7">
+    <cfRule type="containsBlanks" dxfId="14" priority="35">
+      <formula>LEN(TRIM(A7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:E3">
+    <cfRule type="containsBlanks" dxfId="13" priority="49">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:D4 F4 H4">
-    <cfRule type="containsBlanks" dxfId="33" priority="48">
-      <formula>LEN(TRIM(A4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 E8:F8">
-    <cfRule type="containsBlanks" dxfId="32" priority="47">
-      <formula>LEN(TRIM(A8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="containsBlanks" dxfId="31" priority="46">
+  <conditionalFormatting sqref="A6:E6">
+    <cfRule type="containsBlanks" dxfId="12" priority="36">
+      <formula>LEN(TRIM(A6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:H3 A4:F4 G8:H10">
+    <cfRule type="containsBlanks" dxfId="11" priority="50">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="containsBlanks" dxfId="30" priority="45">
+  <conditionalFormatting sqref="B5:C5 E5">
+    <cfRule type="containsBlanks" dxfId="10" priority="29">
+      <formula>LEN(TRIM(B5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:D3 F3:H3">
+    <cfRule type="containsBlanks" dxfId="9" priority="40">
+      <formula>LEN(TRIM(B3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E2 G2:H3">
+    <cfRule type="containsBlanks" dxfId="8" priority="41">
+      <formula>LEN(TRIM(B2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F4">
+    <cfRule type="containsBlanks" dxfId="7" priority="39">
+      <formula>LEN(TRIM(B4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:F7">
+    <cfRule type="containsBlanks" dxfId="6" priority="27">
+      <formula>LEN(TRIM(B7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D7">
+    <cfRule type="containsBlanks" dxfId="5" priority="7">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D5">
-    <cfRule type="containsBlanks" dxfId="29" priority="44">
-      <formula>LEN(TRIM(D4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
-    <cfRule type="containsBlanks" dxfId="28" priority="43">
-      <formula>LEN(TRIM(F2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
-    <cfRule type="containsBlanks" dxfId="27" priority="42">
-      <formula>LEN(TRIM(F2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E2 G2:H2">
-    <cfRule type="containsBlanks" dxfId="26" priority="41">
+  <conditionalFormatting sqref="D16">
+    <cfRule type="containsBlanks" dxfId="4" priority="3">
+      <formula>LEN(TRIM(D16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
+      <formula>LEN(TRIM(D18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F7 H4:H7 B6:D6">
+    <cfRule type="containsBlanks" dxfId="2" priority="28">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:D3 F3:H3">
-    <cfRule type="containsBlanks" dxfId="25" priority="40">
-      <formula>LEN(TRIM(B3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F4">
-    <cfRule type="containsBlanks" dxfId="24" priority="39">
-      <formula>LEN(TRIM(B4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G3:G18">
-    <cfRule type="containsBlanks" dxfId="23" priority="38">
+    <cfRule type="containsBlanks" dxfId="1" priority="38">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:F7 H5:H7 A5:C5 E5:F5">
-    <cfRule type="containsBlanks" dxfId="22" priority="37">
-      <formula>LEN(TRIM(A5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:E6 H6">
-    <cfRule type="containsBlanks" dxfId="21" priority="36">
-      <formula>LEN(TRIM(A6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:D7 F7 H7">
-    <cfRule type="containsBlanks" dxfId="20" priority="35">
-      <formula>LEN(TRIM(A7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="containsBlanks" dxfId="19" priority="34">
-      <formula>LEN(TRIM(A5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="containsBlanks" dxfId="18" priority="33">
-      <formula>LEN(TRIM(D6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsBlanks" dxfId="17" priority="32">
-      <formula>LEN(TRIM(D7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F6">
-    <cfRule type="containsBlanks" dxfId="16" priority="31">
-      <formula>LEN(TRIM(F5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F6">
-    <cfRule type="containsBlanks" dxfId="15" priority="30">
-      <formula>LEN(TRIM(F5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C5 H5 E5">
-    <cfRule type="containsBlanks" dxfId="14" priority="29">
-      <formula>LEN(TRIM(B5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:D6 F6 H6">
-    <cfRule type="containsBlanks" dxfId="13" priority="28">
-      <formula>LEN(TRIM(B6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:F7">
-    <cfRule type="containsBlanks" dxfId="12" priority="27">
-      <formula>LEN(TRIM(B7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16:H18">
-    <cfRule type="containsBlanks" dxfId="11" priority="16">
-      <formula>LEN(TRIM(H16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsBlanks" dxfId="8" priority="9">
-      <formula>LEN(TRIM(D5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsBlanks" dxfId="7" priority="8">
-      <formula>LEN(TRIM(D5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
-      <formula>LEN(TRIM(D5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(D16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(D16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(D16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(D16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(D18))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(D18))=0</formula>
+  <conditionalFormatting sqref="H11:H18">
+    <cfRule type="containsBlanks" dxfId="0" priority="16">
+      <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
